--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T657"/>
+  <dimension ref="A1:T659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,7 +51395,7 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N638" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O638" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P638" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="T638" t="n">
         <v>450</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,7 +51475,7 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N639" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O639" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P639" t="n">
-        <v>171579</v>
+        <v>165000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N640" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="O640" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P640" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N641" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O641" t="n">
         <v>200000</v>
       </c>
       <c r="P641" t="n">
-        <v>190000</v>
+        <v>171579</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N642" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="O642" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="P642" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N643" t="n">
         <v>180000</v>
       </c>
       <c r="O643" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P643" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51822,11 +51822,11 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N644" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O644" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P644" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N645" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O645" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P645" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N646" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O646" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P646" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N647" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O647" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P647" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N648" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O648" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P648" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N649" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O649" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P649" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52302,11 +52302,11 @@
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
         <v>20</v>
       </c>
       <c r="N650" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O650" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P650" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N651" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O651" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P651" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,29 +52515,29 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="N652" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O652" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="P652" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
@@ -52546,10 +52546,10 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>556</v>
+        <v>356</v>
       </c>
       <c r="T652" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N653" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O653" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P653" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52680,36 +52680,36 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M654" t="n">
+        <v>128</v>
+      </c>
+      <c r="N654" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O654" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P654" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q654" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R654" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S654" t="n">
+        <v>556</v>
+      </c>
+      <c r="T654" t="n">
         <v>18</v>
-      </c>
-      <c r="N654" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O654" t="n">
-        <v>160000</v>
-      </c>
-      <c r="P654" t="n">
-        <v>155000</v>
-      </c>
-      <c r="Q654" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R654" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S654" t="n">
-        <v>344</v>
-      </c>
-      <c r="T654" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="655">
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N655" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O655" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P655" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N656" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O656" t="n">
         <v>160000</v>
       </c>
       <c r="P656" t="n">
-        <v>160000</v>
+        <v>155000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52915,40 +52915,200 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M657" t="n">
+        <v>18</v>
+      </c>
+      <c r="N657" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O657" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P657" t="n">
+        <v>120000</v>
+      </c>
+      <c r="Q657" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R657" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S657" t="n">
+        <v>267</v>
+      </c>
+      <c r="T657" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>6</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D658" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E658" t="n">
+        <v>13</v>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G658" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I658" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
           <t>Winter Nelis</t>
         </is>
       </c>
-      <c r="L657" t="inlineStr">
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M658" t="n">
+        <v>20</v>
+      </c>
+      <c r="N658" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O658" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P658" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q658" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R658" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S658" t="n">
+        <v>356</v>
+      </c>
+      <c r="T658" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>6</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D659" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E659" t="n">
+        <v>13</v>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G659" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I659" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>Winter Nelis</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M657" t="n">
+      <c r="M659" t="n">
         <v>15</v>
       </c>
-      <c r="N657" t="n">
+      <c r="N659" t="n">
         <v>130000</v>
       </c>
-      <c r="O657" t="n">
+      <c r="O659" t="n">
         <v>130000</v>
       </c>
-      <c r="P657" t="n">
+      <c r="P659" t="n">
         <v>130000</v>
       </c>
-      <c r="Q657" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R657" t="inlineStr">
+      <c r="Q659" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R659" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S657" t="n">
+      <c r="S659" t="n">
         <v>289</v>
       </c>
-      <c r="T657" t="n">
+      <c r="T659" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T659"/>
+  <dimension ref="A1:T663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N585" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O585" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P585" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T585" t="n">
         <v>450</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N586" t="n">
         <v>180000</v>
       </c>
       <c r="O586" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P586" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="T586" t="n">
         <v>450</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
         <v>20</v>
       </c>
       <c r="N587" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O587" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P587" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T587" t="n">
         <v>450</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44251</v>
+        <v>44449</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N588" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O588" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P588" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T588" t="n">
         <v>450</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M589" t="n">
         <v>15</v>
       </c>
       <c r="N589" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="O589" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="P589" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>311</v>
+        <v>489</v>
       </c>
       <c r="T589" t="n">
         <v>450</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N590" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O590" t="n">
         <v>200000</v>
       </c>
       <c r="P590" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="T590" t="n">
         <v>450</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N591" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O591" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P591" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47662,11 +47662,11 @@
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T591" t="n">
         <v>450</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,25 +47715,25 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N592" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O592" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P592" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47742,11 +47742,11 @@
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T592" t="n">
         <v>450</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N593" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O593" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P593" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N594" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O594" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P594" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47902,11 +47902,11 @@
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T594" t="n">
         <v>450</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N595" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O595" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P595" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T595" t="n">
         <v>450</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N596" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="O596" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P596" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48124,7 +48124,7 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N597" t="n">
         <v>180000</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N598" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O598" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P598" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48222,11 +48222,11 @@
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S598" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N599" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O599" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P599" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T599" t="n">
         <v>450</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N600" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O600" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P600" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N601" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O601" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P601" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48462,11 +48462,11 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N602" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O602" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P602" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T602" t="n">
         <v>450</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N603" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O603" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="P603" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48622,11 +48622,11 @@
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="T603" t="n">
         <v>450</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="N604" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O604" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P604" t="n">
-        <v>210000</v>
+        <v>160000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48702,11 +48702,11 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>467</v>
+        <v>356</v>
       </c>
       <c r="T604" t="n">
         <v>450</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N605" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O605" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P605" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48782,11 +48782,11 @@
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N606" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O606" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P606" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48862,11 +48862,11 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="N607" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="O607" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P607" t="n">
-        <v>178538</v>
+        <v>210000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N608" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O608" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P608" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49022,11 +49022,11 @@
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="T608" t="n">
         <v>450</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="N609" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O609" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P609" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49102,11 +49102,11 @@
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T609" t="n">
         <v>450</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N610" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O610" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P610" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49182,11 +49182,11 @@
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="T610" t="n">
         <v>450</v>
@@ -49235,7 +49235,7 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="N611" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O611" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P611" t="n">
-        <v>180000</v>
+        <v>178538</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49262,11 +49262,11 @@
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="T611" t="n">
         <v>450</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N612" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O612" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P612" t="n">
-        <v>175833</v>
+        <v>160000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49342,11 +49342,11 @@
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49395,7 +49395,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -49404,7 +49404,7 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N613" t="n">
         <v>160000</v>
@@ -49422,7 +49422,7 @@
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S613" t="n">
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49484,7 +49484,7 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N614" t="n">
         <v>150000</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -49564,16 +49564,16 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N615" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O615" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P615" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49582,11 +49582,11 @@
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T615" t="n">
         <v>450</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N616" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O616" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P616" t="n">
-        <v>160000</v>
+        <v>175833</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="T616" t="n">
         <v>450</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,7 +49715,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N617" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O617" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P617" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49742,11 +49742,11 @@
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N618" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O618" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P618" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49822,11 +49822,11 @@
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T618" t="n">
         <v>450</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N619" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O619" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P619" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49902,11 +49902,11 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,13 +49964,13 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N620" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O620" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P620" t="n">
         <v>160000</v>
@@ -49982,7 +49982,7 @@
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S620" t="n">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N621" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O621" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P621" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50062,11 +50062,11 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N622" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O622" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P622" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N623" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O623" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P623" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N624" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O624" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P624" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N625" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O625" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P625" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50382,11 +50382,11 @@
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T625" t="n">
         <v>450</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,7 +50435,7 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
@@ -50444,13 +50444,13 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N626" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O626" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P626" t="n">
         <v>170000</v>
@@ -50462,7 +50462,7 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S626" t="n">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,7 +50515,7 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N627" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O627" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P627" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50542,11 +50542,11 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N628" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O628" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P628" t="n">
-        <v>175000</v>
+        <v>130000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50622,11 +50622,11 @@
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N629" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O629" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P629" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T629" t="n">
         <v>450</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N630" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O630" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P630" t="n">
-        <v>145000</v>
+        <v>170000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,7 +50835,7 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
@@ -50844,16 +50844,16 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N631" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O631" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P631" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N632" t="n">
-        <v>300000</v>
+        <v>170000</v>
       </c>
       <c r="O632" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P632" t="n">
-        <v>300000</v>
+        <v>175000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T632" t="n">
         <v>450</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N633" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="O633" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="P633" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>578</v>
+        <v>333</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N634" t="n">
-        <v>330000</v>
+        <v>140000</v>
       </c>
       <c r="O634" t="n">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="P634" t="n">
-        <v>330000</v>
+        <v>145000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>733</v>
+        <v>322</v>
       </c>
       <c r="T634" t="n">
         <v>450</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
         <v>18</v>
       </c>
       <c r="N635" t="n">
-        <v>280000</v>
+        <v>120000</v>
       </c>
       <c r="O635" t="n">
-        <v>280000</v>
+        <v>120000</v>
       </c>
       <c r="P635" t="n">
-        <v>280000</v>
+        <v>120000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>622</v>
+        <v>267</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N636" t="n">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="O636" t="n">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="P636" t="n">
-        <v>170000</v>
+        <v>300000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>378</v>
+        <v>667</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N637" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="O637" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P637" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N638" t="n">
-        <v>190000</v>
+        <v>330000</v>
       </c>
       <c r="O638" t="n">
-        <v>190000</v>
+        <v>330000</v>
       </c>
       <c r="P638" t="n">
-        <v>190000</v>
+        <v>330000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>422</v>
+        <v>733</v>
       </c>
       <c r="T638" t="n">
         <v>450</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N639" t="n">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="O639" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P639" t="n">
-        <v>165000</v>
+        <v>280000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>367</v>
+        <v>622</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N640" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O640" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P640" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,25 +51635,25 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="N641" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O641" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P641" t="n">
-        <v>171579</v>
+        <v>130000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N642" t="n">
-        <v>110000</v>
+        <v>190000</v>
       </c>
       <c r="O642" t="n">
-        <v>110000</v>
+        <v>190000</v>
       </c>
       <c r="P642" t="n">
-        <v>110000</v>
+        <v>190000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>244</v>
+        <v>422</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N643" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O643" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P643" t="n">
-        <v>190000</v>
+        <v>165000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>422</v>
+        <v>367</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N644" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O644" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P644" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N645" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O645" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P645" t="n">
-        <v>180000</v>
+        <v>171579</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N646" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="O646" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="P646" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>400</v>
+        <v>244</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N647" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O647" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P647" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52142,11 +52142,11 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N648" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O648" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P648" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N649" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O649" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P649" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N650" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O650" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P650" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
         <v>12</v>
       </c>
       <c r="N651" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O651" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P651" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,7 +52524,7 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N652" t="n">
         <v>160000</v>
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,16 +52604,16 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N653" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O653" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P653" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52622,11 +52622,11 @@
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,24 +52680,24 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="N654" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="O654" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="P654" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
@@ -52706,10 +52706,10 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>556</v>
+        <v>267</v>
       </c>
       <c r="T654" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,7 +52764,7 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N655" t="n">
         <v>180000</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N656" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O656" t="n">
         <v>160000</v>
       </c>
       <c r="P656" t="n">
-        <v>155000</v>
+        <v>160000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N657" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O657" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P657" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52995,29 +52995,29 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="N658" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="O658" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
@@ -53026,10 +53026,10 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T658" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="659">
@@ -53075,40 +53075,360 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M659" t="n">
         <v>15</v>
       </c>
       <c r="N659" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O659" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P659" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q659" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R659" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S659" t="n">
+        <v>400</v>
+      </c>
+      <c r="T659" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>6</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D660" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E660" t="n">
+        <v>13</v>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G660" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I660" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M660" t="n">
+        <v>18</v>
+      </c>
+      <c r="N660" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O660" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P660" t="n">
+        <v>155000</v>
+      </c>
+      <c r="Q660" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R660" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S660" t="n">
+        <v>344</v>
+      </c>
+      <c r="T660" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>6</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D661" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E661" t="n">
+        <v>13</v>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G661" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I661" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M661" t="n">
+        <v>18</v>
+      </c>
+      <c r="N661" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O661" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P661" t="n">
+        <v>120000</v>
+      </c>
+      <c r="Q661" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R661" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S661" t="n">
+        <v>267</v>
+      </c>
+      <c r="T661" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>6</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D662" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E662" t="n">
+        <v>13</v>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G662" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I662" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>Winter Nelis</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M662" t="n">
+        <v>20</v>
+      </c>
+      <c r="N662" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O662" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P662" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q662" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R662" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S662" t="n">
+        <v>356</v>
+      </c>
+      <c r="T662" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>6</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D663" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E663" t="n">
+        <v>13</v>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G663" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I663" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>Winter Nelis</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M663" t="n">
+        <v>15</v>
+      </c>
+      <c r="N663" t="n">
         <v>130000</v>
       </c>
-      <c r="O659" t="n">
+      <c r="O663" t="n">
         <v>130000</v>
       </c>
-      <c r="P659" t="n">
+      <c r="P663" t="n">
         <v>130000</v>
       </c>
-      <c r="Q659" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R659" t="inlineStr">
+      <c r="Q663" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R663" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S659" t="n">
+      <c r="S663" t="n">
         <v>289</v>
       </c>
-      <c r="T659" t="n">
+      <c r="T663" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T671"/>
+  <dimension ref="A1:T674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36604,7 +36604,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N453" t="n">
         <v>200000</v>
@@ -36622,7 +36622,7 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S453" t="n">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N454" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O454" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P454" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36702,11 +36702,11 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T454" t="n">
         <v>450</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N455" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O455" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P455" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T455" t="n">
         <v>450</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44165</v>
+        <v>44418</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N456" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O456" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P456" t="n">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="T456" t="n">
         <v>450</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44165</v>
+        <v>44418</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N457" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O457" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P457" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T457" t="n">
         <v>450</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N458" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O458" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P458" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T458" t="n">
         <v>450</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N459" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O459" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="P459" t="n">
-        <v>180000</v>
+        <v>245000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37102,11 +37102,11 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="T459" t="n">
         <v>450</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N460" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O460" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P460" t="n">
-        <v>153333</v>
+        <v>200000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37182,11 +37182,11 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>341</v>
+        <v>444</v>
       </c>
       <c r="T460" t="n">
         <v>450</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,7 +37244,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N461" t="n">
         <v>200000</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N462" t="n">
         <v>180000</v>
       </c>
       <c r="O462" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P462" t="n">
-        <v>185000</v>
+        <v>180000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="T462" t="n">
         <v>450</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N463" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O463" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P463" t="n">
-        <v>175000</v>
+        <v>153333</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="T463" t="n">
         <v>450</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37475,16 +37475,16 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N464" t="n">
         <v>200000</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N465" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O465" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P465" t="n">
-        <v>155000</v>
+        <v>185000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="T465" t="n">
         <v>450</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N466" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O466" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P466" t="n">
-        <v>125000</v>
+        <v>175000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="T466" t="n">
         <v>450</v>
@@ -37715,16 +37715,16 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N467" t="n">
         <v>200000</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N468" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O468" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P468" t="n">
-        <v>220000</v>
+        <v>155000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>489</v>
+        <v>344</v>
       </c>
       <c r="T468" t="n">
         <v>450</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N469" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O469" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P469" t="n">
-        <v>160000</v>
+        <v>125000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="T469" t="n">
         <v>450</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N470" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O470" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P470" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T470" t="n">
         <v>450</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N471" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O471" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P471" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="T471" t="n">
         <v>450</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N472" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O472" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P472" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="T472" t="n">
         <v>450</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N473" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O473" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P473" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T473" t="n">
         <v>450</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N474" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O474" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P474" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T474" t="n">
         <v>450</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38367,13 +38367,13 @@
         <v>25</v>
       </c>
       <c r="N475" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="O475" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P475" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="T475" t="n">
         <v>450</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N476" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O476" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P476" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T476" t="n">
         <v>450</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N477" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O477" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P477" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T477" t="n">
         <v>450</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38595,25 +38595,25 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N478" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O478" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P478" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T478" t="n">
         <v>450</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N479" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O479" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P479" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T479" t="n">
         <v>450</v>
@@ -38755,12 +38755,12 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N481" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O481" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P481" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T481" t="n">
         <v>450</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,7 +38924,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N482" t="n">
         <v>180000</v>
@@ -38942,7 +38942,7 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S482" t="n">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N483" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O483" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P483" t="n">
-        <v>175000</v>
+        <v>160000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="T483" t="n">
         <v>450</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N484" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O484" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P484" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T484" t="n">
         <v>450</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N485" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O485" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P485" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T485" t="n">
         <v>450</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N486" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O486" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P486" t="n">
-        <v>140000</v>
+        <v>175000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="T486" t="n">
         <v>450</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N487" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="O487" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P487" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="T487" t="n">
         <v>450</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N488" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O488" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P488" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T488" t="n">
         <v>450</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N489" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="O489" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P489" t="n">
-        <v>195714</v>
+        <v>140000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>435</v>
+        <v>311</v>
       </c>
       <c r="T489" t="n">
         <v>450</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N490" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O490" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P490" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T490" t="n">
         <v>450</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N491" t="n">
         <v>130000</v>
       </c>
       <c r="O491" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P491" t="n">
-        <v>135000</v>
+        <v>130000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="T491" t="n">
         <v>450</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N492" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O492" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P492" t="n">
-        <v>180000</v>
+        <v>195714</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="T492" t="n">
         <v>450</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N493" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O493" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P493" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T493" t="n">
         <v>450</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N494" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O494" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P494" t="n">
-        <v>175000</v>
+        <v>135000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="T494" t="n">
         <v>450</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N495" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O495" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P495" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T495" t="n">
         <v>450</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N496" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O496" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P496" t="n">
-        <v>175000</v>
+        <v>140000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>389</v>
+        <v>311</v>
       </c>
       <c r="T496" t="n">
         <v>450</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N497" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O497" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P497" t="n">
-        <v>155000</v>
+        <v>175000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="T497" t="n">
         <v>450</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N498" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O498" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P498" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T498" t="n">
         <v>450</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N499" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O499" t="n">
         <v>180000</v>
       </c>
       <c r="P499" t="n">
-        <v>170000</v>
+        <v>175000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="T499" t="n">
         <v>450</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N500" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O500" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P500" t="n">
-        <v>130000</v>
+        <v>155000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="T500" t="n">
         <v>450</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N501" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O501" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P501" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T501" t="n">
         <v>450</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N502" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="O502" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P502" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>511</v>
+        <v>378</v>
       </c>
       <c r="T502" t="n">
         <v>450</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N503" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O503" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P503" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T503" t="n">
         <v>450</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N504" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O504" t="n">
         <v>140000</v>
       </c>
       <c r="P504" t="n">
-        <v>140000</v>
+        <v>135000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="T504" t="n">
         <v>450</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N505" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O505" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P505" t="n">
-        <v>175000</v>
+        <v>230000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>389</v>
+        <v>511</v>
       </c>
       <c r="T505" t="n">
         <v>450</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N506" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O506" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P506" t="n">
-        <v>148889</v>
+        <v>180000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="T506" t="n">
         <v>450</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N507" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="O507" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P507" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="T507" t="n">
         <v>450</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N508" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O508" t="n">
         <v>180000</v>
       </c>
       <c r="P508" t="n">
-        <v>180000</v>
+        <v>175000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="T508" t="n">
         <v>450</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N509" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O509" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P509" t="n">
-        <v>160000</v>
+        <v>148889</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="T509" t="n">
         <v>450</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N510" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="O510" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P510" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T510" t="n">
         <v>450</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
         <v>15</v>
       </c>
       <c r="N511" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O511" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P511" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T511" t="n">
         <v>450</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N512" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O512" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P512" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N513" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O513" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P513" t="n">
-        <v>235000</v>
+        <v>170000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N514" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O514" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P514" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41502,11 +41502,11 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N515" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O515" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P515" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N516" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O516" t="n">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="P516" t="n">
-        <v>170000</v>
+        <v>235000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>378</v>
+        <v>522</v>
       </c>
       <c r="T516" t="n">
         <v>450</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N517" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O517" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P517" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41742,11 +41742,11 @@
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S517" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T517" t="n">
         <v>450</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N518" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O518" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P518" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N519" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="O519" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="P519" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>622</v>
+        <v>378</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N520" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="O520" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="P520" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N521" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="O521" t="n">
-        <v>130000</v>
+        <v>320000</v>
       </c>
       <c r="P521" t="n">
-        <v>125000</v>
+        <v>320000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>278</v>
+        <v>711</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N522" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="O522" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P522" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>378</v>
+        <v>622</v>
       </c>
       <c r="T522" t="n">
         <v>450</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N523" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="O523" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P523" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N524" t="n">
         <v>120000</v>
       </c>
       <c r="O524" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P524" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="T524" t="n">
         <v>450</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M525" t="n">
         <v>15</v>
       </c>
       <c r="N525" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O525" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P525" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="T525" t="n">
         <v>450</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N526" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O526" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P526" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T526" t="n">
         <v>450</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N527" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O527" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P527" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42542,11 +42542,11 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T527" t="n">
         <v>450</v>
@@ -42595,25 +42595,25 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N528" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O528" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="P528" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42622,11 +42622,11 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="T528" t="n">
         <v>450</v>
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N529" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O529" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P529" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T529" t="n">
         <v>450</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N530" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O530" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P530" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T530" t="n">
         <v>450</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N531" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="O531" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P531" t="n">
-        <v>175000</v>
+        <v>210000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="T531" t="n">
         <v>450</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N532" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O532" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P532" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T532" t="n">
         <v>450</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N533" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O533" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P533" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T533" t="n">
         <v>450</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N534" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O534" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P534" t="n">
-        <v>150000</v>
+        <v>175000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T534" t="n">
         <v>450</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N535" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O535" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P535" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T535" t="n">
         <v>450</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N536" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O536" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="P536" t="n">
-        <v>276471</v>
+        <v>160000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>614</v>
+        <v>356</v>
       </c>
       <c r="T536" t="n">
         <v>450</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N537" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O537" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="P537" t="n">
-        <v>232195</v>
+        <v>150000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>516</v>
+        <v>333</v>
       </c>
       <c r="T537" t="n">
         <v>450</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N538" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O538" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P538" t="n">
-        <v>212000</v>
+        <v>180000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="T538" t="n">
         <v>450</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N539" t="n">
-        <v>140000</v>
+        <v>270000</v>
       </c>
       <c r="O539" t="n">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="P539" t="n">
-        <v>140000</v>
+        <v>276471</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>311</v>
+        <v>614</v>
       </c>
       <c r="T539" t="n">
         <v>450</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N540" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="O540" t="n">
-        <v>100000</v>
+        <v>240000</v>
       </c>
       <c r="P540" t="n">
-        <v>100000</v>
+        <v>232195</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>222</v>
+        <v>516</v>
       </c>
       <c r="T540" t="n">
         <v>450</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N541" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O541" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P541" t="n">
-        <v>155000</v>
+        <v>212000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N542" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O542" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P542" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43742,11 +43742,11 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T542" t="n">
         <v>450</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N543" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O543" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P543" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43822,11 +43822,11 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="T543" t="n">
         <v>450</v>
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N544" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O544" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P544" t="n">
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="T544" t="n">
         <v>450</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N545" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O545" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P545" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43982,11 +43982,11 @@
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T545" t="n">
         <v>450</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N546" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O546" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P546" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44062,11 +44062,11 @@
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T546" t="n">
         <v>450</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N547" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O547" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P547" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44142,11 +44142,11 @@
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N548" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O548" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P548" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44222,11 +44222,11 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T548" t="n">
         <v>450</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N549" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O549" t="n">
         <v>180000</v>
       </c>
       <c r="P549" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N550" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O550" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P550" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N551" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O551" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P551" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N552" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O552" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P552" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N553" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O553" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P553" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N554" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O554" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P554" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N555" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O555" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P555" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N556" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O556" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P556" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N557" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O557" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P557" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N558" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O558" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P558" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45022,11 +45022,11 @@
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T558" t="n">
         <v>450</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N559" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O559" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P559" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N560" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O560" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P560" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="T560" t="n">
         <v>450</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N561" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O561" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="P561" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N562" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O562" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P562" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T562" t="n">
         <v>450</v>
@@ -45395,7 +45395,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N563" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O563" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P563" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T563" t="n">
         <v>450</v>
@@ -45475,7 +45475,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N564" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="O564" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="P564" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="T564" t="n">
         <v>450</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N565" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O565" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P565" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N566" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="O566" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P566" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>489</v>
+        <v>378</v>
       </c>
       <c r="T566" t="n">
         <v>450</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,7 +45715,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N567" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O567" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P567" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T567" t="n">
         <v>450</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45795,7 +45795,7 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N568" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O568" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P568" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T568" t="n">
         <v>450</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N569" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O569" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P569" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="T569" t="n">
         <v>450</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45955,16 +45955,16 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N570" t="n">
         <v>180000</v>
@@ -45982,7 +45982,7 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S570" t="n">
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46047,13 +46047,13 @@
         <v>12</v>
       </c>
       <c r="N571" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O571" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P571" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N572" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O572" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P572" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N573" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O573" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P573" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T573" t="n">
         <v>450</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N574" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O574" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P574" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46355,25 +46355,25 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N575" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O575" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P575" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N576" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O576" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P576" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T576" t="n">
         <v>450</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M577" t="n">
         <v>15</v>
       </c>
       <c r="N577" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="O577" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="P577" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>489</v>
+        <v>222</v>
       </c>
       <c r="T577" t="n">
         <v>450</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N578" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O578" t="n">
         <v>200000</v>
       </c>
       <c r="P578" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N579" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O579" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P579" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T579" t="n">
         <v>450</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N580" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O580" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="P580" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N581" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O581" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P581" t="n">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="T581" t="n">
         <v>450</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N582" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="O582" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="P582" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="T582" t="n">
         <v>450</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
         <v>16</v>
       </c>
       <c r="N583" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O583" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P583" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T583" t="n">
         <v>450</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N584" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O584" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P584" t="n">
-        <v>162692</v>
+        <v>100000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="T584" t="n">
         <v>450</v>
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N585" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="O585" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="P585" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="T585" t="n">
         <v>450</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N586" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="O586" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P586" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="T586" t="n">
         <v>450</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N587" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O587" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P587" t="n">
-        <v>200000</v>
+        <v>162692</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="T587" t="n">
         <v>450</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N588" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="O588" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P588" t="n">
-        <v>273636</v>
+        <v>140000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>608</v>
+        <v>311</v>
       </c>
       <c r="T588" t="n">
         <v>450</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N589" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="O589" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="P589" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="T589" t="n">
         <v>450</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N590" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O590" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P590" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T590" t="n">
         <v>450</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N591" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O591" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P591" t="n">
-        <v>200000</v>
+        <v>273636</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="T591" t="n">
         <v>450</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,25 +47715,25 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N592" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="O592" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P592" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>378</v>
+        <v>556</v>
       </c>
       <c r="T592" t="n">
         <v>450</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N593" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O593" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P593" t="n">
-        <v>157895</v>
+        <v>250000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,7 +47875,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N594" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O594" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P594" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T594" t="n">
         <v>450</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N595" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="O595" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="P595" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>556</v>
+        <v>378</v>
       </c>
       <c r="T595" t="n">
         <v>450</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,7 +48035,7 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -48044,16 +48044,16 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N596" t="n">
-        <v>350000</v>
+        <v>150000</v>
       </c>
       <c r="O596" t="n">
-        <v>350000</v>
+        <v>170000</v>
       </c>
       <c r="P596" t="n">
-        <v>350000</v>
+        <v>157895</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48062,11 +48062,11 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>778</v>
+        <v>351</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N597" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O597" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P597" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N598" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O598" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P598" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N599" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="O599" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="P599" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>289</v>
+        <v>778</v>
       </c>
       <c r="T599" t="n">
         <v>450</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48367,13 +48367,13 @@
         <v>15</v>
       </c>
       <c r="N600" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O600" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P600" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N601" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O601" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P601" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48462,11 +48462,11 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N602" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O602" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P602" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48542,11 +48542,11 @@
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T602" t="n">
         <v>450</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,7 +48595,7 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N603" t="n">
         <v>140000</v>
       </c>
       <c r="O603" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P603" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T603" t="n">
         <v>450</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -48684,7 +48684,7 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N604" t="n">
         <v>120000</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N605" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O605" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P605" t="n">
-        <v>155000</v>
+        <v>170000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N606" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O606" t="n">
         <v>160000</v>
       </c>
-      <c r="O606" t="n">
-        <v>180000</v>
-      </c>
       <c r="P606" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48924,16 +48924,16 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N607" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O607" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P607" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N608" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O608" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="P608" t="n">
-        <v>250000</v>
+        <v>155000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>556</v>
+        <v>344</v>
       </c>
       <c r="T608" t="n">
         <v>450</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N609" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O609" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P609" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T609" t="n">
         <v>450</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N610" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O610" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P610" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="T610" t="n">
         <v>450</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N611" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O611" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P611" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T611" t="n">
         <v>450</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N612" t="n">
         <v>140000</v>
       </c>
       <c r="O612" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P612" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N613" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O613" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P613" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="T613" t="n">
         <v>450</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N614" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O614" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P614" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T614" t="n">
         <v>450</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N615" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O615" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="P615" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="T615" t="n">
         <v>450</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M616" t="n">
         <v>20</v>
       </c>
       <c r="N616" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="O616" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="P616" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>578</v>
+        <v>267</v>
       </c>
       <c r="T616" t="n">
         <v>450</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N617" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O617" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P617" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N618" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O618" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P618" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T618" t="n">
         <v>450</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N619" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="O619" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P619" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,24 +49960,24 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="N620" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O620" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P620" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
@@ -49986,10 +49986,10 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T620" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="621">
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
         <v>15</v>
       </c>
       <c r="N621" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O621" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P621" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N622" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O622" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P622" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50200,24 +50200,24 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N623" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="O623" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="P623" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
@@ -50226,10 +50226,10 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>356</v>
+        <v>611</v>
       </c>
       <c r="T623" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50287,13 +50287,13 @@
         <v>15</v>
       </c>
       <c r="N624" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O624" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P624" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,7 +50364,7 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N625" t="n">
         <v>180000</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50447,13 +50447,13 @@
         <v>20</v>
       </c>
       <c r="N626" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O626" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P626" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M627" t="n">
         <v>15</v>
       </c>
       <c r="N627" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="O627" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P627" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N628" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O628" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P628" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N629" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O629" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P629" t="n">
-        <v>185000</v>
+        <v>150000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="T629" t="n">
         <v>450</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N630" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O630" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P630" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,25 +50835,25 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N631" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O631" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P631" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N632" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O632" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P632" t="n">
-        <v>120000</v>
+        <v>185000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="T632" t="n">
         <v>450</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N633" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O633" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P633" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51075,7 +51075,7 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N634" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O634" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P634" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T634" t="n">
         <v>450</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N635" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O635" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P635" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N636" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O636" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="P636" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N637" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O637" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P637" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51395,16 +51395,16 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N638" t="n">
         <v>130000</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N639" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="O639" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="P639" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N640" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O640" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P640" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,7 +51644,7 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N641" t="n">
         <v>130000</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N642" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O642" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P642" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,11 +51800,11 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N643" t="n">
         <v>180000</v>
@@ -51822,7 +51822,7 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O644" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P644" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N645" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O645" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P645" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N646" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O646" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P646" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
         <v>12</v>
       </c>
       <c r="N647" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O647" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P647" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
         <v>10</v>
       </c>
       <c r="N648" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O648" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P648" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52284,16 +52284,16 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N649" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O649" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P649" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52302,11 +52302,11 @@
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52364,16 +52364,16 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N650" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O650" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P650" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N651" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="O651" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P651" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N652" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O652" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P652" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N653" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O653" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P653" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N654" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O654" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="P654" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N655" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O655" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P655" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52782,11 +52782,11 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N656" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O656" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P656" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N657" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O657" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="P657" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N658" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O658" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P658" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53022,11 +53022,11 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N659" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O659" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P659" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
         <v>20</v>
       </c>
       <c r="N660" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O660" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P660" t="n">
-        <v>175000</v>
+        <v>220000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N661" t="n">
-        <v>145000</v>
+        <v>170000</v>
       </c>
       <c r="O661" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P661" t="n">
-        <v>147500</v>
+        <v>170000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,7 +53315,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -53324,16 +53324,16 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N662" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O662" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P662" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N663" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="O663" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P663" t="n">
-        <v>260000</v>
+        <v>175000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>578</v>
+        <v>389</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N664" t="n">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="O664" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P664" t="n">
-        <v>200000</v>
+        <v>147500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>444</v>
+        <v>328</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N665" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O665" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P665" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,7 +53635,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N666" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O666" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P666" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N667" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O667" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P667" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N668" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O668" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P668" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N669" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O669" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P669" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N670" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O670" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P670" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54035,40 +54035,280 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M671" t="n">
+        <v>18</v>
+      </c>
+      <c r="N671" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O671" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P671" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q671" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R671" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S671" t="n">
+        <v>178</v>
+      </c>
+      <c r="T671" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>6</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D672" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E672" t="n">
+        <v>13</v>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G672" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I672" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L671" t="inlineStr">
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M672" t="n">
+        <v>20</v>
+      </c>
+      <c r="N672" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O672" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P672" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q672" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R672" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S672" t="n">
+        <v>378</v>
+      </c>
+      <c r="T672" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>6</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D673" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E673" t="n">
+        <v>13</v>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G673" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I673" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M673" t="n">
+        <v>27</v>
+      </c>
+      <c r="N673" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O673" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P673" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q673" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R673" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S673" t="n">
+        <v>333</v>
+      </c>
+      <c r="T673" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>6</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D674" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E674" t="n">
+        <v>13</v>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G674" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I674" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M671" t="n">
+      <c r="M674" t="n">
         <v>25</v>
       </c>
-      <c r="N671" t="n">
+      <c r="N674" t="n">
         <v>130000</v>
       </c>
-      <c r="O671" t="n">
+      <c r="O674" t="n">
         <v>130000</v>
       </c>
-      <c r="P671" t="n">
+      <c r="P674" t="n">
         <v>130000</v>
       </c>
-      <c r="Q671" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R671" t="inlineStr">
+      <c r="Q674" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R674" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S671" t="n">
+      <c r="S674" t="n">
         <v>289</v>
       </c>
-      <c r="T671" t="n">
+      <c r="T674" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T677"/>
+  <dimension ref="A1:T680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N462" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O462" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P462" t="n">
-        <v>245000</v>
+        <v>230000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="T462" t="n">
         <v>450</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37400,11 +37400,11 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N463" t="n">
         <v>200000</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N464" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O464" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P464" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T464" t="n">
         <v>450</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N465" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O465" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="P465" t="n">
-        <v>180000</v>
+        <v>245000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37582,11 +37582,11 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="T465" t="n">
         <v>450</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N466" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O466" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P466" t="n">
-        <v>153333</v>
+        <v>200000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>341</v>
+        <v>444</v>
       </c>
       <c r="T466" t="n">
         <v>450</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N467" t="n">
         <v>200000</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N468" t="n">
         <v>180000</v>
       </c>
       <c r="O468" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P468" t="n">
-        <v>185000</v>
+        <v>180000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="T468" t="n">
         <v>450</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N469" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O469" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P469" t="n">
-        <v>175000</v>
+        <v>153333</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="T469" t="n">
         <v>450</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37955,16 +37955,16 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N470" t="n">
         <v>200000</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N471" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O471" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P471" t="n">
-        <v>155000</v>
+        <v>185000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="T471" t="n">
         <v>450</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N472" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O472" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P472" t="n">
-        <v>125000</v>
+        <v>175000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="T472" t="n">
         <v>450</v>
@@ -38195,16 +38195,16 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N473" t="n">
         <v>200000</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N474" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O474" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P474" t="n">
-        <v>220000</v>
+        <v>155000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>489</v>
+        <v>344</v>
       </c>
       <c r="T474" t="n">
         <v>450</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N475" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O475" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P475" t="n">
-        <v>160000</v>
+        <v>125000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="T475" t="n">
         <v>450</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N476" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O476" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P476" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T476" t="n">
         <v>450</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N477" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O477" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P477" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="T477" t="n">
         <v>450</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N478" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O478" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P478" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38622,11 +38622,11 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="T478" t="n">
         <v>450</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N479" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O479" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P479" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38702,11 +38702,11 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T479" t="n">
         <v>450</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N480" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O480" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P480" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T480" t="n">
         <v>450</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38847,13 +38847,13 @@
         <v>25</v>
       </c>
       <c r="N481" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="O481" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P481" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="T481" t="n">
         <v>450</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N482" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O482" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P482" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T482" t="n">
         <v>450</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N483" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O483" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P483" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T483" t="n">
         <v>450</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N484" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O484" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P484" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T484" t="n">
         <v>450</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N485" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O485" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P485" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T485" t="n">
         <v>450</v>
@@ -39235,12 +39235,12 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N487" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O487" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P487" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T487" t="n">
         <v>450</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N488" t="n">
         <v>180000</v>
@@ -39422,7 +39422,7 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S488" t="n">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N489" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O489" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P489" t="n">
-        <v>175000</v>
+        <v>160000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="T489" t="n">
         <v>450</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N490" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O490" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P490" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T490" t="n">
         <v>450</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N491" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O491" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P491" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T491" t="n">
         <v>450</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N492" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O492" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P492" t="n">
-        <v>140000</v>
+        <v>175000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="T492" t="n">
         <v>450</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N493" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="O493" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P493" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="T493" t="n">
         <v>450</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N494" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O494" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P494" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T494" t="n">
         <v>450</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N495" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="O495" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P495" t="n">
-        <v>195714</v>
+        <v>140000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>435</v>
+        <v>311</v>
       </c>
       <c r="T495" t="n">
         <v>450</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N496" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O496" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P496" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T496" t="n">
         <v>450</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N497" t="n">
         <v>130000</v>
       </c>
       <c r="O497" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P497" t="n">
-        <v>135000</v>
+        <v>130000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="T497" t="n">
         <v>450</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N498" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O498" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P498" t="n">
-        <v>180000</v>
+        <v>195714</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="T498" t="n">
         <v>450</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N499" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O499" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P499" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T499" t="n">
         <v>450</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N500" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O500" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P500" t="n">
-        <v>175000</v>
+        <v>135000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="T500" t="n">
         <v>450</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N501" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O501" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P501" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T501" t="n">
         <v>450</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N502" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O502" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P502" t="n">
-        <v>175000</v>
+        <v>140000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>389</v>
+        <v>311</v>
       </c>
       <c r="T502" t="n">
         <v>450</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N503" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O503" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P503" t="n">
-        <v>155000</v>
+        <v>175000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="T503" t="n">
         <v>450</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N504" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O504" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P504" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T504" t="n">
         <v>450</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N505" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O505" t="n">
         <v>180000</v>
       </c>
       <c r="P505" t="n">
-        <v>170000</v>
+        <v>175000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="T505" t="n">
         <v>450</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N506" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O506" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P506" t="n">
-        <v>130000</v>
+        <v>155000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="T506" t="n">
         <v>450</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N507" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O507" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P507" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T507" t="n">
         <v>450</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N508" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="O508" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P508" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>511</v>
+        <v>378</v>
       </c>
       <c r="T508" t="n">
         <v>450</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N509" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O509" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P509" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T509" t="n">
         <v>450</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N510" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O510" t="n">
         <v>140000</v>
       </c>
       <c r="P510" t="n">
-        <v>140000</v>
+        <v>135000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="T510" t="n">
         <v>450</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N511" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O511" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P511" t="n">
-        <v>175000</v>
+        <v>230000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>389</v>
+        <v>511</v>
       </c>
       <c r="T511" t="n">
         <v>450</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N512" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O512" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P512" t="n">
-        <v>148889</v>
+        <v>180000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N513" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="O513" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P513" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N514" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O514" t="n">
         <v>180000</v>
       </c>
       <c r="P514" t="n">
-        <v>180000</v>
+        <v>175000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N515" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O515" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P515" t="n">
-        <v>160000</v>
+        <v>148889</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N516" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="O516" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P516" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T516" t="n">
         <v>450</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
         <v>15</v>
       </c>
       <c r="N517" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O517" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P517" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T517" t="n">
         <v>450</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N518" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O518" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P518" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N519" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O519" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P519" t="n">
-        <v>235000</v>
+        <v>170000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N520" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O520" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P520" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N521" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O521" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P521" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N522" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O522" t="n">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="P522" t="n">
-        <v>170000</v>
+        <v>235000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>378</v>
+        <v>522</v>
       </c>
       <c r="T522" t="n">
         <v>450</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N523" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O523" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P523" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42222,11 +42222,11 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N524" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O524" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P524" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T524" t="n">
         <v>450</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N525" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="O525" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="P525" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>622</v>
+        <v>378</v>
       </c>
       <c r="T525" t="n">
         <v>450</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N526" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="O526" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="P526" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="T526" t="n">
         <v>450</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N527" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="O527" t="n">
-        <v>130000</v>
+        <v>320000</v>
       </c>
       <c r="P527" t="n">
-        <v>125000</v>
+        <v>320000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>278</v>
+        <v>711</v>
       </c>
       <c r="T527" t="n">
         <v>450</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N528" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="O528" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P528" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>378</v>
+        <v>622</v>
       </c>
       <c r="T528" t="n">
         <v>450</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N529" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="O529" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P529" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="T529" t="n">
         <v>450</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N530" t="n">
         <v>120000</v>
       </c>
       <c r="O530" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P530" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="T530" t="n">
         <v>450</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M531" t="n">
         <v>15</v>
       </c>
       <c r="N531" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O531" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P531" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="T531" t="n">
         <v>450</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N532" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O532" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P532" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T532" t="n">
         <v>450</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N533" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O533" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P533" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T533" t="n">
         <v>450</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N534" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O534" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="P534" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43102,11 +43102,11 @@
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="T534" t="n">
         <v>450</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N535" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O535" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P535" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T535" t="n">
         <v>450</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N536" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O536" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P536" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T536" t="n">
         <v>450</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N537" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="O537" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P537" t="n">
-        <v>175000</v>
+        <v>210000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="T537" t="n">
         <v>450</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N538" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O538" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P538" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T538" t="n">
         <v>450</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N539" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O539" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P539" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T539" t="n">
         <v>450</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N540" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O540" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P540" t="n">
-        <v>150000</v>
+        <v>175000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T540" t="n">
         <v>450</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N541" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O541" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P541" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N542" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O542" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="P542" t="n">
-        <v>276471</v>
+        <v>160000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43742,11 +43742,11 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>614</v>
+        <v>356</v>
       </c>
       <c r="T542" t="n">
         <v>450</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N543" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O543" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="P543" t="n">
-        <v>232195</v>
+        <v>150000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>516</v>
+        <v>333</v>
       </c>
       <c r="T543" t="n">
         <v>450</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N544" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O544" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P544" t="n">
-        <v>212000</v>
+        <v>180000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="T544" t="n">
         <v>450</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N545" t="n">
-        <v>140000</v>
+        <v>270000</v>
       </c>
       <c r="O545" t="n">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="P545" t="n">
-        <v>140000</v>
+        <v>276471</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>311</v>
+        <v>614</v>
       </c>
       <c r="T545" t="n">
         <v>450</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N546" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="O546" t="n">
-        <v>100000</v>
+        <v>240000</v>
       </c>
       <c r="P546" t="n">
-        <v>100000</v>
+        <v>232195</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>222</v>
+        <v>516</v>
       </c>
       <c r="T546" t="n">
         <v>450</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N547" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O547" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P547" t="n">
-        <v>155000</v>
+        <v>212000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44142,11 +44142,11 @@
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N548" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O548" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P548" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44222,11 +44222,11 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T548" t="n">
         <v>450</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N549" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O549" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P549" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44302,11 +44302,11 @@
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N550" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O550" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P550" t="n">
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N551" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O551" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P551" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N552" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O552" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P552" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44542,11 +44542,11 @@
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N553" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O553" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P553" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N554" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O554" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P554" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44702,11 +44702,11 @@
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N555" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O555" t="n">
         <v>180000</v>
       </c>
       <c r="P555" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N556" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O556" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P556" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N557" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O557" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P557" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N558" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O558" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P558" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T558" t="n">
         <v>450</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N559" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O559" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P559" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N560" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O560" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P560" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T560" t="n">
         <v>450</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N561" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O561" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P561" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N562" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O562" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P562" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="T562" t="n">
         <v>450</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N563" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O563" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P563" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T563" t="n">
         <v>450</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N564" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O564" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P564" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T564" t="n">
         <v>450</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N565" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O565" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P565" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N566" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O566" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P566" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="T566" t="n">
         <v>450</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,7 +45715,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N567" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O567" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="P567" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="T567" t="n">
         <v>450</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N568" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O568" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P568" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T568" t="n">
         <v>450</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N569" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O569" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P569" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T569" t="n">
         <v>450</v>
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N570" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="O570" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="P570" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="T570" t="n">
         <v>450</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N571" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O571" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P571" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N572" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="O572" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P572" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>489</v>
+        <v>378</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N573" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O573" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P573" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T573" t="n">
         <v>450</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N574" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O574" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P574" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N575" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O575" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P575" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,16 +46435,16 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N576" t="n">
         <v>180000</v>
@@ -46462,7 +46462,7 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S576" t="n">
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46527,13 +46527,13 @@
         <v>12</v>
       </c>
       <c r="N577" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O577" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P577" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T577" t="n">
         <v>450</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N578" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O578" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P578" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N579" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O579" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P579" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T579" t="n">
         <v>450</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N580" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O580" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P580" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46782,11 +46782,11 @@
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N581" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O581" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P581" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T581" t="n">
         <v>450</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N582" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O582" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P582" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T582" t="n">
         <v>450</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M583" t="n">
         <v>15</v>
       </c>
       <c r="N583" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="O583" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="P583" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>489</v>
+        <v>222</v>
       </c>
       <c r="T583" t="n">
         <v>450</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N584" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O584" t="n">
         <v>200000</v>
       </c>
       <c r="P584" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T584" t="n">
         <v>450</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N585" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O585" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P585" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T585" t="n">
         <v>450</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N586" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O586" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="P586" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="T586" t="n">
         <v>450</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N587" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O587" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P587" t="n">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="T587" t="n">
         <v>450</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N588" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="O588" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="P588" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="T588" t="n">
         <v>450</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
         <v>16</v>
       </c>
       <c r="N589" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O589" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P589" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T589" t="n">
         <v>450</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N590" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O590" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P590" t="n">
-        <v>162692</v>
+        <v>100000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="T590" t="n">
         <v>450</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N591" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="O591" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="P591" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="T591" t="n">
         <v>450</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N592" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="O592" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P592" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="T592" t="n">
         <v>450</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N593" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O593" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P593" t="n">
-        <v>200000</v>
+        <v>162692</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N594" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="O594" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P594" t="n">
-        <v>273636</v>
+        <v>140000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>608</v>
+        <v>311</v>
       </c>
       <c r="T594" t="n">
         <v>450</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N595" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="O595" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="P595" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="T595" t="n">
         <v>450</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N596" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O596" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P596" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N597" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O597" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P597" t="n">
-        <v>200000</v>
+        <v>273636</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N598" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="O598" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P598" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>378</v>
+        <v>556</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N599" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O599" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P599" t="n">
-        <v>157895</v>
+        <v>250000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="T599" t="n">
         <v>450</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N600" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O600" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P600" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N601" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="O601" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="P601" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48462,11 +48462,11 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>556</v>
+        <v>378</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,7 +48515,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N602" t="n">
-        <v>350000</v>
+        <v>150000</v>
       </c>
       <c r="O602" t="n">
-        <v>350000</v>
+        <v>170000</v>
       </c>
       <c r="P602" t="n">
-        <v>350000</v>
+        <v>157895</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48542,11 +48542,11 @@
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>778</v>
+        <v>351</v>
       </c>
       <c r="T602" t="n">
         <v>450</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N603" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O603" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P603" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T603" t="n">
         <v>450</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N604" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O604" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P604" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T604" t="n">
         <v>450</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N605" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="O605" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="P605" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>289</v>
+        <v>778</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48847,13 +48847,13 @@
         <v>15</v>
       </c>
       <c r="N606" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O606" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P606" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48915,25 +48915,25 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N607" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O607" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P607" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N608" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O608" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P608" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49022,11 +49022,11 @@
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T608" t="n">
         <v>450</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N609" t="n">
         <v>140000</v>
       </c>
       <c r="O609" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P609" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T609" t="n">
         <v>450</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
@@ -49164,7 +49164,7 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N610" t="n">
         <v>120000</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N611" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O611" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P611" t="n">
-        <v>155000</v>
+        <v>170000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="T611" t="n">
         <v>450</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N612" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O612" t="n">
         <v>160000</v>
       </c>
-      <c r="O612" t="n">
-        <v>180000</v>
-      </c>
       <c r="P612" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N613" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O613" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P613" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T613" t="n">
         <v>450</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N614" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O614" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="P614" t="n">
-        <v>250000</v>
+        <v>155000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>556</v>
+        <v>344</v>
       </c>
       <c r="T614" t="n">
         <v>450</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N615" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O615" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P615" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T615" t="n">
         <v>450</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N616" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O616" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P616" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="T616" t="n">
         <v>450</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N617" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O617" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P617" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N618" t="n">
         <v>140000</v>
       </c>
       <c r="O618" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P618" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="T618" t="n">
         <v>450</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N619" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O619" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P619" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N620" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O620" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P620" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T620" t="n">
         <v>450</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N621" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O621" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="P621" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
         <v>20</v>
       </c>
       <c r="N622" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="O622" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="P622" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>578</v>
+        <v>267</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N623" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O623" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P623" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N624" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O624" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P624" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N625" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="O625" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P625" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="T625" t="n">
         <v>450</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,24 +50440,24 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="N626" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O626" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P626" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
@@ -50466,10 +50466,10 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T626" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="627">
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M627" t="n">
         <v>15</v>
       </c>
       <c r="N627" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O627" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P627" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N628" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O628" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P628" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50680,24 +50680,24 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N629" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="O629" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="P629" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
@@ -50706,10 +50706,10 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>356</v>
+        <v>611</v>
       </c>
       <c r="T629" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50767,13 +50767,13 @@
         <v>15</v>
       </c>
       <c r="N630" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O630" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P630" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50844,7 +50844,7 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N631" t="n">
         <v>180000</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50927,13 +50927,13 @@
         <v>20</v>
       </c>
       <c r="N632" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O632" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P632" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T632" t="n">
         <v>450</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M633" t="n">
         <v>15</v>
       </c>
       <c r="N633" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="O633" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P633" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N634" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O634" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P634" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T634" t="n">
         <v>450</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N635" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O635" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P635" t="n">
-        <v>185000</v>
+        <v>150000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N636" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O636" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P636" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N637" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O637" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P637" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N638" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O638" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P638" t="n">
-        <v>120000</v>
+        <v>185000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="T638" t="n">
         <v>450</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N639" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O639" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P639" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51555,7 +51555,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N640" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O640" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P640" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,25 +51635,25 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N641" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O641" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P641" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N642" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O642" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="P642" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N643" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O643" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P643" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51875,16 +51875,16 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N644" t="n">
         <v>130000</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N645" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="O645" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="P645" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N646" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O646" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P646" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,7 +52124,7 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N647" t="n">
         <v>130000</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N648" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O648" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P648" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,11 +52280,11 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N649" t="n">
         <v>180000</v>
@@ -52302,7 +52302,7 @@
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S649" t="n">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N650" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O650" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P650" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N651" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O651" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P651" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N652" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O652" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P652" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M653" t="n">
         <v>12</v>
       </c>
       <c r="N653" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O653" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P653" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M654" t="n">
         <v>10</v>
       </c>
       <c r="N654" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O654" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P654" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N655" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O655" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P655" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52782,11 +52782,11 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N656" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O656" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P656" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N657" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="O657" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P657" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N658" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O658" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P658" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53022,11 +53022,11 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53075,25 +53075,25 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N659" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O659" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P659" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N660" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O660" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="P660" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N661" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O661" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P661" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53315,7 +53315,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -53324,16 +53324,16 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N662" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O662" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P662" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N663" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O663" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="P663" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53422,11 +53422,11 @@
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N664" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O664" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P664" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N665" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O665" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P665" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
         <v>20</v>
       </c>
       <c r="N666" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O666" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P666" t="n">
-        <v>175000</v>
+        <v>220000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N667" t="n">
-        <v>145000</v>
+        <v>170000</v>
       </c>
       <c r="O667" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P667" t="n">
-        <v>147500</v>
+        <v>170000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N668" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O668" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P668" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N669" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="O669" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P669" t="n">
-        <v>260000</v>
+        <v>175000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>578</v>
+        <v>389</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N670" t="n">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="O670" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P670" t="n">
-        <v>200000</v>
+        <v>147500</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>444</v>
+        <v>328</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N671" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O671" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P671" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,7 +54115,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N672" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O672" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P672" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N673" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O673" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P673" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N674" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O674" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P674" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N675" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O675" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P675" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,16 +54444,16 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N676" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O676" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P676" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54515,40 +54515,280 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M677" t="n">
+        <v>18</v>
+      </c>
+      <c r="N677" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O677" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P677" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q677" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R677" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S677" t="n">
+        <v>178</v>
+      </c>
+      <c r="T677" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>6</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D678" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E678" t="n">
+        <v>13</v>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G678" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I678" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L677" t="inlineStr">
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M678" t="n">
+        <v>20</v>
+      </c>
+      <c r="N678" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O678" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P678" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q678" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R678" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S678" t="n">
+        <v>378</v>
+      </c>
+      <c r="T678" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>6</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E679" t="n">
+        <v>13</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G679" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M679" t="n">
+        <v>27</v>
+      </c>
+      <c r="N679" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O679" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P679" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q679" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R679" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S679" t="n">
+        <v>333</v>
+      </c>
+      <c r="T679" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>6</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E680" t="n">
+        <v>13</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M677" t="n">
+      <c r="M680" t="n">
         <v>25</v>
       </c>
-      <c r="N677" t="n">
+      <c r="N680" t="n">
         <v>130000</v>
       </c>
-      <c r="O677" t="n">
+      <c r="O680" t="n">
         <v>130000</v>
       </c>
-      <c r="P677" t="n">
+      <c r="P680" t="n">
         <v>130000</v>
       </c>
-      <c r="Q677" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R677" t="inlineStr">
+      <c r="Q680" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R680" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S677" t="n">
+      <c r="S680" t="n">
         <v>289</v>
       </c>
-      <c r="T677" t="n">
+      <c r="T680" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T680"/>
+  <dimension ref="A1:T683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N620" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O620" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P620" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49982,11 +49982,11 @@
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T620" t="n">
         <v>450</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N621" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O621" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P621" t="n">
-        <v>140000</v>
+        <v>204500</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50062,11 +50062,11 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>311</v>
+        <v>454</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50127,13 +50127,13 @@
         <v>20</v>
       </c>
       <c r="N622" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O622" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P622" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50142,11 +50142,11 @@
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N623" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O623" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P623" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N624" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O624" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="P624" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
         <v>20</v>
       </c>
       <c r="N625" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="O625" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="P625" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>578</v>
+        <v>267</v>
       </c>
       <c r="T625" t="n">
         <v>450</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N626" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O626" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P626" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N627" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O627" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P627" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N628" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="O628" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P628" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,24 +50680,24 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="N629" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O629" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P629" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
@@ -50706,10 +50706,10 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T629" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="630">
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
         <v>15</v>
       </c>
       <c r="N630" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O630" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P630" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50835,25 +50835,25 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N631" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O631" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P631" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50920,24 +50920,24 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N632" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="O632" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="P632" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
@@ -50946,10 +50946,10 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>356</v>
+        <v>611</v>
       </c>
       <c r="T632" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51007,13 +51007,13 @@
         <v>15</v>
       </c>
       <c r="N633" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O633" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P633" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51084,7 +51084,7 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N634" t="n">
         <v>180000</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51167,13 +51167,13 @@
         <v>20</v>
       </c>
       <c r="N635" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O635" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P635" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
         <v>15</v>
       </c>
       <c r="N636" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="O636" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P636" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N637" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O637" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P637" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N638" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O638" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P638" t="n">
-        <v>185000</v>
+        <v>150000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="T638" t="n">
         <v>450</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,7 +51475,7 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N639" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O639" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P639" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N640" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O640" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P640" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,25 +51635,25 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N641" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O641" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P641" t="n">
-        <v>120000</v>
+        <v>185000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N642" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O642" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P642" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N643" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O643" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P643" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N644" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O644" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P644" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N645" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O645" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="P645" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N646" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O646" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P646" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52115,16 +52115,16 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N647" t="n">
         <v>130000</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N648" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="O648" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="P648" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52284,16 +52284,16 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N649" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O649" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P649" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52364,7 +52364,7 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N650" t="n">
         <v>130000</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N651" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O651" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P651" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,11 +52520,11 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N652" t="n">
         <v>180000</v>
@@ -52542,7 +52542,7 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N653" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O653" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P653" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52622,11 +52622,11 @@
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N654" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O654" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P654" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N655" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O655" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P655" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52835,25 +52835,25 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
         <v>12</v>
       </c>
       <c r="N656" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O656" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P656" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
         <v>10</v>
       </c>
       <c r="N657" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O657" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P657" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N658" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O658" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P658" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53022,11 +53022,11 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N659" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O659" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P659" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N660" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="O660" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P660" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53244,16 +53244,16 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N661" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O661" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P661" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N662" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O662" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P662" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N663" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O663" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="P663" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N664" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O664" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P664" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53555,7 +53555,7 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N665" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O665" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P665" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N666" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O666" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="P666" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N667" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O667" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P667" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N668" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O668" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P668" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M669" t="n">
         <v>20</v>
       </c>
       <c r="N669" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O669" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P669" t="n">
-        <v>175000</v>
+        <v>220000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N670" t="n">
-        <v>145000</v>
+        <v>170000</v>
       </c>
       <c r="O670" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P670" t="n">
-        <v>147500</v>
+        <v>170000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N671" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O671" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P671" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N672" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="O672" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P672" t="n">
-        <v>260000</v>
+        <v>175000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>578</v>
+        <v>389</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N673" t="n">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="O673" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P673" t="n">
-        <v>200000</v>
+        <v>147500</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>444</v>
+        <v>328</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N674" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O674" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P674" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N675" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O675" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P675" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N676" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O676" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P676" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N677" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O677" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P677" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N678" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O678" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P678" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54675,7 +54675,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N679" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O679" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P679" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54755,40 +54755,280 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M680" t="n">
+        <v>18</v>
+      </c>
+      <c r="N680" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O680" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P680" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q680" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S680" t="n">
+        <v>178</v>
+      </c>
+      <c r="T680" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>6</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E681" t="n">
+        <v>13</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L680" t="inlineStr">
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M681" t="n">
+        <v>20</v>
+      </c>
+      <c r="N681" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O681" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P681" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q681" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S681" t="n">
+        <v>378</v>
+      </c>
+      <c r="T681" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>6</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M682" t="n">
+        <v>27</v>
+      </c>
+      <c r="N682" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O682" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P682" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q682" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S682" t="n">
+        <v>333</v>
+      </c>
+      <c r="T682" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>6</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D683" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E683" t="n">
+        <v>13</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G683" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M680" t="n">
+      <c r="M683" t="n">
         <v>25</v>
       </c>
-      <c r="N680" t="n">
+      <c r="N683" t="n">
         <v>130000</v>
       </c>
-      <c r="O680" t="n">
+      <c r="O683" t="n">
         <v>130000</v>
       </c>
-      <c r="P680" t="n">
+      <c r="P683" t="n">
         <v>130000</v>
       </c>
-      <c r="Q680" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R680" t="inlineStr">
+      <c r="Q683" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R683" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S680" t="n">
+      <c r="S683" t="n">
         <v>289</v>
       </c>
-      <c r="T680" t="n">
+      <c r="T683" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T686"/>
+  <dimension ref="A1:T689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N517" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O517" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P517" t="n">
-        <v>175000</v>
+        <v>227500</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>389</v>
+        <v>506</v>
       </c>
       <c r="T517" t="n">
         <v>450</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
         <v>27</v>
       </c>
       <c r="N518" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O518" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P518" t="n">
-        <v>148889</v>
+        <v>200000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="N519" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="O519" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="P519" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N520" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O520" t="n">
         <v>180000</v>
       </c>
       <c r="P520" t="n">
-        <v>180000</v>
+        <v>175000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N521" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O521" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P521" t="n">
-        <v>160000</v>
+        <v>148889</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N522" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="O522" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P522" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T522" t="n">
         <v>450</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
         <v>15</v>
       </c>
       <c r="N523" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O523" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P523" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N524" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O524" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P524" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T524" t="n">
         <v>450</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N525" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O525" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P525" t="n">
-        <v>235000</v>
+        <v>170000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="T525" t="n">
         <v>450</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N526" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O526" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P526" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42462,11 +42462,11 @@
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T526" t="n">
         <v>450</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N527" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O527" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P527" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T527" t="n">
         <v>450</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N528" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O528" t="n">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="P528" t="n">
-        <v>170000</v>
+        <v>235000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>378</v>
+        <v>522</v>
       </c>
       <c r="T528" t="n">
         <v>450</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N529" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O529" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P529" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T529" t="n">
         <v>450</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N530" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O530" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P530" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T530" t="n">
         <v>450</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N531" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="O531" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="P531" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>622</v>
+        <v>378</v>
       </c>
       <c r="T531" t="n">
         <v>450</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N532" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="O532" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="P532" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="T532" t="n">
         <v>450</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N533" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="O533" t="n">
-        <v>130000</v>
+        <v>320000</v>
       </c>
       <c r="P533" t="n">
-        <v>125000</v>
+        <v>320000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>278</v>
+        <v>711</v>
       </c>
       <c r="T533" t="n">
         <v>450</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N534" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="O534" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P534" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>378</v>
+        <v>622</v>
       </c>
       <c r="T534" t="n">
         <v>450</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N535" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="O535" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P535" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="T535" t="n">
         <v>450</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N536" t="n">
         <v>120000</v>
       </c>
       <c r="O536" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P536" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="T536" t="n">
         <v>450</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
         <v>15</v>
       </c>
       <c r="N537" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O537" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P537" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="T537" t="n">
         <v>450</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N538" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O538" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P538" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T538" t="n">
         <v>450</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N539" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O539" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P539" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T539" t="n">
         <v>450</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N540" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O540" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="P540" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="T540" t="n">
         <v>450</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N541" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O541" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P541" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N542" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O542" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P542" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43742,11 +43742,11 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T542" t="n">
         <v>450</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N543" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="O543" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P543" t="n">
-        <v>175000</v>
+        <v>210000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43822,11 +43822,11 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="T543" t="n">
         <v>450</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N544" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O544" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P544" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T544" t="n">
         <v>450</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N545" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O545" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P545" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T545" t="n">
         <v>450</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N546" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O546" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P546" t="n">
-        <v>150000</v>
+        <v>175000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T546" t="n">
         <v>450</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N547" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O547" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P547" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44142,11 +44142,11 @@
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N548" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O548" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="P548" t="n">
-        <v>276471</v>
+        <v>160000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44222,11 +44222,11 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>614</v>
+        <v>356</v>
       </c>
       <c r="T548" t="n">
         <v>450</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N549" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O549" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="P549" t="n">
-        <v>232195</v>
+        <v>150000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>516</v>
+        <v>333</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N550" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O550" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P550" t="n">
-        <v>212000</v>
+        <v>180000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N551" t="n">
-        <v>140000</v>
+        <v>270000</v>
       </c>
       <c r="O551" t="n">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="P551" t="n">
-        <v>140000</v>
+        <v>276471</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>311</v>
+        <v>614</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N552" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="O552" t="n">
-        <v>100000</v>
+        <v>240000</v>
       </c>
       <c r="P552" t="n">
-        <v>100000</v>
+        <v>232195</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>222</v>
+        <v>516</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N553" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O553" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P553" t="n">
-        <v>155000</v>
+        <v>212000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N554" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O554" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P554" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44702,11 +44702,11 @@
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44755,25 +44755,25 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N555" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O555" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P555" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44782,11 +44782,11 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N556" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O556" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P556" t="n">
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N557" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O557" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P557" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N558" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O558" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P558" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45022,11 +45022,11 @@
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T558" t="n">
         <v>450</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N559" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O559" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P559" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N560" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O560" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P560" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T560" t="n">
         <v>450</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N561" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O561" t="n">
         <v>180000</v>
       </c>
       <c r="P561" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N562" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O562" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P562" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T562" t="n">
         <v>450</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N563" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O563" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P563" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T563" t="n">
         <v>450</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N564" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O564" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P564" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T564" t="n">
         <v>450</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N565" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O565" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P565" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N566" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O566" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P566" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T566" t="n">
         <v>450</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N567" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O567" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P567" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T567" t="n">
         <v>450</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N568" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O568" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P568" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="T568" t="n">
         <v>450</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N569" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O569" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P569" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T569" t="n">
         <v>450</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N570" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O570" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P570" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T570" t="n">
         <v>450</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N571" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O571" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P571" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N572" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O572" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P572" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N573" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O573" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="P573" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="T573" t="n">
         <v>450</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46275,25 +46275,25 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N574" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O574" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P574" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N575" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O575" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P575" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N576" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="O576" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="P576" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="T576" t="n">
         <v>450</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N577" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O577" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P577" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="T577" t="n">
         <v>450</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N578" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="O578" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P578" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>489</v>
+        <v>378</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N579" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O579" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P579" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T579" t="n">
         <v>450</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N580" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O580" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P580" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N581" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O581" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P581" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="T581" t="n">
         <v>450</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,16 +46915,16 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N582" t="n">
         <v>180000</v>
@@ -46942,7 +46942,7 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S582" t="n">
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47007,13 +47007,13 @@
         <v>12</v>
       </c>
       <c r="N583" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O583" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P583" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T583" t="n">
         <v>450</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N584" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O584" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P584" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T584" t="n">
         <v>450</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N585" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O585" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P585" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T585" t="n">
         <v>450</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N586" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O586" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P586" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T586" t="n">
         <v>450</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N587" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O587" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P587" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47342,11 +47342,11 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T587" t="n">
         <v>450</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N588" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O588" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P588" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T588" t="n">
         <v>450</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M589" t="n">
         <v>15</v>
       </c>
       <c r="N589" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="O589" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="P589" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>489</v>
+        <v>222</v>
       </c>
       <c r="T589" t="n">
         <v>450</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N590" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O590" t="n">
         <v>200000</v>
       </c>
       <c r="P590" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T590" t="n">
         <v>450</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N591" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O591" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P591" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47662,11 +47662,11 @@
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T591" t="n">
         <v>450</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,25 +47715,25 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N592" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O592" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="P592" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="T592" t="n">
         <v>450</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N593" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O593" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P593" t="n">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,7 +47875,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N594" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="O594" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="P594" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="T594" t="n">
         <v>450</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
         <v>16</v>
       </c>
       <c r="N595" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O595" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P595" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T595" t="n">
         <v>450</v>
@@ -48035,7 +48035,7 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -48044,16 +48044,16 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N596" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O596" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P596" t="n">
-        <v>162692</v>
+        <v>100000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N597" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="O597" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="P597" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N598" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="O598" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P598" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N599" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O599" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P599" t="n">
-        <v>200000</v>
+        <v>162692</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="T599" t="n">
         <v>450</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N600" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="O600" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P600" t="n">
-        <v>273636</v>
+        <v>140000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>608</v>
+        <v>311</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N601" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="O601" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="P601" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N602" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O602" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P602" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T602" t="n">
         <v>450</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N603" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O603" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P603" t="n">
-        <v>200000</v>
+        <v>273636</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="T603" t="n">
         <v>450</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N604" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="O604" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P604" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>378</v>
+        <v>556</v>
       </c>
       <c r="T604" t="n">
         <v>450</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,7 +48755,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N605" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O605" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P605" t="n">
-        <v>157895</v>
+        <v>250000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N606" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O606" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P606" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N607" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="O607" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="P607" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>556</v>
+        <v>378</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N608" t="n">
-        <v>350000</v>
+        <v>150000</v>
       </c>
       <c r="O608" t="n">
-        <v>350000</v>
+        <v>170000</v>
       </c>
       <c r="P608" t="n">
-        <v>350000</v>
+        <v>157895</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49022,11 +49022,11 @@
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>778</v>
+        <v>351</v>
       </c>
       <c r="T608" t="n">
         <v>450</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N609" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O609" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P609" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T609" t="n">
         <v>450</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N610" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O610" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P610" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T610" t="n">
         <v>450</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N611" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="O611" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="P611" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>289</v>
+        <v>778</v>
       </c>
       <c r="T611" t="n">
         <v>450</v>
@@ -49315,7 +49315,7 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
@@ -49327,13 +49327,13 @@
         <v>15</v>
       </c>
       <c r="N612" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O612" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P612" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N613" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O613" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P613" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49422,11 +49422,11 @@
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T613" t="n">
         <v>450</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N614" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O614" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P614" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49502,11 +49502,11 @@
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S614" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T614" t="n">
         <v>450</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -49564,16 +49564,16 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N615" t="n">
         <v>140000</v>
       </c>
       <c r="O615" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P615" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T615" t="n">
         <v>450</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,7 +49644,7 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N616" t="n">
         <v>120000</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N617" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O617" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P617" t="n">
-        <v>155000</v>
+        <v>170000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N618" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O618" t="n">
         <v>160000</v>
       </c>
-      <c r="O618" t="n">
-        <v>180000</v>
-      </c>
       <c r="P618" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T618" t="n">
         <v>450</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49884,16 +49884,16 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N619" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O619" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P619" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,7 +49955,7 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N620" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O620" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="P620" t="n">
-        <v>250000</v>
+        <v>155000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>556</v>
+        <v>344</v>
       </c>
       <c r="T620" t="n">
         <v>450</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N621" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O621" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P621" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N622" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O622" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P622" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N623" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O623" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P623" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50222,11 +50222,11 @@
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N624" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O624" t="n">
-        <v>210000</v>
+        <v>160000</v>
       </c>
       <c r="P624" t="n">
-        <v>204500</v>
+        <v>150000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50302,11 +50302,11 @@
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N625" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O625" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P625" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50382,11 +50382,11 @@
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="T625" t="n">
         <v>450</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N626" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O626" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P626" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50462,11 +50462,11 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N627" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O627" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P627" t="n">
-        <v>140000</v>
+        <v>204500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50542,11 +50542,11 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>311</v>
+        <v>454</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50607,13 +50607,13 @@
         <v>20</v>
       </c>
       <c r="N628" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O628" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P628" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50622,11 +50622,11 @@
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N629" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O629" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P629" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T629" t="n">
         <v>450</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N630" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O630" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="P630" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M631" t="n">
         <v>20</v>
       </c>
       <c r="N631" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="O631" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="P631" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>578</v>
+        <v>267</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N632" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O632" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P632" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T632" t="n">
         <v>450</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N633" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O633" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P633" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N634" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="O634" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P634" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="T634" t="n">
         <v>450</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,24 +51160,24 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="N635" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O635" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P635" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
@@ -51186,10 +51186,10 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T635" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="636">
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
         <v>15</v>
       </c>
       <c r="N636" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O636" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P636" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N637" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O637" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P637" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51400,24 +51400,24 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N638" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="O638" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="P638" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
@@ -51426,10 +51426,10 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>356</v>
+        <v>611</v>
       </c>
       <c r="T638" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="639">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51487,13 +51487,13 @@
         <v>15</v>
       </c>
       <c r="N639" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O639" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P639" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,7 +51564,7 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N640" t="n">
         <v>180000</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51647,13 +51647,13 @@
         <v>20</v>
       </c>
       <c r="N641" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O641" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P641" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M642" t="n">
         <v>15</v>
       </c>
       <c r="N642" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="O642" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P642" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N643" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O643" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P643" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O644" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P644" t="n">
-        <v>185000</v>
+        <v>150000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,7 +51955,7 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N645" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O645" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P645" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N646" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O646" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P646" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N647" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O647" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P647" t="n">
-        <v>120000</v>
+        <v>185000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N648" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O648" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P648" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52284,16 +52284,16 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N649" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O649" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P649" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N650" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O650" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P650" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N651" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O651" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="P651" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N652" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O652" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P652" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52595,16 +52595,16 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N653" t="n">
         <v>130000</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N654" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="O654" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="P654" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N655" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O655" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P655" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,7 +52844,7 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N656" t="n">
         <v>130000</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N657" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O657" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P657" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,11 +53000,11 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N658" t="n">
         <v>180000</v>
@@ -53022,7 +53022,7 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S658" t="n">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N659" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O659" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P659" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N660" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O660" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P660" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N661" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O661" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P661" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
         <v>12</v>
       </c>
       <c r="N662" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O662" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P662" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M663" t="n">
         <v>10</v>
       </c>
       <c r="N663" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O663" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P663" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N664" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O664" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P664" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,7 +53555,7 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N665" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O665" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P665" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N666" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="O666" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P666" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N667" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O667" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P667" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N668" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O668" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P668" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N669" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O669" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="P669" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N670" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O670" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P670" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N671" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O671" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P671" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N672" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O672" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="P672" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54142,11 +54142,11 @@
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N673" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O673" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P673" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54222,11 +54222,11 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N674" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O674" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P674" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
         <v>20</v>
       </c>
       <c r="N675" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O675" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P675" t="n">
-        <v>175000</v>
+        <v>220000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N676" t="n">
-        <v>145000</v>
+        <v>170000</v>
       </c>
       <c r="O676" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P676" t="n">
-        <v>147500</v>
+        <v>170000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N677" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O677" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P677" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N678" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="O678" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P678" t="n">
-        <v>260000</v>
+        <v>175000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>578</v>
+        <v>389</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N679" t="n">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="O679" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P679" t="n">
-        <v>200000</v>
+        <v>147500</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>444</v>
+        <v>328</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N680" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O680" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P680" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,7 +54835,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N681" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O681" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P681" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N682" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O682" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P682" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -54995,25 +54995,25 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N683" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O683" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P683" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N684" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O684" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P684" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55155,7 +55155,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N685" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O685" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P685" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55235,40 +55235,280 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M686" t="n">
+        <v>18</v>
+      </c>
+      <c r="N686" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O686" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P686" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q686" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S686" t="n">
+        <v>178</v>
+      </c>
+      <c r="T686" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>6</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D687" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E687" t="n">
+        <v>13</v>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G687" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I687" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L686" t="inlineStr">
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M687" t="n">
+        <v>20</v>
+      </c>
+      <c r="N687" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O687" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P687" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q687" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S687" t="n">
+        <v>378</v>
+      </c>
+      <c r="T687" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>6</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E688" t="n">
+        <v>13</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G688" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I688" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M688" t="n">
+        <v>27</v>
+      </c>
+      <c r="N688" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O688" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P688" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q688" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R688" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S688" t="n">
+        <v>333</v>
+      </c>
+      <c r="T688" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>6</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D689" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E689" t="n">
+        <v>13</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M686" t="n">
+      <c r="M689" t="n">
         <v>25</v>
       </c>
-      <c r="N686" t="n">
+      <c r="N689" t="n">
         <v>130000</v>
       </c>
-      <c r="O686" t="n">
+      <c r="O689" t="n">
         <v>130000</v>
       </c>
-      <c r="P686" t="n">
+      <c r="P689" t="n">
         <v>130000</v>
       </c>
-      <c r="Q686" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R686" t="inlineStr">
+      <c r="Q689" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R689" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S686" t="n">
+      <c r="S689" t="n">
         <v>289</v>
       </c>
-      <c r="T686" t="n">
+      <c r="T689" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T689"/>
+  <dimension ref="A1:T692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N475" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O475" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P475" t="n">
-        <v>175000</v>
+        <v>230000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>389</v>
+        <v>511</v>
       </c>
       <c r="T475" t="n">
         <v>450</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38440,11 +38440,11 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N476" t="n">
         <v>200000</v>
@@ -38462,7 +38462,7 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S476" t="n">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N477" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O477" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P477" t="n">
-        <v>155000</v>
+        <v>180000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="T477" t="n">
         <v>450</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N478" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O478" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P478" t="n">
-        <v>125000</v>
+        <v>175000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="T478" t="n">
         <v>450</v>
@@ -38675,16 +38675,16 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N479" t="n">
         <v>200000</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N480" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O480" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P480" t="n">
-        <v>220000</v>
+        <v>155000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>489</v>
+        <v>344</v>
       </c>
       <c r="T480" t="n">
         <v>450</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N481" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O481" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P481" t="n">
-        <v>160000</v>
+        <v>125000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="T481" t="n">
         <v>450</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N482" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O482" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P482" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T482" t="n">
         <v>450</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N483" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O483" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P483" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="T483" t="n">
         <v>450</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N484" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O484" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P484" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="T484" t="n">
         <v>450</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N485" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O485" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P485" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T485" t="n">
         <v>450</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N486" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O486" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P486" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T486" t="n">
         <v>450</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39327,13 +39327,13 @@
         <v>25</v>
       </c>
       <c r="N487" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="O487" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P487" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="T487" t="n">
         <v>450</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N488" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O488" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P488" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T488" t="n">
         <v>450</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N489" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O489" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P489" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T489" t="n">
         <v>450</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N490" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O490" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P490" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T490" t="n">
         <v>450</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N491" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O491" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P491" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T491" t="n">
         <v>450</v>
@@ -39715,12 +39715,12 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N493" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O493" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P493" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T493" t="n">
         <v>450</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39884,7 +39884,7 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N494" t="n">
         <v>180000</v>
@@ -39902,7 +39902,7 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S494" t="n">
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39960,20 +39960,20 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N495" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O495" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P495" t="n">
-        <v>175000</v>
+        <v>160000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="T495" t="n">
         <v>450</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N496" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O496" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P496" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T496" t="n">
         <v>450</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N497" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O497" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P497" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T497" t="n">
         <v>450</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N498" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O498" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P498" t="n">
-        <v>140000</v>
+        <v>175000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="T498" t="n">
         <v>450</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N499" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="O499" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P499" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="T499" t="n">
         <v>450</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N500" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O500" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P500" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T500" t="n">
         <v>450</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N501" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="O501" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P501" t="n">
-        <v>195714</v>
+        <v>140000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>435</v>
+        <v>311</v>
       </c>
       <c r="T501" t="n">
         <v>450</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N502" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O502" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P502" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T502" t="n">
         <v>450</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N503" t="n">
         <v>130000</v>
       </c>
       <c r="O503" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P503" t="n">
-        <v>135000</v>
+        <v>130000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="T503" t="n">
         <v>450</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N504" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O504" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P504" t="n">
-        <v>180000</v>
+        <v>195714</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="T504" t="n">
         <v>450</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N505" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O505" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P505" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T505" t="n">
         <v>450</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N506" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O506" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P506" t="n">
-        <v>175000</v>
+        <v>135000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="T506" t="n">
         <v>450</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N507" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O507" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P507" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T507" t="n">
         <v>450</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N508" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O508" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P508" t="n">
-        <v>175000</v>
+        <v>140000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>389</v>
+        <v>311</v>
       </c>
       <c r="T508" t="n">
         <v>450</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N509" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O509" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P509" t="n">
-        <v>155000</v>
+        <v>175000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="T509" t="n">
         <v>450</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N510" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O510" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P510" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T510" t="n">
         <v>450</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N511" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O511" t="n">
         <v>180000</v>
       </c>
       <c r="P511" t="n">
-        <v>170000</v>
+        <v>175000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="T511" t="n">
         <v>450</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N512" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O512" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P512" t="n">
-        <v>130000</v>
+        <v>155000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N513" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O513" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P513" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N514" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="O514" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P514" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>511</v>
+        <v>378</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N515" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O515" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P515" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N516" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O516" t="n">
         <v>140000</v>
       </c>
       <c r="P516" t="n">
-        <v>140000</v>
+        <v>135000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="T516" t="n">
         <v>450</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N517" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O517" t="n">
         <v>230000</v>
       </c>
       <c r="P517" t="n">
-        <v>227500</v>
+        <v>230000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="T517" t="n">
         <v>450</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N518" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O518" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P518" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N519" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O519" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P519" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N520" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O520" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P520" t="n">
-        <v>175000</v>
+        <v>227500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>389</v>
+        <v>506</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
         <v>27</v>
       </c>
       <c r="N521" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O521" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P521" t="n">
-        <v>148889</v>
+        <v>200000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="N522" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="O522" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="P522" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="T522" t="n">
         <v>450</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N523" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O523" t="n">
         <v>180000</v>
       </c>
       <c r="P523" t="n">
-        <v>180000</v>
+        <v>175000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N524" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O524" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P524" t="n">
-        <v>160000</v>
+        <v>148889</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="T524" t="n">
         <v>450</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N525" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="O525" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P525" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T525" t="n">
         <v>450</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
         <v>15</v>
       </c>
       <c r="N526" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O526" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P526" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T526" t="n">
         <v>450</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N527" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O527" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P527" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="T527" t="n">
         <v>450</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N528" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O528" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P528" t="n">
-        <v>235000</v>
+        <v>170000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="T528" t="n">
         <v>450</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N529" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O529" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P529" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T529" t="n">
         <v>450</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N530" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O530" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P530" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T530" t="n">
         <v>450</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N531" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O531" t="n">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="P531" t="n">
-        <v>170000</v>
+        <v>235000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>378</v>
+        <v>522</v>
       </c>
       <c r="T531" t="n">
         <v>450</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N532" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O532" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P532" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T532" t="n">
         <v>450</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N533" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O533" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P533" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T533" t="n">
         <v>450</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N534" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="O534" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="P534" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>622</v>
+        <v>378</v>
       </c>
       <c r="T534" t="n">
         <v>450</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N535" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="O535" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="P535" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="T535" t="n">
         <v>450</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N536" t="n">
-        <v>120000</v>
+        <v>320000</v>
       </c>
       <c r="O536" t="n">
-        <v>130000</v>
+        <v>320000</v>
       </c>
       <c r="P536" t="n">
-        <v>125000</v>
+        <v>320000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>278</v>
+        <v>711</v>
       </c>
       <c r="T536" t="n">
         <v>450</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N537" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="O537" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P537" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>378</v>
+        <v>622</v>
       </c>
       <c r="T537" t="n">
         <v>450</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N538" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="O538" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P538" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="T538" t="n">
         <v>450</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N539" t="n">
         <v>120000</v>
       </c>
       <c r="O539" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P539" t="n">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="T539" t="n">
         <v>450</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M540" t="n">
         <v>15</v>
       </c>
       <c r="N540" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O540" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P540" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="T540" t="n">
         <v>450</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N541" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O541" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P541" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N542" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O542" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P542" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43742,11 +43742,11 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T542" t="n">
         <v>450</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N543" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O543" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="P543" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43822,11 +43822,11 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="T543" t="n">
         <v>450</v>
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N544" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O544" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P544" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43902,11 +43902,11 @@
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T544" t="n">
         <v>450</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N545" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O545" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P545" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43982,11 +43982,11 @@
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T545" t="n">
         <v>450</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N546" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="O546" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P546" t="n">
-        <v>175000</v>
+        <v>210000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44062,11 +44062,11 @@
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="T546" t="n">
         <v>450</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N547" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O547" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P547" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N548" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O548" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P548" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T548" t="n">
         <v>450</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N549" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O549" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P549" t="n">
-        <v>150000</v>
+        <v>175000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N550" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O550" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P550" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N551" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O551" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="P551" t="n">
-        <v>276471</v>
+        <v>160000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>614</v>
+        <v>356</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N552" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O552" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="P552" t="n">
-        <v>232195</v>
+        <v>150000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>516</v>
+        <v>333</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N553" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O553" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P553" t="n">
-        <v>212000</v>
+        <v>180000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N554" t="n">
-        <v>140000</v>
+        <v>270000</v>
       </c>
       <c r="O554" t="n">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="P554" t="n">
-        <v>140000</v>
+        <v>276471</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>311</v>
+        <v>614</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44755,25 +44755,25 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N555" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="O555" t="n">
-        <v>100000</v>
+        <v>240000</v>
       </c>
       <c r="P555" t="n">
-        <v>100000</v>
+        <v>232195</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>222</v>
+        <v>516</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N556" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O556" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P556" t="n">
-        <v>155000</v>
+        <v>212000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N557" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O557" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P557" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N558" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O558" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P558" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45022,11 +45022,11 @@
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="T558" t="n">
         <v>450</v>
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N559" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O559" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P559" t="n">
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N560" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O560" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P560" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T560" t="n">
         <v>450</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N561" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O561" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P561" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N562" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O562" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P562" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T562" t="n">
         <v>450</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N563" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O563" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P563" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T563" t="n">
         <v>450</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N564" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O564" t="n">
         <v>180000</v>
       </c>
       <c r="P564" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T564" t="n">
         <v>450</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N565" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O565" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P565" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N566" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O566" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P566" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T566" t="n">
         <v>450</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N567" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O567" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P567" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T567" t="n">
         <v>450</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N568" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O568" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P568" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="T568" t="n">
         <v>450</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N569" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O569" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P569" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T569" t="n">
         <v>450</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N570" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O570" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P570" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T570" t="n">
         <v>450</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N571" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O571" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P571" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N572" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O572" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P572" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N573" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O573" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P573" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T573" t="n">
         <v>450</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N574" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O574" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P574" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46302,11 +46302,11 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N575" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O575" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P575" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N576" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O576" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="P576" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="T576" t="n">
         <v>450</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N577" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O577" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P577" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T577" t="n">
         <v>450</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N578" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O578" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P578" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N579" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="O579" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="P579" t="n">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="T579" t="n">
         <v>450</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N580" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O580" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P580" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N581" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="O581" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P581" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>489</v>
+        <v>378</v>
       </c>
       <c r="T581" t="n">
         <v>450</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N582" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O582" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P582" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T582" t="n">
         <v>450</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N583" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O583" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P583" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T583" t="n">
         <v>450</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N584" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O584" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P584" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="T584" t="n">
         <v>450</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,16 +47155,16 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N585" t="n">
         <v>180000</v>
@@ -47182,7 +47182,7 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S585" t="n">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47247,13 +47247,13 @@
         <v>12</v>
       </c>
       <c r="N586" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O586" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P586" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T586" t="n">
         <v>450</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N587" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O587" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P587" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T587" t="n">
         <v>450</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N588" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O588" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P588" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T588" t="n">
         <v>450</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N589" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O589" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P589" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47502,11 +47502,11 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T589" t="n">
         <v>450</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N590" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O590" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P590" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T590" t="n">
         <v>450</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N591" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O591" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P591" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T591" t="n">
         <v>450</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
         <v>15</v>
       </c>
       <c r="N592" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="O592" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="P592" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>489</v>
+        <v>222</v>
       </c>
       <c r="T592" t="n">
         <v>450</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N593" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O593" t="n">
         <v>200000</v>
       </c>
       <c r="P593" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N594" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O594" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P594" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47902,11 +47902,11 @@
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T594" t="n">
         <v>450</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N595" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O595" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="P595" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="T595" t="n">
         <v>450</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,7 +48035,7 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -48044,16 +48044,16 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N596" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O596" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P596" t="n">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N597" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="O597" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="P597" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
         <v>16</v>
       </c>
       <c r="N598" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O598" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P598" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N599" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O599" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P599" t="n">
-        <v>162692</v>
+        <v>100000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="T599" t="n">
         <v>450</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N600" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="O600" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="P600" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N601" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="O601" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P601" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N602" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O602" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P602" t="n">
-        <v>200000</v>
+        <v>162692</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="T602" t="n">
         <v>450</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N603" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="O603" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P603" t="n">
-        <v>273636</v>
+        <v>140000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>608</v>
+        <v>311</v>
       </c>
       <c r="T603" t="n">
         <v>450</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N604" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="O604" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="P604" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="T604" t="n">
         <v>450</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N605" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O605" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P605" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N606" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O606" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P606" t="n">
-        <v>200000</v>
+        <v>273636</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,25 +48915,25 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N607" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="O607" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P607" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>378</v>
+        <v>556</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N608" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O608" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P608" t="n">
-        <v>157895</v>
+        <v>250000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="T608" t="n">
         <v>450</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N609" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O609" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P609" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T609" t="n">
         <v>450</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N610" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="O610" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="P610" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49182,11 +49182,11 @@
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>556</v>
+        <v>378</v>
       </c>
       <c r="T610" t="n">
         <v>450</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,7 +49235,7 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N611" t="n">
-        <v>350000</v>
+        <v>150000</v>
       </c>
       <c r="O611" t="n">
-        <v>350000</v>
+        <v>170000</v>
       </c>
       <c r="P611" t="n">
-        <v>350000</v>
+        <v>157895</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49262,11 +49262,11 @@
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>778</v>
+        <v>351</v>
       </c>
       <c r="T611" t="n">
         <v>450</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N612" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O612" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P612" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N613" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O613" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P613" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T613" t="n">
         <v>450</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N614" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="O614" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="P614" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>289</v>
+        <v>778</v>
       </c>
       <c r="T614" t="n">
         <v>450</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -49567,13 +49567,13 @@
         <v>15</v>
       </c>
       <c r="N615" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O615" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P615" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T615" t="n">
         <v>450</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N616" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O616" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P616" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49662,11 +49662,11 @@
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T616" t="n">
         <v>450</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N617" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O617" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P617" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49742,11 +49742,11 @@
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N618" t="n">
         <v>140000</v>
       </c>
       <c r="O618" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P618" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T618" t="n">
         <v>450</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49884,7 +49884,7 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N619" t="n">
         <v>120000</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N620" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O620" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P620" t="n">
-        <v>155000</v>
+        <v>170000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="T620" t="n">
         <v>450</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N621" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O621" t="n">
         <v>160000</v>
       </c>
-      <c r="O621" t="n">
-        <v>180000</v>
-      </c>
       <c r="P621" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N622" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O622" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P622" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,7 +50195,7 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N623" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O623" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="P623" t="n">
-        <v>250000</v>
+        <v>155000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>556</v>
+        <v>344</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N624" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O624" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P624" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N625" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O625" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P625" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="T625" t="n">
         <v>450</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N626" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O626" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P626" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50462,11 +50462,11 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N627" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O627" t="n">
-        <v>210000</v>
+        <v>160000</v>
       </c>
       <c r="P627" t="n">
-        <v>204500</v>
+        <v>150000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50542,11 +50542,11 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N628" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O628" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P628" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50622,11 +50622,11 @@
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50684,16 +50684,16 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N629" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O629" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P629" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50702,11 +50702,11 @@
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T629" t="n">
         <v>450</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N630" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O630" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P630" t="n">
-        <v>140000</v>
+        <v>204500</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50782,11 +50782,11 @@
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>311</v>
+        <v>454</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50847,13 +50847,13 @@
         <v>20</v>
       </c>
       <c r="N631" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O631" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P631" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50862,11 +50862,11 @@
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N632" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O632" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P632" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T632" t="n">
         <v>450</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N633" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O633" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="P633" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M634" t="n">
         <v>20</v>
       </c>
       <c r="N634" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="O634" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="P634" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>578</v>
+        <v>267</v>
       </c>
       <c r="T634" t="n">
         <v>450</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N635" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O635" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P635" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N636" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O636" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P636" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N637" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="O637" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P637" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,24 +51400,24 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="N638" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O638" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P638" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
@@ -51426,10 +51426,10 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T638" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="639">
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
         <v>15</v>
       </c>
       <c r="N639" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O639" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P639" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N640" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O640" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P640" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51640,24 +51640,24 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N641" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="O641" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="P641" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
@@ -51666,10 +51666,10 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>356</v>
+        <v>611</v>
       </c>
       <c r="T641" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51727,13 +51727,13 @@
         <v>15</v>
       </c>
       <c r="N642" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O642" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P642" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51804,7 +51804,7 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N643" t="n">
         <v>180000</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51887,13 +51887,13 @@
         <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O644" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P644" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
         <v>15</v>
       </c>
       <c r="N645" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="O645" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P645" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N646" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O646" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P646" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N647" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O647" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P647" t="n">
-        <v>185000</v>
+        <v>150000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N648" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O648" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P648" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N649" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O649" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P649" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N650" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O650" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P650" t="n">
-        <v>120000</v>
+        <v>185000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N651" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O651" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P651" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N652" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O652" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P652" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N653" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O653" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P653" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N654" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O654" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="P654" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N655" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O655" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P655" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52835,16 +52835,16 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N656" t="n">
         <v>130000</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N657" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="O657" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="P657" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N658" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O658" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P658" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,7 +53084,7 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N659" t="n">
         <v>130000</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N660" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O660" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P660" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53182,11 +53182,11 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,11 +53240,11 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N661" t="n">
         <v>180000</v>
@@ -53262,7 +53262,7 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N662" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O662" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P662" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N663" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O663" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P663" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N664" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O664" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P664" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
         <v>12</v>
       </c>
       <c r="N665" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O665" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P665" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M666" t="n">
         <v>10</v>
       </c>
       <c r="N666" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O666" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P666" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N667" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O667" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P667" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N668" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O668" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P668" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N669" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="O669" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P669" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N670" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O670" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P670" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N671" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O671" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P671" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N672" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O672" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="P672" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N673" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O673" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P673" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54222,11 +54222,11 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N674" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O674" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P674" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N675" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O675" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="P675" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,16 +54444,16 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N676" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O676" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P676" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N677" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O677" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P677" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
         <v>20</v>
       </c>
       <c r="N678" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O678" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P678" t="n">
-        <v>175000</v>
+        <v>220000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N679" t="n">
-        <v>145000</v>
+        <v>170000</v>
       </c>
       <c r="O679" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P679" t="n">
-        <v>147500</v>
+        <v>170000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54702,11 +54702,11 @@
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,7 +54755,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N680" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O680" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P680" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,25 +54835,25 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N681" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="O681" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P681" t="n">
-        <v>260000</v>
+        <v>175000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>578</v>
+        <v>389</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N682" t="n">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="O682" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P682" t="n">
-        <v>200000</v>
+        <v>147500</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>444</v>
+        <v>328</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N683" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O683" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P683" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,7 +55075,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
@@ -55084,16 +55084,16 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N684" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O684" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P684" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,25 +55155,25 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N685" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O685" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P685" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N686" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O686" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P686" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N687" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O687" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P687" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55395,7 +55395,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
@@ -55404,16 +55404,16 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N688" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O688" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P688" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55475,40 +55475,280 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M689" t="n">
+        <v>18</v>
+      </c>
+      <c r="N689" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O689" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P689" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q689" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R689" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S689" t="n">
+        <v>178</v>
+      </c>
+      <c r="T689" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>6</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D690" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E690" t="n">
+        <v>13</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G690" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I690" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L689" t="inlineStr">
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M690" t="n">
+        <v>20</v>
+      </c>
+      <c r="N690" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O690" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P690" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q690" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R690" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S690" t="n">
+        <v>378</v>
+      </c>
+      <c r="T690" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>6</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D691" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E691" t="n">
+        <v>13</v>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G691" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I691" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M691" t="n">
+        <v>27</v>
+      </c>
+      <c r="N691" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O691" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P691" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q691" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R691" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S691" t="n">
+        <v>333</v>
+      </c>
+      <c r="T691" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>6</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D692" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E692" t="n">
+        <v>13</v>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G692" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I692" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M689" t="n">
+      <c r="M692" t="n">
         <v>25</v>
       </c>
-      <c r="N689" t="n">
+      <c r="N692" t="n">
         <v>130000</v>
       </c>
-      <c r="O689" t="n">
+      <c r="O692" t="n">
         <v>130000</v>
       </c>
-      <c r="P689" t="n">
+      <c r="P692" t="n">
         <v>130000</v>
       </c>
-      <c r="Q689" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R689" t="inlineStr">
+      <c r="Q692" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R692" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S689" t="n">
+      <c r="S692" t="n">
         <v>289</v>
       </c>
-      <c r="T689" t="n">
+      <c r="T692" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T695"/>
+  <dimension ref="A1:T699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N512" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O512" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P512" t="n">
-        <v>175000</v>
+        <v>231071</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>389</v>
+        <v>513</v>
       </c>
       <c r="T512" t="n">
         <v>450</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N513" t="n">
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="O513" t="n">
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="P513" t="n">
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>311</v>
+        <v>556</v>
       </c>
       <c r="T513" t="n">
         <v>450</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N514" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O514" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P514" t="n">
-        <v>175000</v>
+        <v>200000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41502,11 +41502,11 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T514" t="n">
         <v>450</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N515" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O515" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P515" t="n">
-        <v>155000</v>
+        <v>180000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="T515" t="n">
         <v>450</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N516" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O516" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P516" t="n">
-        <v>200000</v>
+        <v>175000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T516" t="n">
         <v>450</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N517" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O517" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P517" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T517" t="n">
         <v>450</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N518" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O518" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P518" t="n">
-        <v>130000</v>
+        <v>175000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41822,11 +41822,11 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="T518" t="n">
         <v>450</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N519" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O519" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P519" t="n">
-        <v>135000</v>
+        <v>155000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="T519" t="n">
         <v>450</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41967,13 +41967,13 @@
         <v>15</v>
       </c>
       <c r="N520" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O520" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P520" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T520" t="n">
         <v>450</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N521" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O521" t="n">
         <v>180000</v>
       </c>
       <c r="P521" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T521" t="n">
         <v>450</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N522" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O522" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P522" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T522" t="n">
         <v>450</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N523" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="O523" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P523" t="n">
-        <v>227500</v>
+        <v>135000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>506</v>
+        <v>300</v>
       </c>
       <c r="T523" t="n">
         <v>450</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N524" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O524" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P524" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T524" t="n">
         <v>450</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N525" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O525" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P525" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T525" t="n">
         <v>450</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N526" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O526" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P526" t="n">
-        <v>175000</v>
+        <v>140000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>389</v>
+        <v>311</v>
       </c>
       <c r="T526" t="n">
         <v>450</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N527" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="O527" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P527" t="n">
-        <v>148889</v>
+        <v>227500</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>331</v>
+        <v>506</v>
       </c>
       <c r="T527" t="n">
         <v>450</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="N528" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O528" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="P528" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="T528" t="n">
         <v>450</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N529" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O529" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P529" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T529" t="n">
         <v>450</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N530" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O530" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P530" t="n">
-        <v>160000</v>
+        <v>175000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="T530" t="n">
         <v>450</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N531" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O531" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P531" t="n">
-        <v>170000</v>
+        <v>148889</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="T531" t="n">
         <v>450</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N532" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="O532" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P532" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="T532" t="n">
         <v>450</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N533" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="O533" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P533" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T533" t="n">
         <v>450</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N534" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="O534" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="P534" t="n">
-        <v>235000</v>
+        <v>160000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>522</v>
+        <v>356</v>
       </c>
       <c r="T534" t="n">
         <v>450</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N535" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O535" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P535" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T535" t="n">
         <v>450</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N536" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O536" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P536" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T536" t="n">
         <v>450</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N537" t="n">
-        <v>170000</v>
+        <v>270000</v>
       </c>
       <c r="O537" t="n">
-        <v>170000</v>
+        <v>270000</v>
       </c>
       <c r="P537" t="n">
-        <v>170000</v>
+        <v>270000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>378</v>
+        <v>600</v>
       </c>
       <c r="T537" t="n">
         <v>450</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N538" t="n">
-        <v>130000</v>
+        <v>230000</v>
       </c>
       <c r="O538" t="n">
-        <v>130000</v>
+        <v>240000</v>
       </c>
       <c r="P538" t="n">
-        <v>130000</v>
+        <v>235000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="T538" t="n">
         <v>450</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N539" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O539" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P539" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T539" t="n">
         <v>450</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N540" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O540" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P540" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T540" t="n">
         <v>450</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N541" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O541" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="P541" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>511</v>
+        <v>378</v>
       </c>
       <c r="T541" t="n">
         <v>450</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N542" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O542" t="n">
         <v>130000</v>
       </c>
       <c r="P542" t="n">
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="T542" t="n">
         <v>450</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43807,13 +43807,13 @@
         <v>15</v>
       </c>
       <c r="N543" t="n">
-        <v>170000</v>
+        <v>320000</v>
       </c>
       <c r="O543" t="n">
-        <v>170000</v>
+        <v>320000</v>
       </c>
       <c r="P543" t="n">
-        <v>170000</v>
+        <v>320000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>378</v>
+        <v>711</v>
       </c>
       <c r="T543" t="n">
         <v>450</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N544" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="O544" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="P544" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>333</v>
+        <v>622</v>
       </c>
       <c r="T544" t="n">
         <v>450</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N545" t="n">
-        <v>120000</v>
+        <v>230000</v>
       </c>
       <c r="O545" t="n">
-        <v>120000</v>
+        <v>230000</v>
       </c>
       <c r="P545" t="n">
-        <v>120000</v>
+        <v>230000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>267</v>
+        <v>511</v>
       </c>
       <c r="T545" t="n">
         <v>450</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N546" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O546" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P546" t="n">
-        <v>140000</v>
+        <v>125000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="T546" t="n">
         <v>450</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N547" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O547" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P547" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T547" t="n">
         <v>450</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N548" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O548" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P548" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44222,11 +44222,11 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T548" t="n">
         <v>450</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N549" t="n">
-        <v>210000</v>
+        <v>120000</v>
       </c>
       <c r="O549" t="n">
-        <v>210000</v>
+        <v>120000</v>
       </c>
       <c r="P549" t="n">
-        <v>210000</v>
+        <v>120000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44302,11 +44302,11 @@
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>467</v>
+        <v>267</v>
       </c>
       <c r="T549" t="n">
         <v>450</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N550" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O550" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P550" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T550" t="n">
         <v>450</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N551" t="n">
-        <v>190000</v>
+        <v>120000</v>
       </c>
       <c r="O551" t="n">
-        <v>190000</v>
+        <v>120000</v>
       </c>
       <c r="P551" t="n">
-        <v>190000</v>
+        <v>120000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="T551" t="n">
         <v>450</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N552" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O552" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P552" t="n">
-        <v>175000</v>
+        <v>200000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44542,11 +44542,11 @@
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T552" t="n">
         <v>450</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N553" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="O553" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="P553" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="T553" t="n">
         <v>450</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N554" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O554" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P554" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44702,11 +44702,11 @@
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T554" t="n">
         <v>450</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N555" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O555" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P555" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44782,11 +44782,11 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="T555" t="n">
         <v>450</v>
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N556" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O556" t="n">
         <v>180000</v>
       </c>
       <c r="P556" t="n">
-        <v>180000</v>
+        <v>175000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="T556" t="n">
         <v>450</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N557" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O557" t="n">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="P557" t="n">
-        <v>276471</v>
+        <v>160000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>614</v>
+        <v>356</v>
       </c>
       <c r="T557" t="n">
         <v>450</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="N558" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="O558" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="P558" t="n">
-        <v>232195</v>
+        <v>160000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45022,11 +45022,11 @@
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>516</v>
+        <v>356</v>
       </c>
       <c r="T558" t="n">
         <v>450</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N559" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O559" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P559" t="n">
-        <v>212000</v>
+        <v>150000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>471</v>
+        <v>333</v>
       </c>
       <c r="T559" t="n">
         <v>450</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N560" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O560" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P560" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T560" t="n">
         <v>450</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N561" t="n">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="O561" t="n">
-        <v>100000</v>
+        <v>280000</v>
       </c>
       <c r="P561" t="n">
-        <v>100000</v>
+        <v>276471</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>222</v>
+        <v>614</v>
       </c>
       <c r="T561" t="n">
         <v>450</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N562" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="O562" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P562" t="n">
-        <v>155000</v>
+        <v>232195</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45342,11 +45342,11 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="T562" t="n">
         <v>450</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N563" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O563" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P563" t="n">
-        <v>170000</v>
+        <v>212000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>378</v>
+        <v>471</v>
       </c>
       <c r="T563" t="n">
         <v>450</v>
@@ -45475,7 +45475,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N564" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O564" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P564" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T564" t="n">
         <v>450</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N565" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="O565" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="P565" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="T565" t="n">
         <v>450</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N566" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O566" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P566" t="n">
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="T566" t="n">
         <v>450</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,17 +45720,17 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N567" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O567" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P567" t="n">
         <v>170000</v>
@@ -45742,7 +45742,7 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S567" t="n">
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N568" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O568" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P568" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T568" t="n">
         <v>450</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N569" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O569" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P569" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T569" t="n">
         <v>450</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N570" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O570" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P570" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T570" t="n">
         <v>450</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N571" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O571" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P571" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T571" t="n">
         <v>450</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N572" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O572" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P572" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T572" t="n">
         <v>450</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="N573" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O573" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P573" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T573" t="n">
         <v>450</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N574" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O574" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P574" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T574" t="n">
         <v>450</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N575" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O575" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P575" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T575" t="n">
         <v>450</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46440,11 +46440,11 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N576" t="n">
         <v>160000</v>
@@ -46462,7 +46462,7 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S576" t="n">
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N577" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O577" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P577" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T577" t="n">
         <v>450</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N578" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O578" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P578" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T578" t="n">
         <v>450</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N579" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O579" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P579" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T579" t="n">
         <v>450</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N580" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O580" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P580" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T580" t="n">
         <v>450</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N581" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O581" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P581" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="T581" t="n">
         <v>450</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N582" t="n">
-        <v>80000</v>
+        <v>140000</v>
       </c>
       <c r="O582" t="n">
-        <v>80000</v>
+        <v>140000</v>
       </c>
       <c r="P582" t="n">
-        <v>80000</v>
+        <v>140000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="T582" t="n">
         <v>450</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N583" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O583" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P583" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T583" t="n">
         <v>450</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N584" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O584" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P584" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T584" t="n">
         <v>450</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N585" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O585" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P585" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="T585" t="n">
         <v>450</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N586" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="O586" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="P586" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>378</v>
+        <v>178</v>
       </c>
       <c r="T586" t="n">
         <v>450</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N587" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="O587" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="P587" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>489</v>
+        <v>222</v>
       </c>
       <c r="T587" t="n">
         <v>450</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N588" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O588" t="n">
         <v>180000</v>
       </c>
       <c r="P588" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T588" t="n">
         <v>450</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,16 +47475,16 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N589" t="n">
         <v>130000</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N590" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O590" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P590" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T590" t="n">
         <v>450</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N591" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O591" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P591" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47662,11 +47662,11 @@
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T591" t="n">
         <v>450</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,25 +47715,25 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N592" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O592" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P592" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47742,11 +47742,11 @@
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T592" t="n">
         <v>450</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N593" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O593" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P593" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N594" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O594" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P594" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47902,11 +47902,11 @@
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T594" t="n">
         <v>450</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N595" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O595" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="P595" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="T595" t="n">
         <v>450</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
         <v>12</v>
       </c>
       <c r="N596" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O596" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P596" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N597" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O597" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P597" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48142,11 +48142,11 @@
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N598" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O598" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="P598" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48222,11 +48222,11 @@
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S598" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N599" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O599" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="P599" t="n">
-        <v>190000</v>
+        <v>100000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>422</v>
+        <v>222</v>
       </c>
       <c r="T599" t="n">
         <v>450</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N600" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O600" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P600" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48382,11 +48382,11 @@
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S600" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48447,13 +48447,13 @@
         <v>16</v>
       </c>
       <c r="N601" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O601" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P601" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48462,11 +48462,11 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N602" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="O602" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="P602" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>222</v>
+        <v>489</v>
       </c>
       <c r="T602" t="n">
         <v>450</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N603" t="n">
-        <v>80000</v>
+        <v>180000</v>
       </c>
       <c r="O603" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P603" t="n">
-        <v>80000</v>
+        <v>190000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>178</v>
+        <v>422</v>
       </c>
       <c r="T603" t="n">
         <v>450</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N604" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O604" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P604" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T604" t="n">
         <v>450</v>
@@ -48755,7 +48755,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N605" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O605" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P605" t="n">
-        <v>162692</v>
+        <v>130000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N606" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="O606" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="P606" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48915,25 +48915,25 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N607" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O607" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="P607" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N608" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O608" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P608" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T608" t="n">
         <v>450</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N609" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O609" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="P609" t="n">
-        <v>273636</v>
+        <v>162692</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>608</v>
+        <v>362</v>
       </c>
       <c r="T609" t="n">
         <v>450</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N610" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="O610" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="P610" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>556</v>
+        <v>311</v>
       </c>
       <c r="T610" t="n">
         <v>450</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N611" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="O611" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="P611" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="T611" t="n">
         <v>450</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,12 +49315,12 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M612" t="n">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N613" t="n">
-        <v>170000</v>
+        <v>270000</v>
       </c>
       <c r="O613" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P613" t="n">
-        <v>170000</v>
+        <v>273636</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>378</v>
+        <v>608</v>
       </c>
       <c r="T613" t="n">
         <v>450</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="N614" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O614" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P614" t="n">
-        <v>157895</v>
+        <v>250000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="T614" t="n">
         <v>450</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
         <v>14</v>
       </c>
       <c r="N615" t="n">
-        <v>130000</v>
+        <v>250000</v>
       </c>
       <c r="O615" t="n">
-        <v>130000</v>
+        <v>250000</v>
       </c>
       <c r="P615" t="n">
-        <v>130000</v>
+        <v>250000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>289</v>
+        <v>556</v>
       </c>
       <c r="T615" t="n">
         <v>450</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N616" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O616" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P616" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49662,11 +49662,11 @@
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T616" t="n">
         <v>450</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N617" t="n">
-        <v>350000</v>
+        <v>170000</v>
       </c>
       <c r="O617" t="n">
-        <v>350000</v>
+        <v>170000</v>
       </c>
       <c r="P617" t="n">
-        <v>350000</v>
+        <v>170000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49742,11 +49742,11 @@
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>778</v>
+        <v>378</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N618" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O618" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P618" t="n">
-        <v>120000</v>
+        <v>157895</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="T618" t="n">
         <v>450</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N619" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O619" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P619" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49902,11 +49902,11 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N620" t="n">
-        <v>130000</v>
+        <v>250000</v>
       </c>
       <c r="O620" t="n">
-        <v>130000</v>
+        <v>250000</v>
       </c>
       <c r="P620" t="n">
-        <v>130000</v>
+        <v>250000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>289</v>
+        <v>556</v>
       </c>
       <c r="T620" t="n">
         <v>450</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N621" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="O621" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="P621" t="n">
-        <v>140000</v>
+        <v>350000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50062,11 +50062,11 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>311</v>
+        <v>778</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50115,12 +50115,12 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M622" t="n">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N623" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O623" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P623" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50222,11 +50222,11 @@
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N624" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O624" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P624" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50302,11 +50302,11 @@
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N625" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O625" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P625" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T625" t="n">
         <v>450</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N626" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O626" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P626" t="n">
-        <v>155000</v>
+        <v>120000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,17 +50520,17 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N627" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O627" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P627" t="n">
         <v>170000</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N628" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O628" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P628" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N629" t="n">
-        <v>250000</v>
+        <v>120000</v>
       </c>
       <c r="O629" t="n">
-        <v>250000</v>
+        <v>120000</v>
       </c>
       <c r="P629" t="n">
-        <v>250000</v>
+        <v>120000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>556</v>
+        <v>267</v>
       </c>
       <c r="T629" t="n">
         <v>450</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N630" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="O630" t="n">
         <v>160000</v>
       </c>
       <c r="P630" t="n">
-        <v>150000</v>
+        <v>155000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,25 +50835,25 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N631" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O631" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="P631" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>222</v>
+        <v>378</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N632" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="O632" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="P632" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50942,11 +50942,11 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="T632" t="n">
         <v>450</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,7 +50995,7 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N633" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O633" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="P633" t="n">
-        <v>204500</v>
+        <v>250000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51022,11 +51022,11 @@
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>454</v>
+        <v>556</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,7 +51075,7 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N634" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O634" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P634" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51102,11 +51102,11 @@
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T634" t="n">
         <v>450</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N635" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O635" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P635" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N636" t="n">
-        <v>140000</v>
+        <v>230000</v>
       </c>
       <c r="O636" t="n">
-        <v>140000</v>
+        <v>230000</v>
       </c>
       <c r="P636" t="n">
-        <v>140000</v>
+        <v>230000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51262,11 +51262,11 @@
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>311</v>
+        <v>511</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N637" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O637" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P637" t="n">
-        <v>120000</v>
+        <v>204500</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51342,11 +51342,11 @@
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N638" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O638" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P638" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51422,11 +51422,11 @@
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T638" t="n">
         <v>450</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N639" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O639" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P639" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N640" t="n">
-        <v>260000</v>
+        <v>140000</v>
       </c>
       <c r="O640" t="n">
-        <v>260000</v>
+        <v>140000</v>
       </c>
       <c r="P640" t="n">
-        <v>260000</v>
+        <v>140000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>578</v>
+        <v>311</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N641" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O641" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P641" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N642" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O642" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P642" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N643" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O643" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="P643" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,24 +51880,24 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="O644" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="P644" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
@@ -51906,10 +51906,10 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="T644" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,7 +51960,7 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N646" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O646" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P646" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N647" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O647" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P647" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,24 +52200,24 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="N648" t="n">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="O648" t="n">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="P648" t="n">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
@@ -52226,10 +52226,10 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="T648" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="649">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N649" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O649" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P649" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N650" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O650" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P650" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N651" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O651" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P651" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M652" t="n">
         <v>15</v>
       </c>
       <c r="N652" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="O652" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P652" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,16 +52604,16 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N653" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O653" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P653" t="n">
-        <v>185000</v>
+        <v>180000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N654" t="n">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="O654" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P654" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N655" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O655" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P655" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,7 +52844,7 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N656" t="n">
         <v>120000</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N657" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="O657" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P657" t="n">
-        <v>250000</v>
+        <v>185000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>556</v>
+        <v>411</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,13 +53004,13 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N658" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="O658" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P658" t="n">
         <v>220000</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N659" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O659" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P659" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,7 +53155,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N660" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O660" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P660" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N661" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O661" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P661" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N662" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="O662" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="P662" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N663" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="O663" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="P663" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N664" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O664" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P664" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N665" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O665" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P665" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N666" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O666" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P666" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N667" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O667" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P667" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>400</v>
+        <v>511</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N668" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O668" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P668" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53884,16 +53884,16 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N669" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O669" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P669" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53902,11 +53902,11 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N670" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O670" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P670" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N671" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O671" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P671" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N672" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O672" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P672" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M673" t="n">
         <v>10</v>
       </c>
       <c r="N673" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O673" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P673" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54222,11 +54222,11 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N674" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O674" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P674" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N675" t="n">
-        <v>190000</v>
+        <v>150000</v>
       </c>
       <c r="O675" t="n">
-        <v>190000</v>
+        <v>150000</v>
       </c>
       <c r="P675" t="n">
-        <v>190000</v>
+        <v>150000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>422</v>
+        <v>333</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N676" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O676" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P676" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N677" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O677" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P677" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -54604,16 +54604,16 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N678" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O678" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P678" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54622,11 +54622,11 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N679" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O679" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P679" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54702,11 +54702,11 @@
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54755,7 +54755,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N680" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O680" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P680" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54835,7 +54835,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -54847,13 +54847,13 @@
         <v>20</v>
       </c>
       <c r="N681" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="O681" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P681" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>489</v>
+        <v>378</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54915,7 +54915,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -54927,13 +54927,13 @@
         <v>12</v>
       </c>
       <c r="N682" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O682" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P682" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N683" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O683" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P683" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N684" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O684" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P684" t="n">
-        <v>175000</v>
+        <v>200000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55102,11 +55102,11 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,7 +55155,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N685" t="n">
-        <v>145000</v>
+        <v>220000</v>
       </c>
       <c r="O685" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P685" t="n">
-        <v>147500</v>
+        <v>220000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>328</v>
+        <v>489</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,7 +55235,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
@@ -55244,16 +55244,16 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N686" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O686" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P686" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,25 +55315,25 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N687" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="O687" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="P687" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>578</v>
+        <v>378</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N688" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O688" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P688" t="n">
-        <v>200000</v>
+        <v>175000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N689" t="n">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="O689" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P689" t="n">
-        <v>200000</v>
+        <v>147500</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>444</v>
+        <v>328</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N690" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O690" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P690" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T690" t="n">
         <v>450</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,7 +55635,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
@@ -55644,16 +55644,16 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N691" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="O691" t="n">
-        <v>120000</v>
+        <v>260000</v>
       </c>
       <c r="P691" t="n">
-        <v>110000</v>
+        <v>260000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>244</v>
+        <v>578</v>
       </c>
       <c r="T691" t="n">
         <v>450</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,7 +55715,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N692" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O692" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P692" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="T692" t="n">
         <v>450</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55804,16 +55804,16 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N693" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O693" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P693" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55884,16 +55884,16 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N694" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O694" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P694" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T694" t="n">
         <v>450</v>
@@ -55955,40 +55955,360 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M695" t="n">
+        <v>24</v>
+      </c>
+      <c r="N695" t="n">
+        <v>100000</v>
+      </c>
+      <c r="O695" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P695" t="n">
+        <v>110000</v>
+      </c>
+      <c r="Q695" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R695" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S695" t="n">
+        <v>244</v>
+      </c>
+      <c r="T695" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>6</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D696" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E696" t="n">
+        <v>13</v>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G696" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I696" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M696" t="n">
+        <v>18</v>
+      </c>
+      <c r="N696" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O696" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P696" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q696" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R696" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S696" t="n">
+        <v>178</v>
+      </c>
+      <c r="T696" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>6</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D697" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E697" t="n">
+        <v>13</v>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G697" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I697" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L695" t="inlineStr">
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M697" t="n">
+        <v>20</v>
+      </c>
+      <c r="N697" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O697" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P697" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q697" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R697" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S697" t="n">
+        <v>378</v>
+      </c>
+      <c r="T697" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>6</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D698" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E698" t="n">
+        <v>13</v>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G698" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I698" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M698" t="n">
+        <v>27</v>
+      </c>
+      <c r="N698" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O698" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P698" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q698" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R698" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S698" t="n">
+        <v>333</v>
+      </c>
+      <c r="T698" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>6</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D699" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E699" t="n">
+        <v>13</v>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G699" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I699" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L699" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M695" t="n">
+      <c r="M699" t="n">
         <v>25</v>
       </c>
-      <c r="N695" t="n">
+      <c r="N699" t="n">
         <v>130000</v>
       </c>
-      <c r="O695" t="n">
+      <c r="O699" t="n">
         <v>130000</v>
       </c>
-      <c r="P695" t="n">
+      <c r="P699" t="n">
         <v>130000</v>
       </c>
-      <c r="Q695" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R695" t="inlineStr">
+      <c r="Q699" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R699" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S695" t="n">
+      <c r="S699" t="n">
         <v>289</v>
       </c>
-      <c r="T695" t="n">
+      <c r="T699" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T704"/>
+  <dimension ref="A1:T707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48924,7 +48924,7 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N607" t="n">
         <v>220000</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N608" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O608" t="n">
         <v>200000</v>
       </c>
       <c r="P608" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T608" t="n">
         <v>450</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49087,13 +49087,13 @@
         <v>20</v>
       </c>
       <c r="N609" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O609" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P609" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T609" t="n">
         <v>450</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N610" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="O610" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="P610" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="T610" t="n">
         <v>450</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,7 +49235,7 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N611" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O611" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P611" t="n">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="T611" t="n">
         <v>450</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,7 +49315,7 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N612" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="O612" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="P612" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M613" t="n">
         <v>16</v>
       </c>
       <c r="N613" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O613" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P613" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T613" t="n">
         <v>450</v>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N614" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O614" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P614" t="n">
-        <v>162692</v>
+        <v>100000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="T614" t="n">
         <v>450</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -49564,16 +49564,16 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N615" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="O615" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="P615" t="n">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="T615" t="n">
         <v>450</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N616" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="O616" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P616" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="T616" t="n">
         <v>450</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N617" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O617" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P617" t="n">
-        <v>200000</v>
+        <v>162692</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N618" t="n">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="O618" t="n">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="P618" t="n">
-        <v>273636</v>
+        <v>140000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>608</v>
+        <v>311</v>
       </c>
       <c r="T618" t="n">
         <v>450</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N619" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="O619" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="P619" t="n">
-        <v>250000</v>
+        <v>110000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N620" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O620" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P620" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T620" t="n">
         <v>450</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N621" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O621" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P621" t="n">
-        <v>200000</v>
+        <v>273636</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N622" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="O622" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P622" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>378</v>
+        <v>556</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,7 +50195,7 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N623" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O623" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P623" t="n">
-        <v>157895</v>
+        <v>250000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,7 +50275,7 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N624" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O624" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P624" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N625" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="O625" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="P625" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50382,11 +50382,11 @@
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>556</v>
+        <v>378</v>
       </c>
       <c r="T625" t="n">
         <v>450</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,7 +50435,7 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N626" t="n">
-        <v>350000</v>
+        <v>150000</v>
       </c>
       <c r="O626" t="n">
-        <v>350000</v>
+        <v>170000</v>
       </c>
       <c r="P626" t="n">
-        <v>350000</v>
+        <v>157895</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50462,11 +50462,11 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>778</v>
+        <v>351</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N627" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O627" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P627" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N628" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O628" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P628" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N629" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="O629" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="P629" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>289</v>
+        <v>778</v>
       </c>
       <c r="T629" t="n">
         <v>450</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50767,13 +50767,13 @@
         <v>15</v>
       </c>
       <c r="N630" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O630" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P630" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50835,25 +50835,25 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N631" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O631" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P631" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50862,11 +50862,11 @@
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N632" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O632" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P632" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50942,11 +50942,11 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T632" t="n">
         <v>450</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,7 +50995,7 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N633" t="n">
         <v>140000</v>
       </c>
       <c r="O633" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P633" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,7 +51075,7 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
@@ -51084,7 +51084,7 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N634" t="n">
         <v>120000</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N635" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O635" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P635" t="n">
-        <v>155000</v>
+        <v>170000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N636" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O636" t="n">
         <v>160000</v>
       </c>
-      <c r="O636" t="n">
-        <v>180000</v>
-      </c>
       <c r="P636" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N637" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O637" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P637" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,7 +51395,7 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N638" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O638" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="P638" t="n">
-        <v>250000</v>
+        <v>155000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>556</v>
+        <v>344</v>
       </c>
       <c r="T638" t="n">
         <v>450</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N639" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O639" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P639" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N640" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O640" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P640" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51635,25 +51635,25 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N641" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O641" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P641" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51662,11 +51662,11 @@
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N642" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O642" t="n">
-        <v>210000</v>
+        <v>160000</v>
       </c>
       <c r="P642" t="n">
-        <v>204500</v>
+        <v>150000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N643" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O643" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P643" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51822,11 +51822,11 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N644" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O644" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P644" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N645" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O645" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P645" t="n">
-        <v>140000</v>
+        <v>204500</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>311</v>
+        <v>454</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52047,13 +52047,13 @@
         <v>20</v>
       </c>
       <c r="N646" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O646" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="P646" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52062,11 +52062,11 @@
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N647" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O647" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P647" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N648" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O648" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="P648" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M649" t="n">
         <v>20</v>
       </c>
       <c r="N649" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="O649" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="P649" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>578</v>
+        <v>267</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N650" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O650" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P650" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N651" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O651" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="P651" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N652" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="O652" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P652" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,24 +52600,24 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="N653" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O653" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P653" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
@@ -52626,10 +52626,10 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T653" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="654">
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
         <v>15</v>
       </c>
       <c r="N654" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O654" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P654" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N655" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O655" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P655" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52840,24 +52840,24 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N656" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="O656" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="P656" t="n">
-        <v>160000</v>
+        <v>11000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
@@ -52866,10 +52866,10 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>356</v>
+        <v>611</v>
       </c>
       <c r="T656" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52927,13 +52927,13 @@
         <v>15</v>
       </c>
       <c r="N657" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O657" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P657" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,7 +53004,7 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N658" t="n">
         <v>180000</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53087,13 +53087,13 @@
         <v>20</v>
       </c>
       <c r="N659" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O659" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P659" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M660" t="n">
         <v>15</v>
       </c>
       <c r="N660" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="O660" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="P660" t="n">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N661" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O661" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P661" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N662" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O662" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P662" t="n">
-        <v>185000</v>
+        <v>150000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -53404,16 +53404,16 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N663" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="O663" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P663" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N664" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O664" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P664" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N665" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O665" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P665" t="n">
-        <v>120000</v>
+        <v>185000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N666" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O666" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P666" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N667" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O667" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P667" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N668" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O668" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P668" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N669" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="O669" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="P669" t="n">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N670" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O670" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P670" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54035,16 +54035,16 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N671" t="n">
         <v>130000</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N672" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="O672" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="P672" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N673" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O673" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P673" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54284,7 +54284,7 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N674" t="n">
         <v>130000</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N675" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O675" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="P675" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>356</v>
+        <v>511</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,11 +54440,11 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N676" t="n">
         <v>180000</v>
@@ -54462,7 +54462,7 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N677" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O677" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P677" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N678" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O678" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P678" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N679" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O679" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P679" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54755,25 +54755,25 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
         <v>12</v>
       </c>
       <c r="N680" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O680" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P680" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54835,25 +54835,25 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M681" t="n">
         <v>10</v>
       </c>
       <c r="N681" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O681" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P681" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,7 +54915,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -54924,16 +54924,16 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N682" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O682" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P682" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54942,11 +54942,11 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N683" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O683" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P683" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55022,11 +55022,11 @@
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N684" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="O684" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P684" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55155,7 +55155,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N685" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O685" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P685" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N686" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O686" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P686" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N687" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O687" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="P687" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N688" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O688" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P688" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55475,7 +55475,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
@@ -55484,16 +55484,16 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N689" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O689" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P689" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55555,25 +55555,25 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N690" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O690" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="P690" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55582,11 +55582,11 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="T690" t="n">
         <v>450</v>
@@ -55635,7 +55635,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
@@ -55644,16 +55644,16 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N691" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O691" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P691" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55662,11 +55662,11 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T691" t="n">
         <v>450</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N692" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O692" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P692" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55742,11 +55742,11 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T692" t="n">
         <v>450</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M693" t="n">
         <v>20</v>
       </c>
       <c r="N693" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O693" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P693" t="n">
-        <v>175000</v>
+        <v>220000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N694" t="n">
-        <v>145000</v>
+        <v>170000</v>
       </c>
       <c r="O694" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P694" t="n">
-        <v>147500</v>
+        <v>170000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55902,11 +55902,11 @@
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="T694" t="n">
         <v>450</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,7 +55955,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N695" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O695" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P695" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T695" t="n">
         <v>450</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N696" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="O696" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P696" t="n">
-        <v>260000</v>
+        <v>175000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>578</v>
+        <v>389</v>
       </c>
       <c r="T696" t="n">
         <v>450</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N697" t="n">
-        <v>200000</v>
+        <v>145000</v>
       </c>
       <c r="O697" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P697" t="n">
-        <v>200000</v>
+        <v>147500</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>444</v>
+        <v>328</v>
       </c>
       <c r="T697" t="n">
         <v>450</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N698" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O698" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P698" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T698" t="n">
         <v>450</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,7 +56275,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -56284,16 +56284,16 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N699" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O699" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P699" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T699" t="n">
         <v>450</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N700" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O700" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P700" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="T700" t="n">
         <v>450</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N701" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O701" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P701" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="T701" t="n">
         <v>450</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N702" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O702" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P702" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T702" t="n">
         <v>450</v>
@@ -56595,7 +56595,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -56604,16 +56604,16 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N703" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O703" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P703" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="T703" t="n">
         <v>450</v>
@@ -56675,40 +56675,280 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M704" t="n">
+        <v>18</v>
+      </c>
+      <c r="N704" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O704" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P704" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q704" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R704" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S704" t="n">
+        <v>178</v>
+      </c>
+      <c r="T704" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>6</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D705" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E705" t="n">
+        <v>13</v>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G705" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I705" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L704" t="inlineStr">
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M705" t="n">
+        <v>20</v>
+      </c>
+      <c r="N705" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O705" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P705" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q705" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R705" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S705" t="n">
+        <v>378</v>
+      </c>
+      <c r="T705" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>6</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D706" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E706" t="n">
+        <v>13</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G706" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I706" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M706" t="n">
+        <v>27</v>
+      </c>
+      <c r="N706" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O706" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P706" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q706" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R706" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S706" t="n">
+        <v>333</v>
+      </c>
+      <c r="T706" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>6</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D707" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E707" t="n">
+        <v>13</v>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G707" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I707" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L707" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M704" t="n">
+      <c r="M707" t="n">
         <v>25</v>
       </c>
-      <c r="N704" t="n">
+      <c r="N707" t="n">
         <v>130000</v>
       </c>
-      <c r="O704" t="n">
+      <c r="O707" t="n">
         <v>130000</v>
       </c>
-      <c r="P704" t="n">
+      <c r="P707" t="n">
         <v>130000</v>
       </c>
-      <c r="Q704" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R704" t="inlineStr">
+      <c r="Q707" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R707" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S704" t="n">
+      <c r="S707" t="n">
         <v>289</v>
       </c>
-      <c r="T704" t="n">
+      <c r="T707" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T710"/>
+  <dimension ref="A1:T714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N587" t="n">
         <v>220000</v>
       </c>
       <c r="O587" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P587" t="n">
-        <v>231071</v>
+        <v>220000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="T587" t="n">
         <v>450</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="N588" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O588" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P588" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T588" t="n">
         <v>450</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N589" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O589" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P589" t="n">
-        <v>200000</v>
+        <v>173529</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="T589" t="n">
         <v>450</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N590" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O590" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P590" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T590" t="n">
         <v>450</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N591" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="O591" t="n">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="P591" t="n">
-        <v>110000</v>
+        <v>231071</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>244</v>
+        <v>513</v>
       </c>
       <c r="T591" t="n">
         <v>450</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N592" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="O592" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="P592" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T592" t="n">
         <v>450</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N593" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O593" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P593" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T593" t="n">
         <v>450</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N594" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O594" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P594" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T594" t="n">
         <v>450</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N595" t="n">
-        <v>230000</v>
+        <v>100000</v>
       </c>
       <c r="O595" t="n">
-        <v>230000</v>
+        <v>120000</v>
       </c>
       <c r="P595" t="n">
-        <v>230000</v>
+        <v>110000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>511</v>
+        <v>244</v>
       </c>
       <c r="T595" t="n">
         <v>450</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
         <v>14</v>
       </c>
       <c r="N596" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O596" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P596" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T596" t="n">
         <v>450</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N597" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O597" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P597" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T597" t="n">
         <v>450</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N598" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O598" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P598" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T598" t="n">
         <v>450</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="N599" t="n">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="O599" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P599" t="n">
-        <v>174118</v>
+        <v>230000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>387</v>
+        <v>511</v>
       </c>
       <c r="T599" t="n">
         <v>450</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N600" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O600" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="P600" t="n">
-        <v>131111</v>
+        <v>170000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>291</v>
+        <v>378</v>
       </c>
       <c r="T600" t="n">
         <v>450</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N601" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O601" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P601" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48462,11 +48462,11 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T601" t="n">
         <v>450</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N602" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O602" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P602" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T602" t="n">
         <v>450</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N603" t="n">
         <v>160000</v>
       </c>
       <c r="O603" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P603" t="n">
-        <v>160000</v>
+        <v>174118</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48622,11 +48622,11 @@
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="T603" t="n">
         <v>450</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N604" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O604" t="n">
         <v>140000</v>
       </c>
       <c r="P604" t="n">
-        <v>140000</v>
+        <v>131111</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="T604" t="n">
         <v>450</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N605" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O605" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P605" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T605" t="n">
         <v>450</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N606" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O606" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P606" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="T606" t="n">
         <v>450</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,16 +48924,16 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N607" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O607" t="n">
         <v>160000</v>
       </c>
       <c r="P607" t="n">
-        <v>155000</v>
+        <v>160000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="T607" t="n">
         <v>450</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N608" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O608" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P608" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T608" t="n">
         <v>450</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N609" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O609" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P609" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49102,11 +49102,11 @@
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T609" t="n">
         <v>450</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N610" t="n">
         <v>120000</v>
       </c>
       <c r="O610" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P610" t="n">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="T610" t="n">
         <v>450</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N611" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O611" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P611" t="n">
-        <v>170000</v>
+        <v>155000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="T611" t="n">
         <v>450</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N612" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O612" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P612" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T612" t="n">
         <v>450</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N613" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O613" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P613" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T613" t="n">
         <v>450</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N614" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O614" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P614" t="n">
-        <v>175000</v>
+        <v>125000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="T614" t="n">
         <v>450</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N615" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O615" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P615" t="n">
-        <v>148889</v>
+        <v>170000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="T615" t="n">
         <v>450</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N616" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="O616" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P616" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="T616" t="n">
         <v>450</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N617" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O617" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P617" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T617" t="n">
         <v>450</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N618" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O618" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P618" t="n">
-        <v>160000</v>
+        <v>175000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="T618" t="n">
         <v>450</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N619" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O619" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P619" t="n">
-        <v>160000</v>
+        <v>148889</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="T619" t="n">
         <v>450</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N620" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="O620" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="P620" t="n">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="T620" t="n">
         <v>450</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N621" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O621" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P621" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T621" t="n">
         <v>450</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N622" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O622" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P622" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N623" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O623" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P623" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T623" t="n">
         <v>450</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,7 +50275,7 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N624" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O624" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P624" t="n">
-        <v>125000</v>
+        <v>140000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,16 +50355,16 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N625" t="n">
         <v>120000</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N626" t="n">
         <v>130000</v>
       </c>
       <c r="O626" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P626" t="n">
-        <v>135000</v>
+        <v>130000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
         <v>18</v>
       </c>
       <c r="N627" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O627" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P627" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,7 +50595,7 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N628" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O628" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P628" t="n">
-        <v>170000</v>
+        <v>125000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N629" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O629" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P629" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T629" t="n">
         <v>450</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N630" t="n">
-        <v>300000</v>
+        <v>130000</v>
       </c>
       <c r="O630" t="n">
-        <v>300000</v>
+        <v>140000</v>
       </c>
       <c r="P630" t="n">
-        <v>300000</v>
+        <v>135000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="T630" t="n">
         <v>450</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,25 +50835,25 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N631" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="O631" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P631" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>578</v>
+        <v>400</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N632" t="n">
-        <v>330000</v>
+        <v>170000</v>
       </c>
       <c r="O632" t="n">
-        <v>330000</v>
+        <v>170000</v>
       </c>
       <c r="P632" t="n">
-        <v>330000</v>
+        <v>170000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>733</v>
+        <v>378</v>
       </c>
       <c r="T632" t="n">
         <v>450</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N633" t="n">
-        <v>280000</v>
+        <v>150000</v>
       </c>
       <c r="O633" t="n">
-        <v>280000</v>
+        <v>150000</v>
       </c>
       <c r="P633" t="n">
-        <v>280000</v>
+        <v>150000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>622</v>
+        <v>333</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N634" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="O634" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="P634" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>356</v>
+        <v>667</v>
       </c>
       <c r="T634" t="n">
         <v>450</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N635" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="O635" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="P635" t="n">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N636" t="n">
-        <v>100000</v>
+        <v>330000</v>
       </c>
       <c r="O636" t="n">
-        <v>100000</v>
+        <v>330000</v>
       </c>
       <c r="P636" t="n">
-        <v>100000</v>
+        <v>330000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>222</v>
+        <v>733</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N637" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="O637" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P637" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>378</v>
+        <v>622</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N638" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O638" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P638" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T638" t="n">
         <v>450</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N639" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O639" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P639" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N640" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="O640" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="P640" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N641" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O641" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P641" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51662,11 +51662,11 @@
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N642" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O642" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P642" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N643" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O643" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P643" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51822,11 +51822,11 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O644" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P644" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="N645" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O645" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P645" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N646" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O646" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P646" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N647" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O647" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P647" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52142,11 +52142,11 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N648" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O648" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P648" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N649" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O649" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P649" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N650" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O650" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P650" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N651" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O651" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P651" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N652" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O652" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P652" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N653" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O653" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P653" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N654" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O654" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P654" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52702,11 +52702,11 @@
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N655" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="O655" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="P655" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52782,11 +52782,11 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N656" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O656" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P656" t="n">
-        <v>151000</v>
+        <v>170000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N657" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O657" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P657" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M658" t="n">
         <v>10</v>
       </c>
       <c r="N658" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O658" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P658" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N659" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O659" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P659" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53155,7 +53155,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N660" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O660" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P660" t="n">
-        <v>150000</v>
+        <v>151000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53244,7 +53244,7 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N661" t="n">
         <v>130000</v>
@@ -53262,7 +53262,7 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N662" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O662" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P662" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N663" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O663" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P663" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53422,11 +53422,11 @@
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53487,13 +53487,13 @@
         <v>16</v>
       </c>
       <c r="N664" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O664" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P664" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N665" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="O665" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="P665" t="n">
-        <v>230000</v>
+        <v>130000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N666" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O666" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P666" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N667" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O667" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P667" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44250</v>
+        <v>44425</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,7 +53804,7 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N668" t="n">
         <v>180000</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N669" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="O669" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P669" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N670" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O670" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P670" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N671" t="n">
         <v>180000</v>
       </c>
       <c r="O671" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P671" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N672" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O672" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P672" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N673" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O673" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P673" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54222,11 +54222,11 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>511</v>
+        <v>333</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N674" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O674" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P674" t="n">
-        <v>204500</v>
+        <v>220000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N675" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O675" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P675" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N676" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O676" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P676" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N677" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="O677" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="P677" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>222</v>
+        <v>511</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N678" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O678" t="n">
-        <v>80000</v>
+        <v>210000</v>
       </c>
       <c r="P678" t="n">
-        <v>80000</v>
+        <v>204500</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54622,11 +54622,11 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N679" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O679" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P679" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54702,11 +54702,11 @@
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54755,7 +54755,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N680" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O680" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P680" t="n">
-        <v>162692</v>
+        <v>130000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54835,25 +54835,25 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N681" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="O681" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="P681" t="n">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N682" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="O682" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="P682" t="n">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N683" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O683" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P683" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N684" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O684" t="n">
         <v>170000</v>
       </c>
-      <c r="O684" t="n">
-        <v>180000</v>
-      </c>
       <c r="P684" t="n">
-        <v>175000</v>
+        <v>162692</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55102,11 +55102,11 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N685" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O685" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P685" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N686" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="O686" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="P686" t="n">
-        <v>155000</v>
+        <v>110000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,25 +55315,25 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="N687" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O687" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P687" t="n">
-        <v>125000</v>
+        <v>200000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55395,7 +55395,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
@@ -55404,16 +55404,16 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N688" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O688" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P688" t="n">
-        <v>200000</v>
+        <v>175000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55475,7 +55475,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
@@ -55487,13 +55487,13 @@
         <v>12</v>
       </c>
       <c r="N689" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O689" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P689" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55555,7 +55555,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N690" t="n">
         <v>150000</v>
       </c>
       <c r="O690" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P690" t="n">
-        <v>160000</v>
+        <v>155000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="T690" t="n">
         <v>450</v>
@@ -55635,7 +55635,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
@@ -55644,16 +55644,16 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N691" t="n">
         <v>120000</v>
       </c>
       <c r="O691" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P691" t="n">
-        <v>130000</v>
+        <v>125000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="T691" t="n">
         <v>450</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,25 +55715,25 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N692" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O692" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P692" t="n">
-        <v>175000</v>
+        <v>200000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55742,11 +55742,11 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T692" t="n">
         <v>450</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N693" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="O693" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="P693" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>311</v>
+        <v>489</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,7 +55875,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -55884,16 +55884,16 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N694" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O694" t="n">
         <v>170000</v>
       </c>
-      <c r="O694" t="n">
-        <v>180000</v>
-      </c>
       <c r="P694" t="n">
-        <v>175000</v>
+        <v>160000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="T694" t="n">
         <v>450</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,25 +55955,25 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M695" t="n">
         <v>12</v>
       </c>
       <c r="N695" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O695" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P695" t="n">
-        <v>155000</v>
+        <v>130000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="T695" t="n">
         <v>450</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N696" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O696" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P696" t="n">
-        <v>200000</v>
+        <v>175000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T696" t="n">
         <v>450</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N697" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O697" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P697" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T697" t="n">
         <v>450</v>
@@ -56195,25 +56195,25 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N698" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O698" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P698" t="n">
-        <v>130000</v>
+        <v>175000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="T698" t="n">
         <v>450</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,7 +56275,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -56284,16 +56284,16 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N699" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="O699" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P699" t="n">
-        <v>110000</v>
+        <v>155000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="T699" t="n">
         <v>450</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M700" t="n">
         <v>15</v>
       </c>
       <c r="N700" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="O700" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="P700" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="T700" t="n">
         <v>450</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56444,17 +56444,17 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N701" t="n">
         <v>160000</v>
       </c>
       <c r="O701" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P701" t="n">
         <v>170000</v>
       </c>
-      <c r="P701" t="n">
-        <v>166923</v>
-      </c>
       <c r="Q701" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="T701" t="n">
         <v>450</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56524,7 +56524,7 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N702" t="n">
         <v>130000</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,25 +56595,25 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M703" t="n">
         <v>16</v>
       </c>
       <c r="N703" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="O703" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P703" t="n">
-        <v>200000</v>
+        <v>110000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56622,11 +56622,11 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>444</v>
+        <v>244</v>
       </c>
       <c r="T703" t="n">
         <v>450</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N704" t="n">
-        <v>220000</v>
+        <v>80000</v>
       </c>
       <c r="O704" t="n">
-        <v>220000</v>
+        <v>80000</v>
       </c>
       <c r="P704" t="n">
-        <v>220000</v>
+        <v>80000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>489</v>
+        <v>178</v>
       </c>
       <c r="T704" t="n">
         <v>450</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56764,16 +56764,16 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N705" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O705" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P705" t="n">
-        <v>180000</v>
+        <v>166923</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56782,11 +56782,11 @@
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="T705" t="n">
         <v>450</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N706" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O706" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P706" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T706" t="n">
         <v>450</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N707" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O707" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P707" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T707" t="n">
         <v>450</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N708" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="O708" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P708" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="T708" t="n">
         <v>450</v>
@@ -57075,7 +57075,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -57084,7 +57084,7 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N709" t="n">
         <v>180000</v>
@@ -57155,40 +57155,360 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M710" t="n">
+        <v>24</v>
+      </c>
+      <c r="N710" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O710" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P710" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q710" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R710" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S710" t="n">
+        <v>444</v>
+      </c>
+      <c r="T710" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>6</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D711" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E711" t="n">
+        <v>13</v>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G711" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I711" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M711" t="n">
+        <v>12</v>
+      </c>
+      <c r="N711" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O711" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P711" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q711" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R711" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S711" t="n">
+        <v>356</v>
+      </c>
+      <c r="T711" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>6</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D712" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E712" t="n">
+        <v>13</v>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G712" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I712" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M712" t="n">
+        <v>14</v>
+      </c>
+      <c r="N712" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O712" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P712" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q712" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R712" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S712" t="n">
+        <v>333</v>
+      </c>
+      <c r="T712" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>6</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D713" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E713" t="n">
+        <v>13</v>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G713" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I713" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
           <t>Winter Nelis</t>
         </is>
       </c>
-      <c r="L710" t="inlineStr">
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M713" t="n">
+        <v>14</v>
+      </c>
+      <c r="N713" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O713" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P713" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q713" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R713" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S713" t="n">
+        <v>400</v>
+      </c>
+      <c r="T713" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>6</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D714" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E714" t="n">
+        <v>13</v>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G714" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I714" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>Winter Nelis</t>
+        </is>
+      </c>
+      <c r="L714" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M710" t="n">
+      <c r="M714" t="n">
         <v>10</v>
       </c>
-      <c r="N710" t="n">
+      <c r="N714" t="n">
         <v>160000</v>
       </c>
-      <c r="O710" t="n">
+      <c r="O714" t="n">
         <v>160000</v>
       </c>
-      <c r="P710" t="n">
+      <c r="P714" t="n">
         <v>160000</v>
       </c>
-      <c r="Q710" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R710" t="inlineStr">
+      <c r="Q714" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R714" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S710" t="n">
+      <c r="S714" t="n">
         <v>356</v>
       </c>
-      <c r="T710" t="n">
+      <c r="T714" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T753"/>
+  <dimension ref="A1:T758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N657" t="n">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="O657" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P657" t="n">
-        <v>175000</v>
+        <v>240000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="N658" t="n">
-        <v>140000</v>
+        <v>230000</v>
       </c>
       <c r="O658" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P658" t="n">
-        <v>148889</v>
+        <v>230000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>331</v>
+        <v>511</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N659" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O659" t="n">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="P659" t="n">
-        <v>110000</v>
+        <v>210000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>244</v>
+        <v>467</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,7 +53155,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N660" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="O660" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P660" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53244,16 +53244,16 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N661" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O661" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P661" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N662" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O662" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P662" t="n">
-        <v>160000</v>
+        <v>175000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N663" t="n">
         <v>140000</v>
       </c>
       <c r="O663" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P663" t="n">
-        <v>140000</v>
+        <v>148889</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N664" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="O664" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P664" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N665" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O665" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P665" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N666" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O666" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P666" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M667" t="n">
         <v>20</v>
       </c>
       <c r="N667" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="O667" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P667" t="n">
-        <v>125000</v>
+        <v>160000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N668" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O668" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P668" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N669" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O669" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="P669" t="n">
-        <v>135000</v>
+        <v>120000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N670" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O670" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P670" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N671" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O671" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="P671" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N672" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="O672" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="P672" t="n">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N673" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="O673" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="P673" t="n">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>667</v>
+        <v>267</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N674" t="n">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="O674" t="n">
-        <v>260000</v>
+        <v>140000</v>
       </c>
       <c r="P674" t="n">
-        <v>260000</v>
+        <v>135000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>578</v>
+        <v>300</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N675" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="O675" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="P675" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54444,16 +54444,16 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N676" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="O676" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="P676" t="n">
-        <v>280000</v>
+        <v>170000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>622</v>
+        <v>378</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N677" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O677" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P677" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N678" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="O678" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="P678" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>289</v>
+        <v>667</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N679" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="O679" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="P679" t="n">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>222</v>
+        <v>578</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N680" t="n">
-        <v>170000</v>
+        <v>330000</v>
       </c>
       <c r="O680" t="n">
-        <v>170000</v>
+        <v>330000</v>
       </c>
       <c r="P680" t="n">
-        <v>170000</v>
+        <v>330000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>378</v>
+        <v>733</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
         <v>18</v>
       </c>
       <c r="N681" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="O681" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="P681" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>333</v>
+        <v>622</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54915,7 +54915,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -54924,16 +54924,16 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N682" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O682" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P682" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N683" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O683" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P683" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M684" t="n">
         <v>10</v>
       </c>
       <c r="N684" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O684" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P684" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55102,11 +55102,11 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N685" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O685" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P685" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N686" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O686" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P686" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,7 +55315,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N687" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O687" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P687" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N688" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O688" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P688" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N689" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O689" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P689" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N690" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O690" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P690" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T690" t="n">
         <v>450</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N691" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O691" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P691" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55662,11 +55662,11 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T691" t="n">
         <v>450</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N692" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O692" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P692" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55742,11 +55742,11 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T692" t="n">
         <v>450</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55804,16 +55804,16 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N693" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O693" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P693" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44314</v>
+        <v>44397</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55884,16 +55884,16 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N694" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O694" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P694" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T694" t="n">
         <v>450</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55982,7 +55982,7 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56040,20 +56040,20 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N696" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O696" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P696" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T696" t="n">
         <v>450</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N697" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="O697" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="P697" t="n">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56142,11 +56142,11 @@
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="T697" t="n">
         <v>450</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N698" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O698" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P698" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T698" t="n">
         <v>450</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N699" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O699" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P699" t="n">
-        <v>151000</v>
+        <v>130000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="T699" t="n">
         <v>450</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N700" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O700" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P700" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56382,11 +56382,11 @@
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T700" t="n">
         <v>450</v>
@@ -56435,7 +56435,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
@@ -56444,7 +56444,7 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N701" t="n">
         <v>180000</v>
@@ -56462,7 +56462,7 @@
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S701" t="n">
@@ -56515,25 +56515,25 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N702" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O702" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P702" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T702" t="n">
         <v>450</v>
@@ -56595,7 +56595,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -56622,7 +56622,7 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S703" t="n">
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N704" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O704" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P704" t="n">
-        <v>130000</v>
+        <v>151000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="T704" t="n">
         <v>450</v>
@@ -56755,7 +56755,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
@@ -56764,7 +56764,7 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N705" t="n">
         <v>130000</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,7 +56835,7 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
@@ -56844,16 +56844,16 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N706" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O706" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P706" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56862,11 +56862,11 @@
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T706" t="n">
         <v>450</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,7 +56915,7 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
@@ -56924,16 +56924,16 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N707" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O707" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P707" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56942,11 +56942,11 @@
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T707" t="n">
         <v>450</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -56995,25 +56995,25 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N708" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O708" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P708" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>511</v>
+        <v>333</v>
       </c>
       <c r="T708" t="n">
         <v>450</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N709" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O709" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P709" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57102,11 +57102,11 @@
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T709" t="n">
         <v>450</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,7 +57155,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
@@ -57164,16 +57164,16 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N710" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O710" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P710" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T710" t="n">
         <v>450</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44250</v>
+        <v>44425</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,25 +57235,25 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N711" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O711" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P711" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T711" t="n">
         <v>450</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44250</v>
+        <v>44425</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,25 +57315,25 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N712" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O712" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P712" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T712" t="n">
         <v>450</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57407,13 +57407,13 @@
         <v>15</v>
       </c>
       <c r="N713" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O713" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P713" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T713" t="n">
         <v>450</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57484,16 +57484,16 @@
         </is>
       </c>
       <c r="M714" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N714" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O714" t="n">
         <v>200000</v>
       </c>
       <c r="P714" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T714" t="n">
         <v>450</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57564,16 +57564,16 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N715" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O715" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P715" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T715" t="n">
         <v>450</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N716" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="O716" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P716" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57662,11 +57662,11 @@
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="T716" t="n">
         <v>450</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57715,25 +57715,25 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N717" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O717" t="n">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="P717" t="n">
-        <v>204500</v>
+        <v>150000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57742,11 +57742,11 @@
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="T717" t="n">
         <v>450</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N718" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O718" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P718" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57822,11 +57822,11 @@
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="T718" t="n">
         <v>450</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,7 +57875,7 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
@@ -57884,16 +57884,16 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N719" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O719" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P719" t="n">
-        <v>130000</v>
+        <v>190000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>289</v>
+        <v>422</v>
       </c>
       <c r="T719" t="n">
         <v>450</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,25 +57955,25 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N720" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O720" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P720" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T720" t="n">
         <v>450</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,25 +58035,25 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N721" t="n">
-        <v>80000</v>
+        <v>230000</v>
       </c>
       <c r="O721" t="n">
-        <v>80000</v>
+        <v>230000</v>
       </c>
       <c r="P721" t="n">
-        <v>80000</v>
+        <v>230000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58062,11 +58062,11 @@
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>178</v>
+        <v>511</v>
       </c>
       <c r="T721" t="n">
         <v>450</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N722" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O722" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P722" t="n">
-        <v>180000</v>
+        <v>204500</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58142,11 +58142,11 @@
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="T722" t="n">
         <v>450</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N723" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O723" t="n">
         <v>170000</v>
       </c>
       <c r="P723" t="n">
-        <v>162692</v>
+        <v>170000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58222,11 +58222,11 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="T723" t="n">
         <v>450</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N724" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O724" t="n">
         <v>140000</v>
       </c>
       <c r="P724" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T724" t="n">
         <v>450</v>
@@ -58355,25 +58355,25 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N725" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="O725" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P725" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="T725" t="n">
         <v>450</v>
@@ -58435,25 +58435,25 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M726" t="n">
         <v>8</v>
       </c>
       <c r="N726" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="O726" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="P726" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="T726" t="n">
         <v>450</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58527,13 +58527,13 @@
         <v>16</v>
       </c>
       <c r="N727" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O727" t="n">
         <v>180000</v>
       </c>
       <c r="P727" t="n">
-        <v>175000</v>
+        <v>180000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="T727" t="n">
         <v>450</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N728" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O728" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P728" t="n">
-        <v>200000</v>
+        <v>162692</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="T728" t="n">
         <v>450</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N729" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O729" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P729" t="n">
-        <v>155000</v>
+        <v>140000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58702,11 +58702,11 @@
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="T729" t="n">
         <v>450</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N730" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="O730" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P730" t="n">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58782,11 +58782,11 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="T730" t="n">
         <v>450</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58844,7 +58844,7 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N731" t="n">
         <v>200000</v>
@@ -58862,7 +58862,7 @@
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S731" t="n">
@@ -58915,25 +58915,25 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N732" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="O732" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P732" t="n">
-        <v>220000</v>
+        <v>175000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>489</v>
+        <v>389</v>
       </c>
       <c r="T732" t="n">
         <v>450</v>
@@ -58995,25 +58995,25 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N733" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O733" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P733" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T733" t="n">
         <v>450</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N734" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O734" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P734" t="n">
-        <v>130000</v>
+        <v>155000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="T734" t="n">
         <v>450</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N735" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O735" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P735" t="n">
-        <v>175000</v>
+        <v>125000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="T735" t="n">
         <v>450</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N736" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O736" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P736" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59262,11 +59262,11 @@
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>311</v>
+        <v>444</v>
       </c>
       <c r="T736" t="n">
         <v>450</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N737" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O737" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P737" t="n">
-        <v>175000</v>
+        <v>220000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="T737" t="n">
         <v>450</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,7 +59395,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -59404,17 +59404,17 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N738" t="n">
         <v>150000</v>
       </c>
       <c r="O738" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P738" t="n">
         <v>160000</v>
       </c>
-      <c r="P738" t="n">
-        <v>155000</v>
-      </c>
       <c r="Q738" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="T738" t="n">
         <v>450</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,25 +59475,25 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N739" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O739" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P739" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59502,11 +59502,11 @@
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T739" t="n">
         <v>450</v>
@@ -59555,7 +59555,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -59567,13 +59567,13 @@
         <v>30</v>
       </c>
       <c r="N740" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O740" t="n">
         <v>180000</v>
       </c>
       <c r="P740" t="n">
-        <v>170000</v>
+        <v>175000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="T740" t="n">
         <v>450</v>
@@ -59635,7 +59635,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -59644,16 +59644,16 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N741" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O741" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P741" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T741" t="n">
         <v>450</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59724,16 +59724,16 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N742" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="O742" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P742" t="n">
-        <v>110000</v>
+        <v>175000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59742,11 +59742,11 @@
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="T742" t="n">
         <v>450</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N743" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="O743" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="P743" t="n">
-        <v>80000</v>
+        <v>155000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="T743" t="n">
         <v>450</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N744" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O744" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P744" t="n">
-        <v>166923</v>
+        <v>200000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="T744" t="n">
         <v>450</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N745" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O745" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P745" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T745" t="n">
         <v>450</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N746" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O746" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P746" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T746" t="n">
         <v>450</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N747" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="O747" t="n">
-        <v>220000</v>
+        <v>120000</v>
       </c>
       <c r="P747" t="n">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>489</v>
+        <v>244</v>
       </c>
       <c r="T747" t="n">
         <v>450</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,25 +60195,25 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N748" t="n">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="O748" t="n">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="P748" t="n">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="T748" t="n">
         <v>450</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N749" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O749" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P749" t="n">
-        <v>200000</v>
+        <v>166923</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="T749" t="n">
         <v>450</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60364,16 +60364,16 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N750" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O750" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P750" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T750" t="n">
         <v>450</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N751" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O751" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P751" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60462,11 +60462,11 @@
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T751" t="n">
         <v>450</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N752" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O752" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P752" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T752" t="n">
         <v>450</v>
@@ -60595,40 +60595,440 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M753" t="n">
+        <v>20</v>
+      </c>
+      <c r="N753" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O753" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P753" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q753" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R753" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S753" t="n">
+        <v>400</v>
+      </c>
+      <c r="T753" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>6</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D754" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E754" t="n">
+        <v>13</v>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G754" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I754" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J754" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M754" t="n">
+        <v>24</v>
+      </c>
+      <c r="N754" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O754" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P754" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q754" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R754" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S754" t="n">
+        <v>444</v>
+      </c>
+      <c r="T754" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>6</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D755" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E755" t="n">
+        <v>13</v>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G755" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I755" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J755" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M755" t="n">
+        <v>12</v>
+      </c>
+      <c r="N755" t="n">
+        <v>160000</v>
+      </c>
+      <c r="O755" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P755" t="n">
+        <v>160000</v>
+      </c>
+      <c r="Q755" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S755" t="n">
+        <v>356</v>
+      </c>
+      <c r="T755" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>6</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D756" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E756" t="n">
+        <v>13</v>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G756" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I756" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M756" t="n">
+        <v>14</v>
+      </c>
+      <c r="N756" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O756" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P756" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q756" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S756" t="n">
+        <v>333</v>
+      </c>
+      <c r="T756" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>6</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D757" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E757" t="n">
+        <v>13</v>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G757" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I757" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J757" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
           <t>Winter Nelis</t>
         </is>
       </c>
-      <c r="L753" t="inlineStr">
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M757" t="n">
+        <v>14</v>
+      </c>
+      <c r="N757" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O757" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P757" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q757" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S757" t="n">
+        <v>400</v>
+      </c>
+      <c r="T757" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>6</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D758" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E758" t="n">
+        <v>13</v>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G758" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I758" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>Winter Nelis</t>
+        </is>
+      </c>
+      <c r="L758" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M753" t="n">
+      <c r="M758" t="n">
         <v>10</v>
       </c>
-      <c r="N753" t="n">
+      <c r="N758" t="n">
         <v>160000</v>
       </c>
-      <c r="O753" t="n">
+      <c r="O758" t="n">
         <v>160000</v>
       </c>
-      <c r="P753" t="n">
+      <c r="P758" t="n">
         <v>160000</v>
       </c>
-      <c r="Q753" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R753" t="inlineStr">
+      <c r="Q758" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R758" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S753" t="n">
+      <c r="S758" t="n">
         <v>356</v>
       </c>
-      <c r="T753" t="n">
+      <c r="T758" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T781"/>
+  <dimension ref="A1:T783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N648" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O648" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P648" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N649" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="O649" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P649" t="n">
-        <v>195000</v>
+        <v>180000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N650" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O650" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P650" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N651" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O651" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P651" t="n">
-        <v>160000</v>
+        <v>195000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N652" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O652" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P652" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N653" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O653" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P653" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N654" t="n">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="O654" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P654" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N655" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O655" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P655" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52835,25 +52835,25 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N656" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="O656" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="P656" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N657" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O657" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P657" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N658" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="O658" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P658" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,16 +53075,16 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N659" t="n">
         <v>170000</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N660" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="O660" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="P660" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N661" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="O661" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="P661" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>222</v>
+        <v>378</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N662" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="O662" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="P662" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>511</v>
+        <v>311</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="N663" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O663" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P663" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N664" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="O664" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="P664" t="n">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="N665" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O665" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P665" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N666" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O666" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P666" t="n">
-        <v>207143</v>
+        <v>150000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N667" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O667" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P667" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="N668" t="n">
         <v>200000</v>
       </c>
       <c r="O668" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P668" t="n">
-        <v>200000</v>
+        <v>207143</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53875,7 +53875,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -53884,16 +53884,16 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="N669" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O669" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P669" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,16 +53955,16 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N670" t="n">
         <v>200000</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,16 +54035,16 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N671" t="n">
         <v>180000</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N672" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O672" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P672" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N673" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O673" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P673" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N674" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O674" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P674" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N675" t="n">
         <v>150000</v>
       </c>
       <c r="O675" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P675" t="n">
-        <v>155000</v>
+        <v>150000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54444,7 +54444,7 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N676" t="n">
         <v>130000</v>
@@ -54462,7 +54462,7 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N677" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O677" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P677" t="n">
-        <v>130000</v>
+        <v>155000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N678" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O678" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P678" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,7 +54675,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N679" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O679" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P679" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54702,11 +54702,11 @@
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N680" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O680" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P680" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54782,11 +54782,11 @@
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N681" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O681" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P681" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54862,11 +54862,11 @@
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,11 +54920,11 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N682" t="n">
         <v>170000</v>
@@ -54942,7 +54942,7 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S682" t="n">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N683" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O683" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P683" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N684" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O684" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P684" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N685" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O685" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P685" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N686" t="n">
-        <v>140000</v>
+        <v>190000</v>
       </c>
       <c r="O686" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P686" t="n">
-        <v>151000</v>
+        <v>190000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N687" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O687" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P687" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N688" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O688" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P688" t="n">
-        <v>180000</v>
+        <v>151000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N689" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O689" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="P689" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N690" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O690" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P690" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55582,11 +55582,11 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T690" t="n">
         <v>450</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N691" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O691" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P691" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T691" t="n">
         <v>450</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N692" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O692" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P692" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T692" t="n">
         <v>450</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,22 +55795,22 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N693" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O693" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P693" t="n">
         <v>130000</v>
@@ -55822,7 +55822,7 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S693" t="n">
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N694" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O694" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="P694" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="T694" t="n">
         <v>450</v>
@@ -55955,25 +55955,25 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N695" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="O695" t="n">
-        <v>80000</v>
+        <v>140000</v>
       </c>
       <c r="P695" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="T695" t="n">
         <v>450</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N696" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O696" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P696" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T696" t="n">
         <v>450</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N697" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="O697" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="P697" t="n">
-        <v>162692</v>
+        <v>80000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>362</v>
+        <v>178</v>
       </c>
       <c r="T697" t="n">
         <v>450</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N698" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O698" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P698" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T698" t="n">
         <v>450</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N699" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="O699" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="P699" t="n">
-        <v>110000</v>
+        <v>162692</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="T699" t="n">
         <v>450</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N700" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O700" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P700" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T700" t="n">
         <v>450</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N701" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="O701" t="n">
-        <v>200000</v>
+        <v>110000</v>
       </c>
       <c r="P701" t="n">
-        <v>195000</v>
+        <v>110000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>433</v>
+        <v>244</v>
       </c>
       <c r="T701" t="n">
         <v>450</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56515,25 +56515,25 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N702" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O702" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P702" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T702" t="n">
         <v>450</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56600,24 +56600,24 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="N703" t="n">
-        <v>10000</v>
+        <v>190000</v>
       </c>
       <c r="O703" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P703" t="n">
-        <v>10000</v>
+        <v>195000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
@@ -56626,10 +56626,10 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>556</v>
+        <v>433</v>
       </c>
       <c r="T703" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N704" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O704" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P704" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T704" t="n">
         <v>450</v>
@@ -56760,36 +56760,36 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M705" t="n">
+        <v>128</v>
+      </c>
+      <c r="N705" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O705" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P705" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q705" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R705" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S705" t="n">
+        <v>556</v>
+      </c>
+      <c r="T705" t="n">
         <v>18</v>
-      </c>
-      <c r="N705" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O705" t="n">
-        <v>160000</v>
-      </c>
-      <c r="P705" t="n">
-        <v>155000</v>
-      </c>
-      <c r="Q705" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R705" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S705" t="n">
-        <v>344</v>
-      </c>
-      <c r="T705" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="706">
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N706" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O706" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P706" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T706" t="n">
         <v>450</v>
@@ -56915,7 +56915,7 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
@@ -56924,16 +56924,16 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N707" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O707" t="n">
         <v>160000</v>
       </c>
       <c r="P707" t="n">
-        <v>160000</v>
+        <v>155000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="T707" t="n">
         <v>450</v>
@@ -56995,7 +56995,7 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N708" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O708" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P708" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T708" t="n">
         <v>450</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N709" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="O709" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P709" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="T709" t="n">
         <v>450</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,25 +57155,25 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N710" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O710" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P710" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T710" t="n">
         <v>450</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N711" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O711" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P711" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="T711" t="n">
         <v>450</v>
@@ -57315,7 +57315,7 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
@@ -57324,7 +57324,7 @@
         </is>
       </c>
       <c r="M712" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N712" t="n">
         <v>200000</v>
@@ -57395,7 +57395,7 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
@@ -57404,16 +57404,16 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N713" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O713" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P713" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T713" t="n">
         <v>450</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M714" t="n">
         <v>5</v>
       </c>
       <c r="N714" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O714" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P714" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T714" t="n">
         <v>450</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57555,25 +57555,25 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N715" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O715" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P715" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="T715" t="n">
         <v>450</v>
@@ -57640,20 +57640,20 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N716" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O716" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P716" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T716" t="n">
         <v>450</v>
@@ -57715,25 +57715,25 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N717" t="n">
-        <v>140000</v>
+        <v>220000</v>
       </c>
       <c r="O717" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="P717" t="n">
-        <v>146154</v>
+        <v>220000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="T717" t="n">
         <v>450</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N718" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O718" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P718" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T718" t="n">
         <v>450</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N719" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O719" t="n">
         <v>150000</v>
       </c>
       <c r="P719" t="n">
-        <v>150000</v>
+        <v>146154</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="T719" t="n">
         <v>450</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N720" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O720" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P720" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T720" t="n">
         <v>450</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N721" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O721" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P721" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T721" t="n">
         <v>450</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N722" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O722" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P722" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T722" t="n">
         <v>450</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N723" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O723" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P723" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T723" t="n">
         <v>450</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,7 +58275,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -58284,16 +58284,16 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N724" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O724" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P724" t="n">
-        <v>125000</v>
+        <v>180000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="T724" t="n">
         <v>450</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,25 +58355,25 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N725" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O725" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P725" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T725" t="n">
         <v>450</v>
@@ -58435,7 +58435,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N726" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O726" t="n">
         <v>130000</v>
       </c>
-      <c r="O726" t="n">
-        <v>140000</v>
-      </c>
       <c r="P726" t="n">
-        <v>135000</v>
+        <v>125000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="T726" t="n">
         <v>450</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,7 +58515,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -58524,16 +58524,16 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N727" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O727" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P727" t="n">
-        <v>175000</v>
+        <v>120000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="T727" t="n">
         <v>450</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N728" t="n">
+        <v>130000</v>
+      </c>
+      <c r="O728" t="n">
         <v>140000</v>
       </c>
-      <c r="O728" t="n">
-        <v>150000</v>
-      </c>
       <c r="P728" t="n">
-        <v>148889</v>
+        <v>135000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="T728" t="n">
         <v>450</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N729" t="n">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="O729" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="P729" t="n">
-        <v>110000</v>
+        <v>175000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="T729" t="n">
         <v>450</v>
@@ -58755,25 +58755,25 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N730" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O730" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P730" t="n">
-        <v>180000</v>
+        <v>148889</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="T730" t="n">
         <v>450</v>
@@ -58835,25 +58835,25 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N731" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="O731" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="P731" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="T731" t="n">
         <v>450</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -58924,16 +58924,16 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N732" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O732" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P732" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="T732" t="n">
         <v>450</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -58995,25 +58995,25 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N733" t="n">
         <v>160000</v>
       </c>
       <c r="O733" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P733" t="n">
-        <v>165000</v>
+        <v>160000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="T733" t="n">
         <v>450</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N734" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O734" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P734" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="T734" t="n">
         <v>450</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N735" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O735" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P735" t="n">
-        <v>200000</v>
+        <v>165000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>444</v>
+        <v>367</v>
       </c>
       <c r="T735" t="n">
         <v>450</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N736" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O736" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P736" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59262,11 +59262,11 @@
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T736" t="n">
         <v>450</v>
@@ -59320,20 +59320,20 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N737" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O737" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P737" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T737" t="n">
         <v>450</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,7 +59395,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -59404,16 +59404,16 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N738" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="O738" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P738" t="n">
-        <v>245000</v>
+        <v>170000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>544</v>
+        <v>378</v>
       </c>
       <c r="T738" t="n">
         <v>450</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N739" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O739" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P739" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59502,11 +59502,11 @@
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T739" t="n">
         <v>450</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,7 +59555,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -59564,16 +59564,16 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N740" t="n">
-        <v>110000</v>
+        <v>240000</v>
       </c>
       <c r="O740" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="P740" t="n">
-        <v>115000</v>
+        <v>245000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59582,11 +59582,11 @@
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>256</v>
+        <v>544</v>
       </c>
       <c r="T740" t="n">
         <v>450</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59635,16 +59635,16 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N741" t="n">
         <v>180000</v>
@@ -59662,7 +59662,7 @@
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N742" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="O742" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P742" t="n">
-        <v>180000</v>
+        <v>115000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59742,11 +59742,11 @@
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="T742" t="n">
         <v>450</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N743" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O743" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P743" t="n">
-        <v>155000</v>
+        <v>180000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="T743" t="n">
         <v>450</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N744" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O744" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P744" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T744" t="n">
         <v>450</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N745" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O745" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="P745" t="n">
-        <v>120000</v>
+        <v>155000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="T745" t="n">
         <v>450</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N746" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O746" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P746" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T746" t="n">
         <v>450</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N747" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O747" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P747" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T747" t="n">
         <v>450</v>
@@ -60195,7 +60195,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N748" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="O748" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P748" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="T748" t="n">
         <v>450</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,7 +60275,7 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N749" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="O749" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="P749" t="n">
-        <v>150000</v>
+        <v>130000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="T749" t="n">
         <v>450</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60355,7 +60355,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -60364,16 +60364,16 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N750" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="O750" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="P750" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="T750" t="n">
         <v>450</v>
@@ -60435,25 +60435,25 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N751" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O751" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="P751" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T751" t="n">
         <v>450</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N752" t="n">
-        <v>220000</v>
+        <v>120000</v>
       </c>
       <c r="O752" t="n">
-        <v>220000</v>
+        <v>120000</v>
       </c>
       <c r="P752" t="n">
-        <v>220000</v>
+        <v>120000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>489</v>
+        <v>267</v>
       </c>
       <c r="T752" t="n">
         <v>450</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,25 +60595,25 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N753" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O753" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P753" t="n">
-        <v>165000</v>
+        <v>250000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>367</v>
+        <v>556</v>
       </c>
       <c r="T753" t="n">
         <v>450</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,7 +60675,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -60684,16 +60684,16 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N754" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O754" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P754" t="n">
-        <v>175000</v>
+        <v>220000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="T754" t="n">
         <v>450</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,7 +60755,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -60764,16 +60764,16 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N755" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O755" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P755" t="n">
-        <v>130000</v>
+        <v>165000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60782,11 +60782,11 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="T755" t="n">
         <v>450</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,16 +60844,16 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N756" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O756" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P756" t="n">
-        <v>120000</v>
+        <v>175000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="T756" t="n">
         <v>450</v>
@@ -60915,25 +60915,25 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N757" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O757" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P757" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60942,11 +60942,11 @@
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T757" t="n">
         <v>450</v>
@@ -60995,7 +60995,7 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -61004,16 +61004,16 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N758" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O758" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P758" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61022,11 +61022,11 @@
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="T758" t="n">
         <v>450</v>
@@ -61080,20 +61080,20 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N759" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O759" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P759" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61102,11 +61102,11 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="T759" t="n">
         <v>450</v>
@@ -61160,20 +61160,20 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N760" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O760" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P760" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61186,7 +61186,7 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T760" t="n">
         <v>450</v>
@@ -61240,20 +61240,20 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M761" t="n">
         <v>15</v>
       </c>
       <c r="N761" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="O761" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="P761" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="T761" t="n">
         <v>450</v>
@@ -61315,25 +61315,25 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N762" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O762" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P762" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T762" t="n">
         <v>450</v>
@@ -61395,25 +61395,25 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N763" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O763" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P763" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61422,11 +61422,11 @@
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T763" t="n">
         <v>450</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,25 +61475,25 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N764" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O764" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P764" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>311</v>
+        <v>444</v>
       </c>
       <c r="T764" t="n">
         <v>450</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,25 +61555,25 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N765" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O765" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P765" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61582,11 +61582,11 @@
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T765" t="n">
         <v>450</v>
@@ -61635,25 +61635,25 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N766" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="O766" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="P766" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61662,11 +61662,11 @@
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="T766" t="n">
         <v>450</v>
@@ -61715,25 +61715,25 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M767" t="n">
         <v>10</v>
       </c>
       <c r="N767" t="n">
-        <v>210000</v>
+        <v>120000</v>
       </c>
       <c r="O767" t="n">
-        <v>210000</v>
+        <v>120000</v>
       </c>
       <c r="P767" t="n">
-        <v>210000</v>
+        <v>120000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61742,11 +61742,11 @@
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>467</v>
+        <v>267</v>
       </c>
       <c r="T767" t="n">
         <v>450</v>
@@ -61800,20 +61800,20 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N768" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O768" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P768" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T768" t="n">
         <v>450</v>
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N769" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="O769" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P769" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="T769" t="n">
         <v>450</v>
@@ -61964,16 +61964,16 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N770" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O770" t="n">
         <v>180000</v>
       </c>
       <c r="P770" t="n">
-        <v>175000</v>
+        <v>180000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61982,11 +61982,11 @@
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="T770" t="n">
         <v>450</v>
@@ -62040,20 +62040,20 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N771" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O771" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P771" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62062,11 +62062,11 @@
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T771" t="n">
         <v>450</v>
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N772" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O772" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P772" t="n">
-        <v>160000</v>
+        <v>175000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="T772" t="n">
         <v>450</v>
@@ -62204,16 +62204,16 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N773" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O773" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P773" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T773" t="n">
         <v>450</v>
@@ -62275,25 +62275,25 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N774" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O774" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P774" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62302,11 +62302,11 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T774" t="n">
         <v>450</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62360,20 +62360,20 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N775" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O775" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P775" t="n">
-        <v>175000</v>
+        <v>150000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="T775" t="n">
         <v>450</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,25 +62435,25 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N776" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O776" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P776" t="n">
-        <v>145000</v>
+        <v>180000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>322</v>
+        <v>400</v>
       </c>
       <c r="T776" t="n">
         <v>450</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62520,20 +62520,20 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N777" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="O777" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P777" t="n">
-        <v>240000</v>
+        <v>175000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>533</v>
+        <v>389</v>
       </c>
       <c r="T777" t="n">
         <v>450</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N778" t="n">
-        <v>230000</v>
+        <v>140000</v>
       </c>
       <c r="O778" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P778" t="n">
-        <v>230000</v>
+        <v>145000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>511</v>
+        <v>322</v>
       </c>
       <c r="T778" t="n">
         <v>450</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N779" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O779" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P779" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62706,7 +62706,7 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T779" t="n">
         <v>450</v>
@@ -62760,20 +62760,20 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N780" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="O780" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P780" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="T780" t="n">
         <v>450</v>
@@ -62840,35 +62840,195 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M781" t="n">
+        <v>18</v>
+      </c>
+      <c r="N781" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O781" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P781" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q781" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R781" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S781" t="n">
+        <v>467</v>
+      </c>
+      <c r="T781" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>6</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D782" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E782" t="n">
+        <v>13</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I782" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M782" t="n">
+        <v>6</v>
+      </c>
+      <c r="N782" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O782" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P782" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q782" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S782" t="n">
+        <v>467</v>
+      </c>
+      <c r="T782" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>6</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D783" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E783" t="n">
+        <v>13</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I783" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M781" t="n">
+      <c r="M783" t="n">
         <v>8</v>
       </c>
-      <c r="N781" t="n">
+      <c r="N783" t="n">
         <v>180000</v>
       </c>
-      <c r="O781" t="n">
+      <c r="O783" t="n">
         <v>180000</v>
       </c>
-      <c r="P781" t="n">
+      <c r="P783" t="n">
         <v>180000</v>
       </c>
-      <c r="Q781" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R781" t="inlineStr">
+      <c r="Q783" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R783" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S781" t="n">
+      <c r="S783" t="n">
         <v>400</v>
       </c>
-      <c r="T781" t="n">
+      <c r="T783" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T783"/>
+  <dimension ref="A1:T788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N667" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="O667" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P667" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>489</v>
+        <v>378</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N668" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O668" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P668" t="n">
-        <v>207143</v>
+        <v>150000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="N669" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O669" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P669" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N670" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O670" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P670" t="n">
-        <v>200000</v>
+        <v>185556</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N671" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O671" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P671" t="n">
-        <v>180000</v>
+        <v>155000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N672" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O672" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P672" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N673" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O673" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P673" t="n">
-        <v>180000</v>
+        <v>207143</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N674" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O674" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P674" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N675" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O675" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P675" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,16 +54444,16 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N676" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O676" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P676" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N677" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O677" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P677" t="n">
-        <v>155000</v>
+        <v>200000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N678" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O678" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P678" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54622,11 +54622,11 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N679" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O679" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P679" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N680" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O680" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P680" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54782,11 +54782,11 @@
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N681" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O681" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P681" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54862,11 +54862,11 @@
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54924,16 +54924,16 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N682" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O682" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P682" t="n">
-        <v>170000</v>
+        <v>155000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54942,11 +54942,11 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55007,13 +55007,13 @@
         <v>18</v>
       </c>
       <c r="N683" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O683" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P683" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55022,11 +55022,11 @@
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44392</v>
+        <v>44370</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N684" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O684" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P684" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55102,11 +55102,11 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N685" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O685" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P685" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N686" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="O686" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P686" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N687" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O687" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P687" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N688" t="n">
         <v>140000</v>
       </c>
       <c r="O688" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P688" t="n">
-        <v>151000</v>
+        <v>140000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N689" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O689" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P689" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55555,7 +55555,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
@@ -55564,7 +55564,7 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N690" t="n">
         <v>180000</v>
@@ -55582,7 +55582,7 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S690" t="n">
@@ -55635,25 +55635,25 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N691" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O691" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P691" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T691" t="n">
         <v>450</v>
@@ -55715,7 +55715,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -55742,7 +55742,7 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S692" t="n">
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N693" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O693" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P693" t="n">
-        <v>130000</v>
+        <v>151000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55875,7 +55875,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -55884,7 +55884,7 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N694" t="n">
         <v>130000</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55955,25 +55955,25 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N695" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O695" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P695" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T695" t="n">
         <v>450</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,7 +56035,7 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
@@ -56047,13 +56047,13 @@
         <v>12</v>
       </c>
       <c r="N696" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O696" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P696" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56062,11 +56062,11 @@
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T696" t="n">
         <v>450</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N697" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="O697" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="P697" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>178</v>
+        <v>333</v>
       </c>
       <c r="T697" t="n">
         <v>450</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56195,25 +56195,25 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N698" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O698" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P698" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T698" t="n">
         <v>450</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,25 +56275,25 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N699" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O699" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P699" t="n">
-        <v>162692</v>
+        <v>130000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="T699" t="n">
         <v>450</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N700" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O700" t="n">
         <v>140000</v>
       </c>
       <c r="P700" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T700" t="n">
         <v>450</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N701" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="O701" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P701" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="T701" t="n">
         <v>450</v>
@@ -56515,25 +56515,25 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M702" t="n">
         <v>8</v>
       </c>
       <c r="N702" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="O702" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="P702" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="T702" t="n">
         <v>450</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N703" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="O703" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P703" t="n">
-        <v>195000</v>
+        <v>180000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="T703" t="n">
         <v>450</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N704" t="n">
         <v>160000</v>
       </c>
       <c r="O704" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P704" t="n">
-        <v>160000</v>
+        <v>162692</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="T704" t="n">
         <v>450</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56760,24 +56760,24 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="N705" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="O705" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="P705" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
@@ -56786,10 +56786,10 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>556</v>
+        <v>311</v>
       </c>
       <c r="T705" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N706" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="O706" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="P706" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>400</v>
+        <v>244</v>
       </c>
       <c r="T706" t="n">
         <v>450</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,25 +56915,25 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N707" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O707" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P707" t="n">
-        <v>155000</v>
+        <v>200000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="T707" t="n">
         <v>450</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N708" t="n">
-        <v>120000</v>
+        <v>190000</v>
       </c>
       <c r="O708" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P708" t="n">
-        <v>120000</v>
+        <v>195000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="T708" t="n">
         <v>450</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,12 +57075,12 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M709" t="n">
@@ -57155,29 +57155,29 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="N710" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="O710" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P710" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
@@ -57186,10 +57186,10 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>289</v>
+        <v>556</v>
       </c>
       <c r="T710" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57244,16 +57244,16 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N711" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O711" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P711" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="T711" t="n">
         <v>450</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57327,13 +57327,13 @@
         <v>18</v>
       </c>
       <c r="N712" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O712" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P712" t="n">
-        <v>200000</v>
+        <v>155000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>444</v>
+        <v>344</v>
       </c>
       <c r="T712" t="n">
         <v>450</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57404,16 +57404,16 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N713" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O713" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P713" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T713" t="n">
         <v>450</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57484,16 +57484,16 @@
         </is>
       </c>
       <c r="M714" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N714" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O714" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P714" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T714" t="n">
         <v>450</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57564,16 +57564,16 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N715" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O715" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P715" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T715" t="n">
         <v>450</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57644,16 +57644,16 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N716" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O716" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P716" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="T716" t="n">
         <v>450</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57724,16 +57724,16 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N717" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O717" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P717" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T717" t="n">
         <v>450</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57807,13 +57807,13 @@
         <v>10</v>
       </c>
       <c r="N718" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O718" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P718" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T718" t="n">
         <v>450</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N719" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O719" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P719" t="n">
-        <v>146154</v>
+        <v>200000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="T719" t="n">
         <v>450</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57955,25 +57955,25 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N720" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O720" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P720" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T720" t="n">
         <v>450</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N721" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O721" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="P721" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="T721" t="n">
         <v>450</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N722" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="O722" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="P722" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="T722" t="n">
         <v>450</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N723" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O723" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P723" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T723" t="n">
         <v>450</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N724" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O724" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P724" t="n">
-        <v>180000</v>
+        <v>146154</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="T724" t="n">
         <v>450</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N725" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O725" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P725" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T725" t="n">
         <v>450</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,7 +58435,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N726" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O726" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P726" t="n">
-        <v>125000</v>
+        <v>150000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="T726" t="n">
         <v>450</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N727" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O727" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P727" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T727" t="n">
         <v>450</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N728" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O728" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P728" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T728" t="n">
         <v>450</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58684,16 +58684,16 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N729" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O729" t="n">
         <v>180000</v>
       </c>
       <c r="P729" t="n">
-        <v>175000</v>
+        <v>180000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="T729" t="n">
         <v>450</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58764,16 +58764,16 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N730" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="O730" t="n">
         <v>150000</v>
       </c>
       <c r="P730" t="n">
-        <v>148889</v>
+        <v>150000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="T730" t="n">
         <v>450</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,25 +58835,25 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N731" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="O731" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P731" t="n">
-        <v>110000</v>
+        <v>125000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="T731" t="n">
         <v>450</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -58927,13 +58927,13 @@
         <v>15</v>
       </c>
       <c r="N732" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O732" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P732" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T732" t="n">
         <v>450</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N733" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O733" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P733" t="n">
-        <v>160000</v>
+        <v>135000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="T733" t="n">
         <v>450</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59075,7 +59075,7 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
@@ -59084,16 +59084,16 @@
         </is>
       </c>
       <c r="M734" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N734" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="O734" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P734" t="n">
-        <v>110000</v>
+        <v>175000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="T734" t="n">
         <v>450</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N735" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O735" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P735" t="n">
-        <v>165000</v>
+        <v>148889</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="T735" t="n">
         <v>450</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N736" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="O736" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P736" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="T736" t="n">
         <v>450</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M737" t="n">
         <v>15</v>
       </c>
       <c r="N737" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O737" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P737" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59342,11 +59342,11 @@
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T737" t="n">
         <v>450</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,25 +59395,25 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N738" t="n">
         <v>160000</v>
       </c>
       <c r="O738" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P738" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T738" t="n">
         <v>450</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,25 +59475,25 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N739" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O739" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P739" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59502,11 +59502,11 @@
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="T739" t="n">
         <v>450</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,7 +59555,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -59564,16 +59564,16 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N740" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="O740" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="P740" t="n">
-        <v>245000</v>
+        <v>165000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>544</v>
+        <v>367</v>
       </c>
       <c r="T740" t="n">
         <v>450</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59635,7 +59635,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -59644,16 +59644,16 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N741" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O741" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P741" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T741" t="n">
         <v>450</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N742" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O742" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P742" t="n">
-        <v>115000</v>
+        <v>200000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>256</v>
+        <v>444</v>
       </c>
       <c r="T742" t="n">
         <v>450</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N743" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O743" t="n">
         <v>180000</v>
       </c>
       <c r="P743" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T743" t="n">
         <v>450</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N744" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O744" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P744" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T744" t="n">
         <v>450</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,7 +59955,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -59967,13 +59967,13 @@
         <v>24</v>
       </c>
       <c r="N745" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O745" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P745" t="n">
-        <v>155000</v>
+        <v>245000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>344</v>
+        <v>544</v>
       </c>
       <c r="T745" t="n">
         <v>450</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N746" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O746" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P746" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T746" t="n">
         <v>450</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N747" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="O747" t="n">
         <v>120000</v>
       </c>
       <c r="P747" t="n">
-        <v>120000</v>
+        <v>115000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="T747" t="n">
         <v>450</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N748" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O748" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P748" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T748" t="n">
         <v>450</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N749" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O749" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P749" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T749" t="n">
         <v>450</v>
@@ -60355,25 +60355,25 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N750" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="O750" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="P750" t="n">
-        <v>110000</v>
+        <v>155000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="T750" t="n">
         <v>450</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60435,7 +60435,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
@@ -60447,13 +60447,13 @@
         <v>18</v>
       </c>
       <c r="N751" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O751" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P751" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T751" t="n">
         <v>450</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -60524,7 +60524,7 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N752" t="n">
         <v>120000</v>
@@ -60542,7 +60542,7 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S752" t="n">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N753" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="O753" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="P753" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="T753" t="n">
         <v>450</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,7 +60675,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -60687,13 +60687,13 @@
         <v>15</v>
       </c>
       <c r="N754" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="O754" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="P754" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="T754" t="n">
         <v>450</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N755" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="O755" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P755" t="n">
-        <v>165000</v>
+        <v>110000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60782,11 +60782,11 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="T755" t="n">
         <v>450</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,16 +60844,16 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N756" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O756" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P756" t="n">
-        <v>175000</v>
+        <v>150000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="T756" t="n">
         <v>450</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60920,20 +60920,20 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N757" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O757" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P757" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T757" t="n">
         <v>450</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,25 +60995,25 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N758" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="O758" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="P758" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>267</v>
+        <v>556</v>
       </c>
       <c r="T758" t="n">
         <v>450</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61080,20 +61080,20 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N759" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O759" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P759" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61102,11 +61102,11 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T759" t="n">
         <v>450</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,7 +61155,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -61164,16 +61164,16 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N760" t="n">
         <v>160000</v>
       </c>
       <c r="O760" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P760" t="n">
-        <v>160000</v>
+        <v>165000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61186,7 +61186,7 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="T760" t="n">
         <v>450</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61244,16 +61244,16 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N761" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O761" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P761" t="n">
-        <v>140000</v>
+        <v>175000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="T761" t="n">
         <v>450</v>
@@ -61315,25 +61315,25 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N762" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O762" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P762" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T762" t="n">
         <v>450</v>
@@ -61395,25 +61395,25 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N763" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O763" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P763" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T763" t="n">
         <v>450</v>
@@ -61475,7 +61475,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -61484,16 +61484,16 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N764" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O764" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P764" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T764" t="n">
         <v>450</v>
@@ -61555,7 +61555,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -61564,16 +61564,16 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N765" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O765" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P765" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T765" t="n">
         <v>450</v>
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -61724,16 +61724,16 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N767" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O767" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P767" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61742,11 +61742,11 @@
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T767" t="n">
         <v>450</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61800,20 +61800,20 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N768" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="O768" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="P768" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61822,11 +61822,11 @@
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="T768" t="n">
         <v>450</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,7 +61875,7 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
@@ -61884,16 +61884,16 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N769" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O769" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P769" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61902,11 +61902,11 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T769" t="n">
         <v>450</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,7 +61955,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -62035,7 +62035,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -62044,16 +62044,16 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N771" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="O771" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="P771" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62062,11 +62062,11 @@
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="T771" t="n">
         <v>450</v>
@@ -62115,25 +62115,25 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N772" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O772" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P772" t="n">
-        <v>175000</v>
+        <v>120000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="T772" t="n">
         <v>450</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N773" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O773" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P773" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T773" t="n">
         <v>450</v>
@@ -62280,20 +62280,20 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N774" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="O774" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="P774" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="T774" t="n">
         <v>450</v>
@@ -62360,20 +62360,20 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N775" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O775" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P775" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62382,11 +62382,11 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T775" t="n">
         <v>450</v>
@@ -62435,7 +62435,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -62444,16 +62444,16 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N776" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O776" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P776" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="T776" t="n">
         <v>450</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62604,16 +62604,16 @@
         </is>
       </c>
       <c r="M778" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N778" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O778" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P778" t="n">
-        <v>145000</v>
+        <v>160000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62622,11 +62622,11 @@
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="T778" t="n">
         <v>450</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N779" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="O779" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="P779" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62702,11 +62702,11 @@
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>533</v>
+        <v>356</v>
       </c>
       <c r="T779" t="n">
         <v>450</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62760,20 +62760,20 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N780" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O780" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P780" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>511</v>
+        <v>333</v>
       </c>
       <c r="T780" t="n">
         <v>450</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,7 +62835,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -62844,16 +62844,16 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N781" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O781" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P781" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T781" t="n">
         <v>450</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62924,16 +62924,16 @@
         </is>
       </c>
       <c r="M782" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N782" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="O782" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P782" t="n">
-        <v>210000</v>
+        <v>175000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62946,7 +62946,7 @@
         </is>
       </c>
       <c r="S782" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="T782" t="n">
         <v>450</v>
@@ -62967,68 +62967,468 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E783" t="n">
+        <v>13</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I783" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M783" t="n">
+        <v>30</v>
+      </c>
+      <c r="N783" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O783" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P783" t="n">
+        <v>145000</v>
+      </c>
+      <c r="Q783" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S783" t="n">
+        <v>322</v>
+      </c>
+      <c r="T783" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>6</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D784" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E783" t="n">
-        <v>13</v>
-      </c>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G783" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I783" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J783" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K783" t="inlineStr">
+      <c r="E784" t="n">
+        <v>13</v>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I784" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K784" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L783" t="inlineStr">
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M784" t="n">
+        <v>10</v>
+      </c>
+      <c r="N784" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O784" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P784" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q784" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R784" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S784" t="n">
+        <v>533</v>
+      </c>
+      <c r="T784" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>6</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D785" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E785" t="n">
+        <v>13</v>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I785" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M785" t="n">
+        <v>4</v>
+      </c>
+      <c r="N785" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O785" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P785" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q785" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R785" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S785" t="n">
+        <v>511</v>
+      </c>
+      <c r="T785" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>6</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D786" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E786" t="n">
+        <v>13</v>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G786" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I786" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M786" t="n">
+        <v>18</v>
+      </c>
+      <c r="N786" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O786" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P786" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q786" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R786" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S786" t="n">
+        <v>467</v>
+      </c>
+      <c r="T786" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>6</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D787" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E787" t="n">
+        <v>13</v>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G787" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I787" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M787" t="n">
+        <v>6</v>
+      </c>
+      <c r="N787" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O787" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P787" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q787" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R787" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S787" t="n">
+        <v>467</v>
+      </c>
+      <c r="T787" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>6</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D788" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E788" t="n">
+        <v>13</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I788" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M783" t="n">
+      <c r="M788" t="n">
         <v>8</v>
       </c>
-      <c r="N783" t="n">
+      <c r="N788" t="n">
         <v>180000</v>
       </c>
-      <c r="O783" t="n">
+      <c r="O788" t="n">
         <v>180000</v>
       </c>
-      <c r="P783" t="n">
+      <c r="P788" t="n">
         <v>180000</v>
       </c>
-      <c r="Q783" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R783" t="inlineStr">
+      <c r="Q788" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R788" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S783" t="n">
+      <c r="S788" t="n">
         <v>400</v>
       </c>
-      <c r="T783" t="n">
+      <c r="T788" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T788"/>
+  <dimension ref="A1:T793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N622" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O622" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P622" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T622" t="n">
         <v>450</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,36 +50200,36 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M623" t="n">
+        <v>112</v>
+      </c>
+      <c r="N623" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O623" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P623" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q623" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R623" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="S623" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T623" t="n">
         <v>18</v>
-      </c>
-      <c r="N623" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O623" t="n">
-        <v>150000</v>
-      </c>
-      <c r="P623" t="n">
-        <v>150000</v>
-      </c>
-      <c r="Q623" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R623" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S623" t="n">
-        <v>333</v>
-      </c>
-      <c r="T623" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N624" t="n">
-        <v>130000</v>
+        <v>230000</v>
       </c>
       <c r="O624" t="n">
-        <v>130000</v>
+        <v>230000</v>
       </c>
       <c r="P624" t="n">
-        <v>130000</v>
+        <v>230000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>289</v>
+        <v>511</v>
       </c>
       <c r="T624" t="n">
         <v>450</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N625" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O625" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P625" t="n">
-        <v>170000</v>
+        <v>208571</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="T625" t="n">
         <v>450</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N626" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O626" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P626" t="n">
-        <v>157895</v>
+        <v>190588</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="T626" t="n">
         <v>450</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N627" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O627" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P627" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T627" t="n">
         <v>450</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,7 +50595,7 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N628" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="O628" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P628" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="T628" t="n">
         <v>450</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,7 +50675,7 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
@@ -50684,16 +50684,16 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N629" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="O629" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="P629" t="n">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="T629" t="n">
         <v>450</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,7 +50764,7 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N630" t="n">
         <v>170000</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50844,16 +50844,16 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N631" t="n">
         <v>150000</v>
       </c>
       <c r="O631" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P631" t="n">
-        <v>150000</v>
+        <v>157895</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="T631" t="n">
         <v>450</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50924,7 +50924,7 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N632" t="n">
         <v>130000</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,7 +50995,7 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N633" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O633" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P633" t="n">
-        <v>155000</v>
+        <v>110000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="T633" t="n">
         <v>450</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N634" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="O634" t="n">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="P634" t="n">
-        <v>170000</v>
+        <v>80000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>378</v>
+        <v>178</v>
       </c>
       <c r="T634" t="n">
         <v>450</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N635" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O635" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P635" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T635" t="n">
         <v>450</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N636" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="O636" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="P636" t="n">
-        <v>260000</v>
+        <v>150000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>578</v>
+        <v>333</v>
       </c>
       <c r="T636" t="n">
         <v>450</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N637" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="O637" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="P637" t="n">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T637" t="n">
         <v>450</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N638" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O638" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="P638" t="n">
-        <v>230000</v>
+        <v>155000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>511</v>
+        <v>344</v>
       </c>
       <c r="T638" t="n">
         <v>450</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N639" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O639" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P639" t="n">
-        <v>203529</v>
+        <v>170000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="T639" t="n">
         <v>450</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="N640" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O640" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P640" t="n">
-        <v>174828</v>
+        <v>130000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="T640" t="n">
         <v>450</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N641" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O641" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P641" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="T641" t="n">
         <v>450</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="N642" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O642" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P642" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N643" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="O643" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="P643" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>222</v>
+        <v>511</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N644" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O644" t="n">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="P644" t="n">
-        <v>120000</v>
+        <v>203529</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>267</v>
+        <v>452</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N645" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O645" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P645" t="n">
-        <v>200000</v>
+        <v>174828</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N646" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="O646" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="P646" t="n">
-        <v>170000</v>
+        <v>250000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>378</v>
+        <v>556</v>
       </c>
       <c r="T646" t="n">
         <v>450</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,13 +52124,13 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N647" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O647" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P647" t="n">
         <v>150000</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N648" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="O648" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="P648" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>489</v>
+        <v>222</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52284,16 +52284,16 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N649" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O649" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P649" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N650" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O650" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P650" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N651" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="O651" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P651" t="n">
-        <v>195000</v>
+        <v>170000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N652" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O652" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P652" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N653" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O653" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="P653" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N654" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O654" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P654" t="n">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>244</v>
+        <v>400</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,7 +52760,7 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M655" t="n">
@@ -52782,7 +52782,7 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S655" t="n">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N656" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O656" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P656" t="n">
-        <v>160000</v>
+        <v>195000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N657" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O657" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P657" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N658" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="O658" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="P658" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53087,13 +53087,13 @@
         <v>14</v>
       </c>
       <c r="N659" t="n">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="O659" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P659" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N660" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O660" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P660" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N661" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O661" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P661" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N662" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O662" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P662" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>311</v>
+        <v>444</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N663" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="O663" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="P663" t="n">
-        <v>100000</v>
+        <v>230000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>222</v>
+        <v>511</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N664" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="O664" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="P664" t="n">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>511</v>
+        <v>378</v>
       </c>
       <c r="T664" t="n">
         <v>450</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="N665" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O665" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P665" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N666" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O666" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P666" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N667" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="O667" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P667" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N668" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O668" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="P668" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53884,16 +53884,16 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N669" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O669" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P669" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N670" t="n">
         <v>180000</v>
       </c>
       <c r="O670" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P670" t="n">
-        <v>185556</v>
+        <v>180000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N671" t="n">
         <v>150000</v>
       </c>
       <c r="O671" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P671" t="n">
-        <v>155000</v>
+        <v>150000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N672" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="O672" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P672" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>489</v>
+        <v>378</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N673" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O673" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P673" t="n">
-        <v>207143</v>
+        <v>150000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="T673" t="n">
         <v>450</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="N674" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="O674" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="P674" t="n">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N675" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O675" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P675" t="n">
-        <v>200000</v>
+        <v>185556</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="T675" t="n">
         <v>450</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,16 +54444,16 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N676" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O676" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P676" t="n">
-        <v>180000</v>
+        <v>155000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="T676" t="n">
         <v>450</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N677" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O677" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P677" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54604,16 +54604,16 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N678" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O678" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P678" t="n">
-        <v>180000</v>
+        <v>207143</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N679" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O679" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P679" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54755,7 +54755,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N680" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O680" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P680" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,7 +54835,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N681" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O681" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P681" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N682" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O682" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P682" t="n">
-        <v>155000</v>
+        <v>200000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54942,11 +54942,11 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N683" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O683" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P683" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55022,11 +55022,11 @@
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N684" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O684" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P684" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N685" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O685" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="P685" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N686" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O686" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P686" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N687" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O687" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P687" t="n">
-        <v>170000</v>
+        <v>155000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55407,13 +55407,13 @@
         <v>18</v>
       </c>
       <c r="N688" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O688" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P688" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44392</v>
+        <v>44370</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N689" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O689" t="n">
-        <v>170000</v>
+        <v>140000</v>
       </c>
       <c r="P689" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N690" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O690" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P690" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55582,11 +55582,11 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T690" t="n">
         <v>450</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N691" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="O691" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P691" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="T691" t="n">
         <v>450</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N692" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O692" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P692" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55742,11 +55742,11 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T692" t="n">
         <v>450</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N693" t="n">
         <v>140000</v>
       </c>
       <c r="O693" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P693" t="n">
-        <v>151000</v>
+        <v>140000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N694" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="O694" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P694" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55902,11 +55902,11 @@
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="T694" t="n">
         <v>450</v>
@@ -55955,7 +55955,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -55964,7 +55964,7 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N695" t="n">
         <v>180000</v>
@@ -55982,7 +55982,7 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N696" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O696" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="P696" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="T696" t="n">
         <v>450</v>
@@ -56115,7 +56115,7 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
@@ -56142,7 +56142,7 @@
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S697" t="n">
@@ -56195,25 +56195,25 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N698" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O698" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P698" t="n">
-        <v>130000</v>
+        <v>151000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="T698" t="n">
         <v>450</v>
@@ -56275,7 +56275,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -56284,7 +56284,7 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N699" t="n">
         <v>130000</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N700" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O700" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P700" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56382,11 +56382,11 @@
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T700" t="n">
         <v>450</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56435,7 +56435,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
@@ -56447,13 +56447,13 @@
         <v>12</v>
       </c>
       <c r="N701" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="O701" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="P701" t="n">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56462,11 +56462,11 @@
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="T701" t="n">
         <v>450</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56515,25 +56515,25 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N702" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="O702" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="P702" t="n">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>178</v>
+        <v>333</v>
       </c>
       <c r="T702" t="n">
         <v>450</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,25 +56595,25 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N703" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O703" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P703" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56622,11 +56622,11 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T703" t="n">
         <v>450</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N704" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O704" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P704" t="n">
-        <v>162692</v>
+        <v>130000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="T704" t="n">
         <v>450</v>
@@ -56755,25 +56755,25 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N705" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="O705" t="n">
         <v>140000</v>
       </c>
       <c r="P705" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T705" t="n">
         <v>450</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N706" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="O706" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="P706" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="T706" t="n">
         <v>450</v>
@@ -56915,25 +56915,25 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M707" t="n">
         <v>8</v>
       </c>
       <c r="N707" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="O707" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="P707" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="T707" t="n">
         <v>450</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N708" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="O708" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P708" t="n">
-        <v>195000</v>
+        <v>180000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="T708" t="n">
         <v>450</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N709" t="n">
         <v>160000</v>
       </c>
       <c r="O709" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P709" t="n">
-        <v>160000</v>
+        <v>162692</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="T709" t="n">
         <v>450</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57160,24 +57160,24 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="N710" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="O710" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="P710" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
@@ -57186,10 +57186,10 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>556</v>
+        <v>311</v>
       </c>
       <c r="T710" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N711" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="O711" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="P711" t="n">
-        <v>180000</v>
+        <v>110000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>400</v>
+        <v>244</v>
       </c>
       <c r="T711" t="n">
         <v>450</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,25 +57315,25 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N712" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O712" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P712" t="n">
-        <v>155000</v>
+        <v>200000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="T712" t="n">
         <v>450</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57400,20 +57400,20 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N713" t="n">
-        <v>120000</v>
+        <v>190000</v>
       </c>
       <c r="O713" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P713" t="n">
-        <v>120000</v>
+        <v>195000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="T713" t="n">
         <v>450</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,12 +57475,12 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M714" t="n">
@@ -57555,29 +57555,29 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="N715" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="O715" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P715" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
@@ -57586,10 +57586,10 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>289</v>
+        <v>556</v>
       </c>
       <c r="T715" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57644,16 +57644,16 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N716" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O716" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P716" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="T716" t="n">
         <v>450</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57727,13 +57727,13 @@
         <v>18</v>
       </c>
       <c r="N717" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O717" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P717" t="n">
-        <v>200000</v>
+        <v>155000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>444</v>
+        <v>344</v>
       </c>
       <c r="T717" t="n">
         <v>450</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N718" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O718" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="P718" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>378</v>
+        <v>267</v>
       </c>
       <c r="T718" t="n">
         <v>450</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57884,16 +57884,16 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N719" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="O719" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P719" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="T719" t="n">
         <v>450</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57964,16 +57964,16 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N720" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O720" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P720" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T720" t="n">
         <v>450</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58044,16 +58044,16 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N721" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O721" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P721" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="T721" t="n">
         <v>450</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58124,16 +58124,16 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N722" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O722" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P722" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T722" t="n">
         <v>450</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58207,13 +58207,13 @@
         <v>10</v>
       </c>
       <c r="N723" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O723" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P723" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T723" t="n">
         <v>450</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N724" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="O724" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P724" t="n">
-        <v>146154</v>
+        <v>200000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="T724" t="n">
         <v>450</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,25 +58355,25 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N725" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O725" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P725" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T725" t="n">
         <v>450</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N726" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O726" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="P726" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="T726" t="n">
         <v>450</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N727" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="O727" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="P727" t="n">
-        <v>130000</v>
+        <v>220000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="T727" t="n">
         <v>450</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N728" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O728" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P728" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T728" t="n">
         <v>450</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,25 +58675,25 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N729" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O729" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P729" t="n">
-        <v>180000</v>
+        <v>146154</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="T729" t="n">
         <v>450</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N730" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O730" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P730" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T730" t="n">
         <v>450</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,7 +58835,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -58844,16 +58844,16 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N731" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O731" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P731" t="n">
-        <v>125000</v>
+        <v>150000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="T731" t="n">
         <v>450</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,25 +58915,25 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N732" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O732" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="P732" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="T732" t="n">
         <v>450</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -58995,25 +58995,25 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N733" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O733" t="n">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="P733" t="n">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="T733" t="n">
         <v>450</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59084,16 +59084,16 @@
         </is>
       </c>
       <c r="M734" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N734" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O734" t="n">
         <v>180000</v>
       </c>
       <c r="P734" t="n">
-        <v>175000</v>
+        <v>180000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="T734" t="n">
         <v>450</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59164,16 +59164,16 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N735" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="O735" t="n">
         <v>150000</v>
       </c>
       <c r="P735" t="n">
-        <v>148889</v>
+        <v>150000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="T735" t="n">
         <v>450</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N736" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="O736" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="P736" t="n">
-        <v>110000</v>
+        <v>125000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="T736" t="n">
         <v>450</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,7 +59315,7 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
@@ -59327,13 +59327,13 @@
         <v>15</v>
       </c>
       <c r="N737" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O737" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P737" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T737" t="n">
         <v>450</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N738" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O738" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="P738" t="n">
-        <v>160000</v>
+        <v>135000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="T738" t="n">
         <v>450</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N739" t="n">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="O739" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P739" t="n">
-        <v>110000</v>
+        <v>175000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="T739" t="n">
         <v>450</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59560,20 +59560,20 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N740" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="O740" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P740" t="n">
-        <v>165000</v>
+        <v>148889</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="T740" t="n">
         <v>450</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N741" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="O741" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="P741" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="T741" t="n">
         <v>450</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M742" t="n">
         <v>15</v>
       </c>
       <c r="N742" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O742" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P742" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59742,11 +59742,11 @@
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T742" t="n">
         <v>450</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N743" t="n">
         <v>160000</v>
       </c>
       <c r="O743" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P743" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59822,11 +59822,11 @@
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T743" t="n">
         <v>450</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,25 +59875,25 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N744" t="n">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="O744" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P744" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="T744" t="n">
         <v>450</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,7 +59955,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -59964,16 +59964,16 @@
         </is>
       </c>
       <c r="M745" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N745" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="O745" t="n">
-        <v>250000</v>
+        <v>170000</v>
       </c>
       <c r="P745" t="n">
-        <v>245000</v>
+        <v>165000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>544</v>
+        <v>367</v>
       </c>
       <c r="T745" t="n">
         <v>450</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60035,7 +60035,7 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
@@ -60044,16 +60044,16 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N746" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O746" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P746" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T746" t="n">
         <v>450</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N747" t="n">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="O747" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P747" t="n">
-        <v>115000</v>
+        <v>200000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>256</v>
+        <v>444</v>
       </c>
       <c r="T747" t="n">
         <v>450</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N748" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O748" t="n">
         <v>180000</v>
       </c>
       <c r="P748" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T748" t="n">
         <v>450</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60280,20 +60280,20 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N749" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="O749" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P749" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T749" t="n">
         <v>450</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60355,7 +60355,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -60367,13 +60367,13 @@
         <v>24</v>
       </c>
       <c r="N750" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O750" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P750" t="n">
-        <v>155000</v>
+        <v>245000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>344</v>
+        <v>544</v>
       </c>
       <c r="T750" t="n">
         <v>450</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60435,25 +60435,25 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N751" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O751" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P751" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T751" t="n">
         <v>450</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N752" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="O752" t="n">
         <v>120000</v>
       </c>
       <c r="P752" t="n">
-        <v>120000</v>
+        <v>115000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="T752" t="n">
         <v>450</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N753" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O753" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P753" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T753" t="n">
         <v>450</v>
@@ -60675,25 +60675,25 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N754" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O754" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P754" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T754" t="n">
         <v>450</v>
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N755" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="O755" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="P755" t="n">
-        <v>110000</v>
+        <v>155000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60782,11 +60782,11 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="T755" t="n">
         <v>450</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60847,13 +60847,13 @@
         <v>18</v>
       </c>
       <c r="N756" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O756" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P756" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T756" t="n">
         <v>450</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,7 +60924,7 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N757" t="n">
         <v>120000</v>
@@ -60942,7 +60942,7 @@
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S757" t="n">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -61000,20 +61000,20 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N758" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="O758" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="P758" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="T758" t="n">
         <v>450</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61075,7 +61075,7 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
@@ -61087,13 +61087,13 @@
         <v>15</v>
       </c>
       <c r="N759" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="O759" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="P759" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="T759" t="n">
         <v>450</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,25 +61155,25 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N760" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="O760" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P760" t="n">
-        <v>165000</v>
+        <v>110000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61182,11 +61182,11 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="T760" t="n">
         <v>450</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61244,16 +61244,16 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N761" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O761" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P761" t="n">
-        <v>175000</v>
+        <v>150000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="T761" t="n">
         <v>450</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61320,20 +61320,20 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N762" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O762" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P762" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T762" t="n">
         <v>450</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,25 +61395,25 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N763" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="O763" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="P763" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>267</v>
+        <v>556</v>
       </c>
       <c r="T763" t="n">
         <v>450</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61480,20 +61480,20 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N764" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O764" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P764" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T764" t="n">
         <v>450</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,7 +61555,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -61564,16 +61564,16 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N765" t="n">
         <v>160000</v>
       </c>
       <c r="O765" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P765" t="n">
-        <v>160000</v>
+        <v>165000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="T765" t="n">
         <v>450</v>
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61644,16 +61644,16 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N766" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O766" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P766" t="n">
-        <v>140000</v>
+        <v>175000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="T766" t="n">
         <v>450</v>
@@ -61715,25 +61715,25 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N767" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O767" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P767" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61742,11 +61742,11 @@
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T767" t="n">
         <v>450</v>
@@ -61795,25 +61795,25 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N768" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O768" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P768" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T768" t="n">
         <v>450</v>
@@ -61875,7 +61875,7 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
@@ -61884,16 +61884,16 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N769" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O769" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P769" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T769" t="n">
         <v>450</v>
@@ -61955,7 +61955,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -61964,16 +61964,16 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N770" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O770" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P770" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T770" t="n">
         <v>450</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,7 +62035,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62115,7 +62115,7 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
@@ -62124,16 +62124,16 @@
         </is>
       </c>
       <c r="M772" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N772" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O772" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P772" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T772" t="n">
         <v>450</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N773" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="O773" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="P773" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="T773" t="n">
         <v>450</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,16 +62284,16 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N774" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O774" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P774" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62302,11 +62302,11 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T774" t="n">
         <v>450</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62355,7 +62355,7 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
@@ -62435,7 +62435,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -62444,16 +62444,16 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N776" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="O776" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="P776" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="T776" t="n">
         <v>450</v>
@@ -62515,25 +62515,25 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N777" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O777" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P777" t="n">
-        <v>175000</v>
+        <v>120000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62546,7 +62546,7 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="T777" t="n">
         <v>450</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N778" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O778" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P778" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T778" t="n">
         <v>450</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N779" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="O779" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="P779" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62706,7 +62706,7 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="T779" t="n">
         <v>450</v>
@@ -62760,20 +62760,20 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N780" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O780" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P780" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T780" t="n">
         <v>450</v>
@@ -62835,7 +62835,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -62844,16 +62844,16 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N781" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O781" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P781" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="T781" t="n">
         <v>450</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -63004,16 +63004,16 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N783" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O783" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P783" t="n">
-        <v>145000</v>
+        <v>160000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63022,11 +63022,11 @@
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="T783" t="n">
         <v>450</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -63080,20 +63080,20 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N784" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="O784" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="P784" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63102,11 +63102,11 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>533</v>
+        <v>356</v>
       </c>
       <c r="T784" t="n">
         <v>450</v>
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -63160,20 +63160,20 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N785" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O785" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P785" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>511</v>
+        <v>333</v>
       </c>
       <c r="T785" t="n">
         <v>450</v>
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63235,7 +63235,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -63244,16 +63244,16 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N786" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O786" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P786" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63262,11 +63262,11 @@
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T786" t="n">
         <v>450</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63324,16 +63324,16 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N787" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="O787" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P787" t="n">
-        <v>210000</v>
+        <v>175000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63346,7 +63346,7 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="T787" t="n">
         <v>450</v>
@@ -63367,68 +63367,468 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E788" t="n">
+        <v>13</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I788" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M788" t="n">
+        <v>30</v>
+      </c>
+      <c r="N788" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O788" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P788" t="n">
+        <v>145000</v>
+      </c>
+      <c r="Q788" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R788" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S788" t="n">
+        <v>322</v>
+      </c>
+      <c r="T788" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>6</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D789" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E788" t="n">
-        <v>13</v>
-      </c>
-      <c r="F788" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G788" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I788" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J788" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K788" t="inlineStr">
+      <c r="E789" t="n">
+        <v>13</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G789" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I789" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K789" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L788" t="inlineStr">
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M789" t="n">
+        <v>10</v>
+      </c>
+      <c r="N789" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O789" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P789" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q789" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S789" t="n">
+        <v>533</v>
+      </c>
+      <c r="T789" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>6</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D790" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E790" t="n">
+        <v>13</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I790" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M790" t="n">
+        <v>4</v>
+      </c>
+      <c r="N790" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O790" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P790" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q790" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R790" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S790" t="n">
+        <v>511</v>
+      </c>
+      <c r="T790" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>6</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D791" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E791" t="n">
+        <v>13</v>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G791" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I791" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M791" t="n">
+        <v>18</v>
+      </c>
+      <c r="N791" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O791" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P791" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q791" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R791" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S791" t="n">
+        <v>467</v>
+      </c>
+      <c r="T791" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>6</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D792" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E792" t="n">
+        <v>13</v>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G792" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I792" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M792" t="n">
+        <v>6</v>
+      </c>
+      <c r="N792" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O792" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P792" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q792" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R792" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S792" t="n">
+        <v>467</v>
+      </c>
+      <c r="T792" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>6</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D793" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E793" t="n">
+        <v>13</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I793" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M788" t="n">
+      <c r="M793" t="n">
         <v>8</v>
       </c>
-      <c r="N788" t="n">
+      <c r="N793" t="n">
         <v>180000</v>
       </c>
-      <c r="O788" t="n">
+      <c r="O793" t="n">
         <v>180000</v>
       </c>
-      <c r="P788" t="n">
+      <c r="P793" t="n">
         <v>180000</v>
       </c>
-      <c r="Q788" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R788" t="inlineStr">
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S788" t="n">
+      <c r="S793" t="n">
         <v>400</v>
       </c>
-      <c r="T788" t="n">
+      <c r="T793" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T793"/>
+  <dimension ref="A1:T798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N752" t="n">
-        <v>110000</v>
+        <v>240000</v>
       </c>
       <c r="O752" t="n">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="P752" t="n">
-        <v>115000</v>
+        <v>240000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>256</v>
+        <v>533</v>
       </c>
       <c r="T752" t="n">
         <v>450</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N753" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O753" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P753" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T753" t="n">
         <v>450</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60680,20 +60680,20 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N754" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O754" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P754" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T754" t="n">
         <v>450</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N755" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O755" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P755" t="n">
-        <v>155000</v>
+        <v>200000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="T755" t="n">
         <v>450</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60840,20 +60840,20 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N756" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O756" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P756" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T756" t="n">
         <v>450</v>
@@ -60915,25 +60915,25 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N757" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="O757" t="n">
         <v>120000</v>
       </c>
       <c r="P757" t="n">
-        <v>120000</v>
+        <v>115000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="T757" t="n">
         <v>450</v>
@@ -61000,20 +61000,20 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N758" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O758" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P758" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61022,11 +61022,11 @@
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T758" t="n">
         <v>450</v>
@@ -61075,25 +61075,25 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N759" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="O759" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="P759" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T759" t="n">
         <v>450</v>
@@ -61155,25 +61155,25 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N760" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="O760" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="P760" t="n">
-        <v>110000</v>
+        <v>155000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61182,11 +61182,11 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="T760" t="n">
         <v>450</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61247,13 +61247,13 @@
         <v>18</v>
       </c>
       <c r="N761" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="O761" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P761" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="T761" t="n">
         <v>450</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,7 +61315,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -61324,7 +61324,7 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N762" t="n">
         <v>120000</v>
@@ -61342,7 +61342,7 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S762" t="n">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N763" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="O763" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="P763" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="T763" t="n">
         <v>450</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,7 +61475,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -61487,13 +61487,13 @@
         <v>15</v>
       </c>
       <c r="N764" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="O764" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="P764" t="n">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="T764" t="n">
         <v>450</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,25 +61555,25 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N765" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="O765" t="n">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="P765" t="n">
-        <v>165000</v>
+        <v>110000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61582,11 +61582,11 @@
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="T765" t="n">
         <v>450</v>
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61644,16 +61644,16 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N766" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O766" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P766" t="n">
-        <v>175000</v>
+        <v>150000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="T766" t="n">
         <v>450</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61720,20 +61720,20 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N767" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="O767" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="P767" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="T767" t="n">
         <v>450</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,25 +61795,25 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Beurre D Anjou</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N768" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="O768" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="P768" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>267</v>
+        <v>556</v>
       </c>
       <c r="T768" t="n">
         <v>450</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N769" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O769" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P769" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61902,11 +61902,11 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T769" t="n">
         <v>450</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,7 +61955,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -61964,16 +61964,16 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N770" t="n">
         <v>160000</v>
       </c>
       <c r="O770" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P770" t="n">
-        <v>160000</v>
+        <v>165000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="T770" t="n">
         <v>450</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,7 +62035,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -62044,16 +62044,16 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N771" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O771" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P771" t="n">
-        <v>140000</v>
+        <v>175000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62066,7 +62066,7 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="T771" t="n">
         <v>450</v>
@@ -62115,25 +62115,25 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N772" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O772" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P772" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T772" t="n">
         <v>450</v>
@@ -62195,25 +62195,25 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre D Anjou</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N773" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="O773" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="P773" t="n">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="T773" t="n">
         <v>450</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,16 +62284,16 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N774" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O774" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P774" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T774" t="n">
         <v>450</v>
@@ -62355,7 +62355,7 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
@@ -62364,16 +62364,16 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N775" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O775" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P775" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T775" t="n">
         <v>450</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,7 +62435,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,7 +62515,7 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
@@ -62524,16 +62524,16 @@
         </is>
       </c>
       <c r="M777" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N777" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O777" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P777" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T777" t="n">
         <v>450</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N778" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="O778" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="P778" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62622,11 +62622,11 @@
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="T778" t="n">
         <v>450</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62675,7 +62675,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -62684,16 +62684,16 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N779" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O779" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P779" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62702,11 +62702,11 @@
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T779" t="n">
         <v>450</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62755,7 +62755,7 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
@@ -62835,7 +62835,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -62844,16 +62844,16 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N781" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="O781" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="P781" t="n">
-        <v>190000</v>
+        <v>140000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="T781" t="n">
         <v>450</v>
@@ -62915,25 +62915,25 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N782" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="O782" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P782" t="n">
-        <v>175000</v>
+        <v>120000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62946,7 +62946,7 @@
         </is>
       </c>
       <c r="S782" t="n">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="T782" t="n">
         <v>450</v>
@@ -63000,20 +63000,20 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N783" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O783" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P783" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="T783" t="n">
         <v>450</v>
@@ -63080,20 +63080,20 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N784" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="O784" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="P784" t="n">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63106,7 +63106,7 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="T784" t="n">
         <v>450</v>
@@ -63160,20 +63160,20 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N785" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O785" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P785" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63182,11 +63182,11 @@
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T785" t="n">
         <v>450</v>
@@ -63235,7 +63235,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -63244,16 +63244,16 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N786" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O786" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P786" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63262,11 +63262,11 @@
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="T786" t="n">
         <v>450</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63404,16 +63404,16 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N788" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O788" t="n">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="P788" t="n">
-        <v>145000</v>
+        <v>160000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63422,11 +63422,11 @@
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="T788" t="n">
         <v>450</v>
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -63480,20 +63480,20 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N789" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="O789" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="P789" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63502,11 +63502,11 @@
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>533</v>
+        <v>356</v>
       </c>
       <c r="T789" t="n">
         <v>450</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -63560,20 +63560,20 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N790" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O790" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P790" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>511</v>
+        <v>333</v>
       </c>
       <c r="T790" t="n">
         <v>450</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63635,7 +63635,7 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
@@ -63644,16 +63644,16 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N791" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O791" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P791" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T791" t="n">
         <v>450</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63724,16 +63724,16 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N792" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="O792" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P792" t="n">
-        <v>210000</v>
+        <v>175000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="T792" t="n">
         <v>450</v>
@@ -63767,68 +63767,468 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E793" t="n">
+        <v>13</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I793" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M793" t="n">
+        <v>30</v>
+      </c>
+      <c r="N793" t="n">
+        <v>140000</v>
+      </c>
+      <c r="O793" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P793" t="n">
+        <v>145000</v>
+      </c>
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S793" t="n">
+        <v>322</v>
+      </c>
+      <c r="T793" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>6</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D794" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E793" t="n">
-        <v>13</v>
-      </c>
-      <c r="F793" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G793" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I793" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J793" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K793" t="inlineStr">
+      <c r="E794" t="n">
+        <v>13</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I794" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L793" t="inlineStr">
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M794" t="n">
+        <v>10</v>
+      </c>
+      <c r="N794" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O794" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P794" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q794" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R794" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S794" t="n">
+        <v>533</v>
+      </c>
+      <c r="T794" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>6</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D795" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E795" t="n">
+        <v>13</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I795" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M795" t="n">
+        <v>4</v>
+      </c>
+      <c r="N795" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O795" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P795" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q795" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S795" t="n">
+        <v>511</v>
+      </c>
+      <c r="T795" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>6</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D796" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E796" t="n">
+        <v>13</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I796" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M796" t="n">
+        <v>18</v>
+      </c>
+      <c r="N796" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O796" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P796" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q796" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R796" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S796" t="n">
+        <v>467</v>
+      </c>
+      <c r="T796" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>6</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D797" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E797" t="n">
+        <v>13</v>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G797" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I797" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J797" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M797" t="n">
+        <v>6</v>
+      </c>
+      <c r="N797" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O797" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P797" t="n">
+        <v>210000</v>
+      </c>
+      <c r="Q797" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R797" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S797" t="n">
+        <v>467</v>
+      </c>
+      <c r="T797" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>6</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D798" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E798" t="n">
+        <v>13</v>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G798" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I798" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J798" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L798" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M793" t="n">
+      <c r="M798" t="n">
         <v>8</v>
       </c>
-      <c r="N793" t="n">
+      <c r="N798" t="n">
         <v>180000</v>
       </c>
-      <c r="O793" t="n">
+      <c r="O798" t="n">
         <v>180000</v>
       </c>
-      <c r="P793" t="n">
+      <c r="P798" t="n">
         <v>180000</v>
       </c>
-      <c r="Q793" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R793" t="inlineStr">
+      <c r="Q798" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R798" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S793" t="n">
+      <c r="S798" t="n">
         <v>400</v>
       </c>
-      <c r="T793" t="n">
+      <c r="T798" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T802"/>
+  <dimension ref="A1:T808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N642" t="n">
-        <v>150000</v>
+        <v>240000</v>
       </c>
       <c r="O642" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P642" t="n">
-        <v>155000</v>
+        <v>240000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>344</v>
+        <v>533</v>
       </c>
       <c r="T642" t="n">
         <v>450</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N643" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="O643" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P643" t="n">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>378</v>
+        <v>533</v>
       </c>
       <c r="T643" t="n">
         <v>450</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N644" t="n">
-        <v>130000</v>
+        <v>210000</v>
       </c>
       <c r="O644" t="n">
-        <v>130000</v>
+        <v>210000</v>
       </c>
       <c r="P644" t="n">
-        <v>130000</v>
+        <v>210000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>289</v>
+        <v>467</v>
       </c>
       <c r="T644" t="n">
         <v>450</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,7 +51955,7 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N645" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O645" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P645" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="T645" t="n">
         <v>450</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52044,7 +52044,7 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N646" t="n">
         <v>200000</v>
@@ -52062,7 +52062,7 @@
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S646" t="n">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44469</v>
+        <v>44511</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N647" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O647" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P647" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T647" t="n">
         <v>450</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N648" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O648" t="n">
-        <v>210000</v>
+        <v>160000</v>
       </c>
       <c r="P648" t="n">
-        <v>203529</v>
+        <v>155000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>452</v>
+        <v>344</v>
       </c>
       <c r="T648" t="n">
         <v>450</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N649" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O649" t="n">
         <v>180000</v>
       </c>
       <c r="P649" t="n">
-        <v>174828</v>
+        <v>170000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="T649" t="n">
         <v>450</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N650" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="O650" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="P650" t="n">
-        <v>250000</v>
+        <v>130000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="T650" t="n">
         <v>450</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="N651" t="n">
-        <v>140000</v>
+        <v>260000</v>
       </c>
       <c r="O651" t="n">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="P651" t="n">
-        <v>150000</v>
+        <v>260000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>333</v>
+        <v>578</v>
       </c>
       <c r="T651" t="n">
         <v>450</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N652" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O652" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P652" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T652" t="n">
         <v>450</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N653" t="n">
-        <v>120000</v>
+        <v>230000</v>
       </c>
       <c r="O653" t="n">
-        <v>120000</v>
+        <v>230000</v>
       </c>
       <c r="P653" t="n">
-        <v>120000</v>
+        <v>230000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>267</v>
+        <v>511</v>
       </c>
       <c r="T653" t="n">
         <v>450</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N654" t="n">
         <v>200000</v>
       </c>
       <c r="O654" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P654" t="n">
-        <v>200000</v>
+        <v>203529</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="T654" t="n">
         <v>450</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N655" t="n">
         <v>170000</v>
       </c>
       <c r="O655" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P655" t="n">
-        <v>170000</v>
+        <v>174828</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="T655" t="n">
         <v>450</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,25 +52835,25 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N656" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="O656" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="P656" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T656" t="n">
         <v>450</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N657" t="n">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="O657" t="n">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="P657" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T657" t="n">
         <v>450</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N658" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="O658" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="P658" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="T658" t="n">
         <v>450</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,25 +53075,25 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N659" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O659" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="P659" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T659" t="n">
         <v>450</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N660" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O660" t="n">
         <v>200000</v>
       </c>
       <c r="P660" t="n">
-        <v>195000</v>
+        <v>200000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="T660" t="n">
         <v>450</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N661" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O661" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P661" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="T661" t="n">
         <v>450</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53324,16 +53324,16 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N662" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="O662" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="P662" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="T662" t="n">
         <v>450</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,7 +53395,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -53404,16 +53404,16 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N663" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="O663" t="n">
-        <v>120000</v>
+        <v>220000</v>
       </c>
       <c r="P663" t="n">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>244</v>
+        <v>489</v>
       </c>
       <c r="T663" t="n">
         <v>450</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,11 +53480,11 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N664" t="n">
         <v>180000</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N665" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O665" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P665" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T665" t="n">
         <v>450</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N666" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="O666" t="n">
         <v>200000</v>
       </c>
       <c r="P666" t="n">
-        <v>200000</v>
+        <v>195000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="T666" t="n">
         <v>450</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N667" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="O667" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="P667" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="T667" t="n">
         <v>450</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N668" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="O668" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P668" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="T668" t="n">
         <v>450</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N669" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="O669" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="P669" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="T669" t="n">
         <v>450</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N670" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="O670" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P670" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T670" t="n">
         <v>450</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N671" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="O671" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P671" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="T671" t="n">
         <v>450</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M672" t="n">
         <v>8</v>
       </c>
       <c r="N672" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O672" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="P672" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T672" t="n">
         <v>450</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,16 +54195,16 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N673" t="n">
         <v>230000</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N674" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O674" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P674" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T674" t="n">
         <v>450</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,7 +54364,7 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="N675" t="n">
         <v>150000</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,16 +54435,16 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N676" t="n">
         <v>170000</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N677" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O677" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="P677" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="T677" t="n">
         <v>450</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N678" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="O678" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="P678" t="n">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>489</v>
+        <v>222</v>
       </c>
       <c r="T678" t="n">
         <v>450</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N679" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O679" t="n">
-        <v>190000</v>
+        <v>230000</v>
       </c>
       <c r="P679" t="n">
-        <v>185556</v>
+        <v>230000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="T679" t="n">
         <v>450</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N680" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O680" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P680" t="n">
-        <v>155000</v>
+        <v>180000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="T680" t="n">
         <v>450</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="N681" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O681" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P681" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T681" t="n">
         <v>450</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,7 +54915,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -54924,16 +54924,16 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N682" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O682" t="n">
-        <v>220000</v>
+        <v>170000</v>
       </c>
       <c r="P682" t="n">
-        <v>207143</v>
+        <v>170000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>460</v>
+        <v>378</v>
       </c>
       <c r="T682" t="n">
         <v>450</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N683" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O683" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="P683" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="T683" t="n">
         <v>450</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N684" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O684" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P684" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T684" t="n">
         <v>450</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,25 +55155,25 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N685" t="n">
         <v>180000</v>
       </c>
       <c r="O685" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P685" t="n">
-        <v>180000</v>
+        <v>185556</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="T685" t="n">
         <v>450</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N686" t="n">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="O686" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P686" t="n">
-        <v>200000</v>
+        <v>155000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>444</v>
+        <v>344</v>
       </c>
       <c r="T686" t="n">
         <v>450</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N687" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="O687" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P687" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="T687" t="n">
         <v>450</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N688" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O688" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P688" t="n">
-        <v>180000</v>
+        <v>207143</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="T688" t="n">
         <v>450</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N689" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="O689" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P689" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="T689" t="n">
         <v>450</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,25 +55555,25 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N690" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O690" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P690" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T690" t="n">
         <v>450</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44370</v>
+        <v>44487</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,25 +55635,25 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="N691" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O691" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P691" t="n">
-        <v>155000</v>
+        <v>180000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55662,11 +55662,11 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="T691" t="n">
         <v>450</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N692" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="O692" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="P692" t="n">
-        <v>130000</v>
+        <v>200000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55742,11 +55742,11 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T692" t="n">
         <v>450</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,7 +55795,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -55804,16 +55804,16 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N693" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O693" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="P693" t="n">
-        <v>130000</v>
+        <v>180000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="T693" t="n">
         <v>450</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55884,16 +55884,16 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N694" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O694" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P694" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55902,11 +55902,11 @@
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T694" t="n">
         <v>450</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N695" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O695" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P695" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T695" t="n">
         <v>450</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56040,20 +56040,20 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N696" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O696" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P696" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T696" t="n">
         <v>450</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N697" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="O697" t="n">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="P697" t="n">
-        <v>140000</v>
+        <v>155000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56142,11 +56142,11 @@
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="T697" t="n">
         <v>450</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44392</v>
+        <v>44370</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N698" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="O698" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P698" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="T698" t="n">
         <v>450</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44392</v>
+        <v>44370</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,25 +56275,25 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N699" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O699" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P699" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="T699" t="n">
         <v>450</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M700" t="n">
         <v>10</v>
       </c>
       <c r="N700" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="O700" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P700" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="T700" t="n">
         <v>450</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56447,13 +56447,13 @@
         <v>16</v>
       </c>
       <c r="N701" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O701" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P701" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T701" t="n">
         <v>450</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56524,16 +56524,16 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N702" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O702" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="P702" t="n">
-        <v>151000</v>
+        <v>170000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="T702" t="n">
         <v>450</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56604,16 +56604,16 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N703" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O703" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="P703" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="T703" t="n">
         <v>450</v>
@@ -56675,7 +56675,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
@@ -56684,16 +56684,16 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N704" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="O704" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P704" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="T704" t="n">
         <v>450</v>
@@ -56755,25 +56755,25 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N705" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O705" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P705" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56782,11 +56782,11 @@
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T705" t="n">
         <v>450</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N706" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="O706" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="P706" t="n">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56862,11 +56862,11 @@
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="T706" t="n">
         <v>450</v>
@@ -56915,25 +56915,25 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N707" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="O707" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P707" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="T707" t="n">
         <v>450</v>
@@ -56995,25 +56995,25 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N708" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O708" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P708" t="n">
-        <v>130000</v>
+        <v>151000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="T708" t="n">
         <v>450</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,22 +57075,22 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N709" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="O709" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P709" t="n">
         <v>130000</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57155,25 +57155,25 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N710" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="O710" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="P710" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57182,11 +57182,11 @@
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="T710" t="n">
         <v>450</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57235,25 +57235,25 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N711" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="O711" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="P711" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57262,11 +57262,11 @@
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="T711" t="n">
         <v>450</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,25 +57315,25 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M712" t="n">
         <v>16</v>
       </c>
       <c r="N712" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O712" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P712" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T712" t="n">
         <v>450</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N713" t="n">
-        <v>160000</v>
+        <v>130000</v>
       </c>
       <c r="O713" t="n">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="P713" t="n">
-        <v>162692</v>
+        <v>130000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57422,11 +57422,11 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="T713" t="n">
         <v>450</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,7 +57475,7 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
@@ -57484,16 +57484,16 @@
         </is>
       </c>
       <c r="M714" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N714" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="O714" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P714" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="T714" t="n">
         <v>450</v>
@@ -57555,25 +57555,25 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N715" t="n">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="O715" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="P715" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="T715" t="n">
         <v>450</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N716" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="O716" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="P716" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="T716" t="n">
         <v>450</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57715,25 +57715,25 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N717" t="n">
-        <v>190000</v>
+        <v>80000</v>
       </c>
       <c r="O717" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="P717" t="n">
-        <v>195000</v>
+        <v>80000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="T717" t="n">
         <v>450</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N718" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O718" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P718" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="T718" t="n">
         <v>450</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57880,24 +57880,24 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="N719" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O719" t="n">
-        <v>10000</v>
+        <v>170000</v>
       </c>
       <c r="P719" t="n">
-        <v>10000</v>
+        <v>162692</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
@@ -57906,10 +57906,10 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>556</v>
+        <v>362</v>
       </c>
       <c r="T719" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N720" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="O720" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="P720" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="T720" t="n">
         <v>450</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M721" t="n">
         <v>18</v>
       </c>
       <c r="N721" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="O721" t="n">
-        <v>160000</v>
+        <v>110000</v>
       </c>
       <c r="P721" t="n">
-        <v>155000</v>
+        <v>110000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="T721" t="n">
         <v>450</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,25 +58115,25 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N722" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="O722" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="P722" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="T722" t="n">
         <v>450</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,7 +58195,7 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
@@ -58204,16 +58204,16 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N723" t="n">
-        <v>160000</v>
+        <v>190000</v>
       </c>
       <c r="O723" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P723" t="n">
-        <v>160000</v>
+        <v>195000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="T723" t="n">
         <v>450</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,7 +58275,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -58284,16 +58284,16 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N724" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O724" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P724" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T724" t="n">
         <v>450</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,24 +58360,24 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="N725" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O725" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P725" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
@@ -58386,10 +58386,10 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="T725" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N726" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O726" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P726" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T726" t="n">
         <v>450</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N727" t="n">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="O727" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="P727" t="n">
-        <v>170000</v>
+        <v>155000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="T727" t="n">
         <v>450</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N728" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="O728" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="P728" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="T728" t="n">
         <v>450</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N729" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="O729" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P729" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="T729" t="n">
         <v>450</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,25 +58755,25 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N730" t="n">
-        <v>240000</v>
+        <v>130000</v>
       </c>
       <c r="O730" t="n">
-        <v>240000</v>
+        <v>130000</v>
       </c>
       <c r="P730" t="n">
-        <v>240000</v>
+        <v>130000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>533</v>
+        <v>289</v>
       </c>
       <c r="T730" t="n">
         <v>450</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58840,11 +58840,11 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N731" t="n">
         <v>220000</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N732" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O732" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P732" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="T732" t="n">
         <v>450</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -58995,7 +58995,7 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
@@ -59004,16 +59004,16 @@
         </is>
       </c>
       <c r="M733" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N733" t="n">
-        <v>140000</v>
+        <v>170000</v>
       </c>
       <c r="O733" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="P733" t="n">
-        <v>146154</v>
+        <v>170000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="T733" t="n">
         <v>450</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N734" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O734" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="P734" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T734" t="n">
         <v>450</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N735" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O735" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P735" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T735" t="n">
         <v>450</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N736" t="n">
-        <v>130000</v>
+        <v>240000</v>
       </c>
       <c r="O736" t="n">
-        <v>130000</v>
+        <v>240000</v>
       </c>
       <c r="P736" t="n">
-        <v>130000</v>
+        <v>240000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="T736" t="n">
         <v>450</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59320,20 +59320,20 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N737" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O737" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P737" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T737" t="n">
         <v>450</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59400,11 +59400,11 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N738" t="n">
         <v>180000</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N739" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="O739" t="n">
         <v>150000</v>
       </c>
       <c r="P739" t="n">
-        <v>150000</v>
+        <v>146154</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="T739" t="n">
         <v>450</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,25 +59555,25 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N740" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O740" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P740" t="n">
-        <v>125000</v>
+        <v>170000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>278</v>
+        <v>378</v>
       </c>
       <c r="T740" t="n">
         <v>450</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59635,7 +59635,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -59644,16 +59644,16 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N741" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="O741" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="P741" t="n">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T741" t="n">
         <v>450</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N742" t="n">
         <v>130000</v>
       </c>
       <c r="O742" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="P742" t="n">
-        <v>135000</v>
+        <v>130000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="T742" t="n">
         <v>450</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N743" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O743" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P743" t="n">
-        <v>175000</v>
+        <v>200000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T743" t="n">
         <v>450</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N744" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="O744" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P744" t="n">
-        <v>148889</v>
+        <v>180000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="T744" t="n">
         <v>450</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N745" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="O745" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="P745" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="T745" t="n">
         <v>450</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60035,7 +60035,7 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
@@ -60044,16 +60044,16 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N746" t="n">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="O746" t="n">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="P746" t="n">
-        <v>180000</v>
+        <v>125000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="T746" t="n">
         <v>450</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M747" t="n">
         <v>15</v>
       </c>
       <c r="N747" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="O747" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="P747" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="T747" t="n">
         <v>450</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,7 +60195,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N748" t="n">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="O748" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P748" t="n">
-        <v>110000</v>
+        <v>135000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="T748" t="n">
         <v>450</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N749" t="n">
-        <v>160000</v>
+        <v>170000</v>
       </c>
       <c r="O749" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P749" t="n">
-        <v>165000</v>
+        <v>175000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="T749" t="n">
         <v>450</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60364,16 +60364,16 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N750" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="O750" t="n">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="P750" t="n">
-        <v>130000</v>
+        <v>148889</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="T750" t="n">
         <v>450</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N751" t="n">
-        <v>200000</v>
+        <v>110000</v>
       </c>
       <c r="O751" t="n">
-        <v>200000</v>
+        <v>110000</v>
       </c>
       <c r="P751" t="n">
-        <v>200000</v>
+        <v>110000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60462,11 +60462,11 @@
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>444</v>
+        <v>244</v>
       </c>
       <c r="T751" t="n">
         <v>450</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -60524,16 +60524,16 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N752" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="O752" t="n">
         <v>180000</v>
       </c>
       <c r="P752" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="T752" t="n">
         <v>450</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,7 +60595,7 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
@@ -60604,16 +60604,16 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N753" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="O753" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="P753" t="n">
-        <v>130000</v>
+        <v>160000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="T753" t="n">
         <v>450</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,7 +60675,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -60684,16 +60684,16 @@
         </is>
       </c>
       <c r="M754" 